--- a/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>AZRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40000</v>
+        <v>40300</v>
       </c>
       <c r="E8" s="3">
-        <v>47600</v>
+        <v>37600</v>
       </c>
       <c r="F8" s="3">
-        <v>40000</v>
+        <v>44800</v>
       </c>
       <c r="G8" s="3">
-        <v>34100</v>
+        <v>37600</v>
       </c>
       <c r="H8" s="3">
-        <v>31200</v>
+        <v>32100</v>
       </c>
       <c r="I8" s="3">
-        <v>34000</v>
+        <v>29400</v>
       </c>
       <c r="J8" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K8" s="3">
         <v>31700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E9" s="3">
-        <v>4200</v>
+        <v>3400</v>
       </c>
       <c r="F9" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="G9" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="H9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>36400</v>
+        <v>36800</v>
       </c>
       <c r="E10" s="3">
-        <v>43400</v>
+        <v>34300</v>
       </c>
       <c r="F10" s="3">
-        <v>36400</v>
+        <v>40900</v>
       </c>
       <c r="G10" s="3">
-        <v>31100</v>
+        <v>34300</v>
       </c>
       <c r="H10" s="3">
-        <v>28800</v>
+        <v>29200</v>
       </c>
       <c r="I10" s="3">
-        <v>30900</v>
+        <v>27100</v>
       </c>
       <c r="J10" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K10" s="3">
         <v>28700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1032,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="E15" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F15" s="3">
-        <v>7200</v>
+        <v>8200</v>
       </c>
       <c r="G15" s="3">
         <v>6700</v>
       </c>
       <c r="H15" s="3">
-        <v>8400</v>
+        <v>6300</v>
       </c>
       <c r="I15" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="J15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K15" s="3">
         <v>7400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3400</v>
       </c>
       <c r="P15" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20200</v>
+        <v>21900</v>
       </c>
       <c r="E17" s="3">
-        <v>20600</v>
+        <v>19000</v>
       </c>
       <c r="F17" s="3">
-        <v>17100</v>
+        <v>19400</v>
       </c>
       <c r="G17" s="3">
-        <v>15000</v>
+        <v>16100</v>
       </c>
       <c r="H17" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>16300</v>
+      </c>
+      <c r="L17" s="3">
         <v>14300</v>
       </c>
-      <c r="I17" s="3">
-        <v>14300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>16300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>14300</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>19800</v>
+        <v>18300</v>
       </c>
       <c r="E18" s="3">
-        <v>27000</v>
+        <v>18600</v>
       </c>
       <c r="F18" s="3">
-        <v>22900</v>
+        <v>25500</v>
       </c>
       <c r="G18" s="3">
-        <v>19100</v>
+        <v>21600</v>
       </c>
       <c r="H18" s="3">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="I18" s="3">
-        <v>19700</v>
+        <v>16000</v>
       </c>
       <c r="J18" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K18" s="3">
         <v>15500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-30000</v>
+        <v>-33200</v>
       </c>
       <c r="E20" s="3">
-        <v>-22600</v>
+        <v>-28300</v>
       </c>
       <c r="F20" s="3">
-        <v>-19800</v>
+        <v>-21300</v>
       </c>
       <c r="G20" s="3">
-        <v>-15900</v>
+        <v>-18600</v>
       </c>
       <c r="H20" s="3">
-        <v>-21000</v>
+        <v>-15000</v>
       </c>
       <c r="I20" s="3">
-        <v>-17900</v>
+        <v>-19700</v>
       </c>
       <c r="J20" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-13100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-9600</v>
+        <v>-14200</v>
       </c>
       <c r="E21" s="3">
-        <v>13200</v>
+        <v>-9000</v>
       </c>
       <c r="F21" s="3">
-        <v>3600</v>
+        <v>12400</v>
       </c>
       <c r="G21" s="3">
-        <v>1500</v>
+        <v>3400</v>
       </c>
       <c r="H21" s="3">
-        <v>-3400</v>
+        <v>1400</v>
       </c>
       <c r="I21" s="3">
-        <v>9500</v>
+        <v>-3200</v>
       </c>
       <c r="J21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K21" s="3">
         <v>3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1292,8 +1331,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10200</v>
+        <v>-14800</v>
       </c>
       <c r="E23" s="3">
-        <v>4400</v>
+        <v>-9600</v>
       </c>
       <c r="F23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="N23" s="3">
         <v>3100</v>
       </c>
-      <c r="G23" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
-        <v>2000</v>
-      </c>
       <c r="F24" s="3">
-        <v>-300</v>
+        <v>1900</v>
       </c>
       <c r="G24" s="3">
-        <v>900</v>
+        <v>-200</v>
       </c>
       <c r="H24" s="3">
+        <v>800</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10600</v>
+        <v>-17900</v>
       </c>
       <c r="E26" s="3">
-        <v>2400</v>
+        <v>-10000</v>
       </c>
       <c r="F26" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="G26" s="3">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="H26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="I26" s="3">
-        <v>400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10300</v>
+        <v>-17700</v>
       </c>
       <c r="E27" s="3">
-        <v>2500</v>
+        <v>-9700</v>
       </c>
       <c r="F27" s="3">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="G27" s="3">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="H27" s="3">
-        <v>-4200</v>
+        <v>1900</v>
       </c>
       <c r="I27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1585,11 +1645,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1597,11 +1657,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>1600</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>30000</v>
+        <v>33200</v>
       </c>
       <c r="E32" s="3">
-        <v>22600</v>
+        <v>28300</v>
       </c>
       <c r="F32" s="3">
-        <v>19800</v>
+        <v>21300</v>
       </c>
       <c r="G32" s="3">
-        <v>15900</v>
+        <v>18600</v>
       </c>
       <c r="H32" s="3">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="I32" s="3">
-        <v>17900</v>
+        <v>19700</v>
       </c>
       <c r="J32" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K32" s="3">
         <v>13100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10300</v>
+        <v>-17700</v>
       </c>
       <c r="E33" s="3">
-        <v>2500</v>
+        <v>-9700</v>
       </c>
       <c r="F33" s="3">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="G33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10300</v>
+        <v>-17700</v>
       </c>
       <c r="E35" s="3">
-        <v>2500</v>
+        <v>-9700</v>
       </c>
       <c r="F35" s="3">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="G35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2052,150 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>90700</v>
+        <v>81500</v>
       </c>
       <c r="E41" s="3">
-        <v>160900</v>
+        <v>85400</v>
       </c>
       <c r="F41" s="3">
-        <v>147900</v>
+        <v>151500</v>
       </c>
       <c r="G41" s="3">
-        <v>245000</v>
+        <v>139300</v>
       </c>
       <c r="H41" s="3">
-        <v>106000</v>
+        <v>230700</v>
       </c>
       <c r="I41" s="3">
-        <v>108200</v>
+        <v>99800</v>
       </c>
       <c r="J41" s="3">
+        <v>101900</v>
+      </c>
+      <c r="K41" s="3">
         <v>117200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>109500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>223100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>81300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14100</v>
+        <v>68000</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
+        <v>13300</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H42" s="3">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>43900</v>
+        <v>42300</v>
       </c>
       <c r="J42" s="3">
+        <v>41300</v>
+      </c>
+      <c r="K42" s="3">
         <v>19400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>60200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>30800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>57100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>34800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>57100</v>
+        <v>52300</v>
       </c>
       <c r="E43" s="3">
-        <v>58100</v>
+        <v>53800</v>
       </c>
       <c r="F43" s="3">
-        <v>46400</v>
+        <v>54700</v>
       </c>
       <c r="G43" s="3">
-        <v>35000</v>
+        <v>43700</v>
       </c>
       <c r="H43" s="3">
-        <v>31300</v>
+        <v>33000</v>
       </c>
       <c r="I43" s="3">
-        <v>40200</v>
+        <v>29500</v>
       </c>
       <c r="J43" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K43" s="3">
         <v>31200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2238,105 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>327600</v>
+        <v>50400</v>
       </c>
       <c r="E45" s="3">
-        <v>110800</v>
+        <v>308500</v>
       </c>
       <c r="F45" s="3">
-        <v>49800</v>
+        <v>104300</v>
       </c>
       <c r="G45" s="3">
-        <v>101000</v>
+        <v>46900</v>
       </c>
       <c r="H45" s="3">
-        <v>78000</v>
+        <v>95100</v>
       </c>
       <c r="I45" s="3">
-        <v>50900</v>
+        <v>73500</v>
       </c>
       <c r="J45" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K45" s="3">
         <v>49400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>68000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>36000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>56000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>489500</v>
+        <v>252200</v>
       </c>
       <c r="E46" s="3">
-        <v>330000</v>
+        <v>460900</v>
       </c>
       <c r="F46" s="3">
-        <v>244300</v>
+        <v>310700</v>
       </c>
       <c r="G46" s="3">
-        <v>381000</v>
+        <v>230000</v>
       </c>
       <c r="H46" s="3">
-        <v>260400</v>
+        <v>358700</v>
       </c>
       <c r="I46" s="3">
-        <v>243200</v>
+        <v>245100</v>
       </c>
       <c r="J46" s="3">
+        <v>229000</v>
+      </c>
+      <c r="K46" s="3">
         <v>217300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>265300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>172800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>193200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>146200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2242,11 +2346,11 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
@@ -2267,65 +2371,71 @@
         <v>100</v>
       </c>
       <c r="N47" s="3">
+        <v>100</v>
+      </c>
+      <c r="O47" s="3">
         <v>1900</v>
-      </c>
-      <c r="O47" s="3">
-        <v>100</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1376600</v>
+        <v>1318700</v>
       </c>
       <c r="E48" s="3">
-        <v>1266500</v>
+        <v>1296200</v>
       </c>
       <c r="F48" s="3">
-        <v>1171600</v>
+        <v>1192600</v>
       </c>
       <c r="G48" s="3">
-        <v>988500</v>
+        <v>1103100</v>
       </c>
       <c r="H48" s="3">
-        <v>922500</v>
+        <v>930800</v>
       </c>
       <c r="I48" s="3">
-        <v>823400</v>
+        <v>868600</v>
       </c>
       <c r="J48" s="3">
+        <v>775300</v>
+      </c>
+      <c r="K48" s="3">
         <v>794400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>770800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>707700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>666100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>564200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>513200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>391300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E49" s="3">
         <v>900</v>
@@ -2334,7 +2444,7 @@
         <v>900</v>
       </c>
       <c r="G49" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H49" s="3">
         <v>600</v>
@@ -2346,25 +2456,28 @@
         <v>600</v>
       </c>
       <c r="K49" s="3">
+        <v>600</v>
+      </c>
+      <c r="L49" s="3">
         <v>400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>300</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
       </c>
       <c r="N49" s="3">
+        <v>300</v>
+      </c>
+      <c r="O49" s="3">
         <v>1800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>200</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>119900</v>
+        <v>115100</v>
       </c>
       <c r="E52" s="3">
-        <v>106900</v>
+        <v>112900</v>
       </c>
       <c r="F52" s="3">
-        <v>111700</v>
+        <v>100600</v>
       </c>
       <c r="G52" s="3">
-        <v>90300</v>
+        <v>105200</v>
       </c>
       <c r="H52" s="3">
-        <v>97000</v>
+        <v>85100</v>
       </c>
       <c r="I52" s="3">
-        <v>63400</v>
+        <v>91300</v>
       </c>
       <c r="J52" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K52" s="3">
         <v>26400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>34300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>34600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>30700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1987000</v>
+        <v>1686900</v>
       </c>
       <c r="E54" s="3">
-        <v>1704300</v>
+        <v>1870900</v>
       </c>
       <c r="F54" s="3">
-        <v>1528400</v>
+        <v>1604800</v>
       </c>
       <c r="G54" s="3">
-        <v>1460600</v>
+        <v>1439200</v>
       </c>
       <c r="H54" s="3">
-        <v>1280500</v>
+        <v>1375300</v>
       </c>
       <c r="I54" s="3">
-        <v>1130600</v>
+        <v>1205700</v>
       </c>
       <c r="J54" s="3">
+        <v>1064600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1038700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1057400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1042600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>873800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>792300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>690400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>557500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2748,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25400</v>
+        <v>24600</v>
       </c>
       <c r="E57" s="3">
-        <v>33600</v>
+        <v>24000</v>
       </c>
       <c r="F57" s="3">
-        <v>48800</v>
+        <v>31600</v>
       </c>
       <c r="G57" s="3">
-        <v>32100</v>
+        <v>46000</v>
       </c>
       <c r="H57" s="3">
-        <v>84000</v>
+        <v>30200</v>
       </c>
       <c r="I57" s="3">
-        <v>23500</v>
+        <v>79100</v>
       </c>
       <c r="J57" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K57" s="3">
         <v>21400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>58100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>49900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>297000</v>
+        <v>52500</v>
       </c>
       <c r="E58" s="3">
-        <v>210900</v>
+        <v>279600</v>
       </c>
       <c r="F58" s="3">
-        <v>142000</v>
+        <v>198600</v>
       </c>
       <c r="G58" s="3">
-        <v>88900</v>
+        <v>133700</v>
       </c>
       <c r="H58" s="3">
-        <v>70100</v>
+        <v>83700</v>
       </c>
       <c r="I58" s="3">
-        <v>25100</v>
+        <v>66000</v>
       </c>
       <c r="J58" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K58" s="3">
         <v>24000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>60700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>55300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42100</v>
+        <v>36300</v>
       </c>
       <c r="E59" s="3">
-        <v>34400</v>
+        <v>39600</v>
       </c>
       <c r="F59" s="3">
-        <v>47900</v>
+        <v>32400</v>
       </c>
       <c r="G59" s="3">
-        <v>21600</v>
+        <v>45100</v>
       </c>
       <c r="H59" s="3">
-        <v>25700</v>
+        <v>20300</v>
       </c>
       <c r="I59" s="3">
-        <v>15200</v>
+        <v>24200</v>
       </c>
       <c r="J59" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K59" s="3">
         <v>26900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>364500</v>
+        <v>113400</v>
       </c>
       <c r="E60" s="3">
-        <v>278900</v>
+        <v>343200</v>
       </c>
       <c r="F60" s="3">
-        <v>238800</v>
+        <v>262600</v>
       </c>
       <c r="G60" s="3">
-        <v>142600</v>
+        <v>224800</v>
       </c>
       <c r="H60" s="3">
-        <v>179700</v>
+        <v>134300</v>
       </c>
       <c r="I60" s="3">
-        <v>63800</v>
+        <v>169200</v>
       </c>
       <c r="J60" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K60" s="3">
         <v>72300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>72800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>88300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>132000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>118800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>79300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1154500</v>
+        <v>1078200</v>
       </c>
       <c r="E61" s="3">
-        <v>954700</v>
+        <v>1087100</v>
       </c>
       <c r="F61" s="3">
-        <v>865700</v>
+        <v>898900</v>
       </c>
       <c r="G61" s="3">
-        <v>897900</v>
+        <v>815100</v>
       </c>
       <c r="H61" s="3">
-        <v>885200</v>
+        <v>845400</v>
       </c>
       <c r="I61" s="3">
-        <v>833100</v>
+        <v>833500</v>
       </c>
       <c r="J61" s="3">
+        <v>784500</v>
+      </c>
+      <c r="K61" s="3">
         <v>733400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>748900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>721300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>482400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>429100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>371000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>303100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>115500</v>
+        <v>113000</v>
       </c>
       <c r="E62" s="3">
-        <v>107800</v>
+        <v>108800</v>
       </c>
       <c r="F62" s="3">
-        <v>67400</v>
+        <v>101500</v>
       </c>
       <c r="G62" s="3">
-        <v>50300</v>
+        <v>63500</v>
       </c>
       <c r="H62" s="3">
-        <v>48200</v>
+        <v>47400</v>
       </c>
       <c r="I62" s="3">
         <v>45400</v>
       </c>
       <c r="J62" s="3">
+        <v>42800</v>
+      </c>
+      <c r="K62" s="3">
         <v>46700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>43800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>38800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1637900</v>
+        <v>1307600</v>
       </c>
       <c r="E66" s="3">
-        <v>1345000</v>
+        <v>1542300</v>
       </c>
       <c r="F66" s="3">
-        <v>1175600</v>
+        <v>1266500</v>
       </c>
       <c r="G66" s="3">
-        <v>1107100</v>
+        <v>1107000</v>
       </c>
       <c r="H66" s="3">
-        <v>1129700</v>
+        <v>1042400</v>
       </c>
       <c r="I66" s="3">
-        <v>959000</v>
+        <v>1063700</v>
       </c>
       <c r="J66" s="3">
+        <v>903000</v>
+      </c>
+      <c r="K66" s="3">
         <v>868600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>882200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>869000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>681400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>610100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>503400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>507900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,10 +3374,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-96500</v>
+        <v>-108600</v>
       </c>
       <c r="E72" s="3">
-        <v>-87300</v>
+        <v>-90800</v>
       </c>
       <c r="F72" s="3">
-        <v>-88600</v>
+        <v>-82200</v>
       </c>
       <c r="G72" s="3">
-        <v>-91500</v>
+        <v>-83400</v>
       </c>
       <c r="H72" s="3">
-        <v>-93500</v>
+        <v>-86200</v>
       </c>
       <c r="I72" s="3">
-        <v>-89400</v>
+        <v>-88100</v>
       </c>
       <c r="J72" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-92600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-97400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-95800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-81800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-78900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-74400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>349000</v>
+        <v>379300</v>
       </c>
       <c r="E76" s="3">
-        <v>359300</v>
+        <v>328600</v>
       </c>
       <c r="F76" s="3">
-        <v>352800</v>
+        <v>338300</v>
       </c>
       <c r="G76" s="3">
-        <v>353600</v>
+        <v>332200</v>
       </c>
       <c r="H76" s="3">
-        <v>150800</v>
+        <v>332900</v>
       </c>
       <c r="I76" s="3">
-        <v>171600</v>
+        <v>142000</v>
       </c>
       <c r="J76" s="3">
+        <v>161600</v>
+      </c>
+      <c r="K76" s="3">
         <v>170100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>175200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>173600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>192500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>182200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>186900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-110200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10300</v>
+        <v>-17700</v>
       </c>
       <c r="E81" s="3">
-        <v>2500</v>
+        <v>-9700</v>
       </c>
       <c r="F81" s="3">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="G81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21200</v>
+        <v>10500</v>
       </c>
       <c r="E89" s="3">
-        <v>-6600</v>
+        <v>20000</v>
       </c>
       <c r="F89" s="3">
-        <v>18600</v>
+        <v>-6200</v>
       </c>
       <c r="G89" s="3">
-        <v>-3200</v>
+        <v>17500</v>
       </c>
       <c r="H89" s="3">
-        <v>24800</v>
+        <v>-3000</v>
       </c>
       <c r="I89" s="3">
-        <v>-10500</v>
+        <v>23300</v>
       </c>
       <c r="J89" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K89" s="3">
         <v>20100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-135900</v>
+        <v>-87200</v>
       </c>
       <c r="E94" s="3">
-        <v>-79600</v>
+        <v>-128000</v>
       </c>
       <c r="F94" s="3">
-        <v>-181400</v>
+        <v>-74900</v>
       </c>
       <c r="G94" s="3">
-        <v>-78100</v>
+        <v>-170800</v>
       </c>
       <c r="H94" s="3">
-        <v>-47100</v>
+        <v>-73600</v>
       </c>
       <c r="I94" s="3">
-        <v>-58900</v>
+        <v>-44300</v>
       </c>
       <c r="J94" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-194500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-101200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-125500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-60400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>267100</v>
+        <v>-183100</v>
       </c>
       <c r="E100" s="3">
-        <v>150800</v>
+        <v>251500</v>
       </c>
       <c r="F100" s="3">
-        <v>24900</v>
+        <v>142000</v>
       </c>
       <c r="G100" s="3">
-        <v>233900</v>
+        <v>23400</v>
       </c>
       <c r="H100" s="3">
-        <v>59000</v>
+        <v>220200</v>
       </c>
       <c r="I100" s="3">
-        <v>59700</v>
+        <v>55600</v>
       </c>
       <c r="J100" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>55900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>168700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>17700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>98500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>122000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>AZRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40300</v>
+        <v>49500</v>
       </c>
       <c r="E8" s="3">
-        <v>37600</v>
+        <v>41000</v>
       </c>
       <c r="F8" s="3">
-        <v>44800</v>
+        <v>38300</v>
       </c>
       <c r="G8" s="3">
-        <v>37600</v>
+        <v>45700</v>
       </c>
       <c r="H8" s="3">
-        <v>32100</v>
+        <v>38400</v>
       </c>
       <c r="I8" s="3">
-        <v>29400</v>
+        <v>32700</v>
       </c>
       <c r="J8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K8" s="3">
         <v>32000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="E9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="3">
         <v>3400</v>
       </c>
-      <c r="F9" s="3">
-        <v>3900</v>
-      </c>
       <c r="G9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="3">
         <v>3400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M9" s="3">
         <v>2300</v>
       </c>
-      <c r="J9" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>36800</v>
+        <v>45100</v>
       </c>
       <c r="E10" s="3">
-        <v>34300</v>
+        <v>37500</v>
       </c>
       <c r="F10" s="3">
-        <v>40900</v>
+        <v>34900</v>
       </c>
       <c r="G10" s="3">
-        <v>34300</v>
+        <v>41700</v>
       </c>
       <c r="H10" s="3">
-        <v>29200</v>
+        <v>34900</v>
       </c>
       <c r="I10" s="3">
-        <v>27100</v>
+        <v>29800</v>
       </c>
       <c r="J10" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K10" s="3">
         <v>29100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,55 +1055,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9500</v>
+        <v>11400</v>
       </c>
       <c r="E15" s="3">
-        <v>8900</v>
+        <v>9700</v>
       </c>
       <c r="F15" s="3">
-        <v>8200</v>
+        <v>9000</v>
       </c>
       <c r="G15" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K15" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L15" s="3">
+        <v>7400</v>
+      </c>
+      <c r="M15" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N15" s="3">
         <v>6700</v>
       </c>
-      <c r="H15" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>6900</v>
-      </c>
-      <c r="M15" s="3">
-        <v>6700</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3400</v>
       </c>
       <c r="Q15" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21900</v>
+        <v>25300</v>
       </c>
       <c r="E17" s="3">
-        <v>19000</v>
+        <v>22400</v>
       </c>
       <c r="F17" s="3">
         <v>19400</v>
       </c>
       <c r="G17" s="3">
-        <v>16100</v>
+        <v>19700</v>
       </c>
       <c r="H17" s="3">
-        <v>14100</v>
+        <v>16400</v>
       </c>
       <c r="I17" s="3">
-        <v>13400</v>
+        <v>14400</v>
       </c>
       <c r="J17" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K17" s="3">
         <v>13500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>18700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>25900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I18" s="3">
         <v>18300</v>
       </c>
-      <c r="E18" s="3">
-        <v>18600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>25500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>21600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>18000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>16000</v>
-      </c>
       <c r="J18" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K18" s="3">
         <v>18500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-33200</v>
+        <v>-28400</v>
       </c>
       <c r="E20" s="3">
-        <v>-28300</v>
+        <v>-33800</v>
       </c>
       <c r="F20" s="3">
-        <v>-21300</v>
+        <v>-28800</v>
       </c>
       <c r="G20" s="3">
-        <v>-18600</v>
+        <v>-21700</v>
       </c>
       <c r="H20" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-15000</v>
       </c>
-      <c r="I20" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-34800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-14200</v>
+        <v>-2400</v>
       </c>
       <c r="E21" s="3">
-        <v>-9000</v>
+        <v>-14500</v>
       </c>
       <c r="F21" s="3">
-        <v>12400</v>
+        <v>-9200</v>
       </c>
       <c r="G21" s="3">
-        <v>3400</v>
+        <v>12600</v>
       </c>
       <c r="H21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-19200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1334,8 +1374,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14800</v>
+        <v>-4200</v>
       </c>
       <c r="E23" s="3">
-        <v>-9600</v>
+        <v>-15100</v>
       </c>
       <c r="F23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G23" s="3">
         <v>4200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2900</v>
       </c>
       <c r="H23" s="3">
         <v>3000</v>
       </c>
       <c r="I23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="E24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>500</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N26" s="3">
         <v>-17900</v>
       </c>
-      <c r="E26" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17700</v>
+        <v>-5000</v>
       </c>
       <c r="E27" s="3">
-        <v>-9700</v>
+        <v>-18100</v>
       </c>
       <c r="F27" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>500</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="O27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1648,11 +1709,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1660,11 +1721,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>1600</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33200</v>
+        <v>28400</v>
       </c>
       <c r="E32" s="3">
-        <v>28300</v>
+        <v>33800</v>
       </c>
       <c r="F32" s="3">
-        <v>21300</v>
+        <v>28800</v>
       </c>
       <c r="G32" s="3">
-        <v>18600</v>
+        <v>21700</v>
       </c>
       <c r="H32" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>16900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>13100</v>
+      </c>
+      <c r="M32" s="3">
         <v>15000</v>
       </c>
-      <c r="I32" s="3">
-        <v>19700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>16900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>13100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>34800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17700</v>
+        <v>-5000</v>
       </c>
       <c r="E33" s="3">
-        <v>-9700</v>
+        <v>-18100</v>
       </c>
       <c r="F33" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="O33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17700</v>
+        <v>-5000</v>
       </c>
       <c r="E35" s="3">
-        <v>-9700</v>
+        <v>-18100</v>
       </c>
       <c r="F35" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="O35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,149 +2139,159 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>81500</v>
+        <v>131900</v>
       </c>
       <c r="E41" s="3">
-        <v>85400</v>
+        <v>83100</v>
       </c>
       <c r="F41" s="3">
-        <v>151500</v>
+        <v>87000</v>
       </c>
       <c r="G41" s="3">
-        <v>139300</v>
+        <v>154400</v>
       </c>
       <c r="H41" s="3">
-        <v>230700</v>
+        <v>141900</v>
       </c>
       <c r="I41" s="3">
-        <v>99800</v>
+        <v>235100</v>
       </c>
       <c r="J41" s="3">
+        <v>101700</v>
+      </c>
+      <c r="K41" s="3">
         <v>101900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>117200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>109500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>223100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>63600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>81300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>68000</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>13300</v>
+        <v>69300</v>
       </c>
       <c r="F42" s="3">
-        <v>100</v>
+        <v>13500</v>
       </c>
       <c r="G42" s="3">
         <v>100</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I42" s="3">
-        <v>42300</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K42" s="3">
         <v>41300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>60200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>30800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>57100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>34800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>52300</v>
+        <v>60000</v>
       </c>
       <c r="E43" s="3">
-        <v>53800</v>
+        <v>53300</v>
       </c>
       <c r="F43" s="3">
-        <v>54700</v>
+        <v>54800</v>
       </c>
       <c r="G43" s="3">
-        <v>43700</v>
+        <v>55800</v>
       </c>
       <c r="H43" s="3">
-        <v>33000</v>
+        <v>44500</v>
       </c>
       <c r="I43" s="3">
-        <v>29500</v>
+        <v>33600</v>
       </c>
       <c r="J43" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K43" s="3">
         <v>37900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,107 +2337,116 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>50400</v>
+        <v>87500</v>
       </c>
       <c r="E45" s="3">
-        <v>308500</v>
+        <v>51300</v>
       </c>
       <c r="F45" s="3">
-        <v>104300</v>
+        <v>314300</v>
       </c>
       <c r="G45" s="3">
-        <v>46900</v>
+        <v>106300</v>
       </c>
       <c r="H45" s="3">
-        <v>95100</v>
+        <v>47800</v>
       </c>
       <c r="I45" s="3">
-        <v>73500</v>
+        <v>96900</v>
       </c>
       <c r="J45" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K45" s="3">
         <v>47900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>49400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>68000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>36000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>50500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>56000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>252200</v>
+        <v>279400</v>
       </c>
       <c r="E46" s="3">
-        <v>460900</v>
+        <v>257000</v>
       </c>
       <c r="F46" s="3">
-        <v>310700</v>
+        <v>469600</v>
       </c>
       <c r="G46" s="3">
-        <v>230000</v>
+        <v>316600</v>
       </c>
       <c r="H46" s="3">
-        <v>358700</v>
+        <v>234400</v>
       </c>
       <c r="I46" s="3">
-        <v>245100</v>
+        <v>365500</v>
       </c>
       <c r="J46" s="3">
+        <v>249800</v>
+      </c>
+      <c r="K46" s="3">
         <v>229000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>217300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>265300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>172800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>193200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>146200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>100</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -2349,11 +2454,11 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
@@ -2374,68 +2479,74 @@
         <v>100</v>
       </c>
       <c r="O47" s="3">
+        <v>100</v>
+      </c>
+      <c r="P47" s="3">
         <v>1900</v>
-      </c>
-      <c r="P47" s="3">
-        <v>100</v>
       </c>
       <c r="Q47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1318700</v>
+        <v>1352800</v>
       </c>
       <c r="E48" s="3">
-        <v>1296200</v>
+        <v>1343600</v>
       </c>
       <c r="F48" s="3">
-        <v>1192600</v>
+        <v>1320700</v>
       </c>
       <c r="G48" s="3">
-        <v>1103100</v>
+        <v>1215100</v>
       </c>
       <c r="H48" s="3">
-        <v>930800</v>
+        <v>1124000</v>
       </c>
       <c r="I48" s="3">
-        <v>868600</v>
+        <v>948400</v>
       </c>
       <c r="J48" s="3">
+        <v>885000</v>
+      </c>
+      <c r="K48" s="3">
         <v>775300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>794400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>770800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>707700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>666100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>564200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>513200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>391300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>900</v>
@@ -2444,10 +2555,10 @@
         <v>900</v>
       </c>
       <c r="G49" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
@@ -2459,25 +2570,28 @@
         <v>600</v>
       </c>
       <c r="L49" s="3">
+        <v>600</v>
+      </c>
+      <c r="M49" s="3">
         <v>400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>300</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
       </c>
       <c r="O49" s="3">
+        <v>300</v>
+      </c>
+      <c r="P49" s="3">
         <v>1800</v>
-      </c>
-      <c r="P49" s="3">
-        <v>200</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115100</v>
+        <v>150400</v>
       </c>
       <c r="E52" s="3">
-        <v>112900</v>
+        <v>117300</v>
       </c>
       <c r="F52" s="3">
-        <v>100600</v>
+        <v>115000</v>
       </c>
       <c r="G52" s="3">
-        <v>105200</v>
+        <v>102500</v>
       </c>
       <c r="H52" s="3">
-        <v>85100</v>
+        <v>107200</v>
       </c>
       <c r="I52" s="3">
-        <v>91300</v>
+        <v>86700</v>
       </c>
       <c r="J52" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K52" s="3">
         <v>59700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>34300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>34600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>30700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1686900</v>
+        <v>1783400</v>
       </c>
       <c r="E54" s="3">
-        <v>1870900</v>
+        <v>1718800</v>
       </c>
       <c r="F54" s="3">
-        <v>1604800</v>
+        <v>1906300</v>
       </c>
       <c r="G54" s="3">
-        <v>1439200</v>
+        <v>1635100</v>
       </c>
       <c r="H54" s="3">
-        <v>1375300</v>
+        <v>1466400</v>
       </c>
       <c r="I54" s="3">
-        <v>1205700</v>
+        <v>1401300</v>
       </c>
       <c r="J54" s="3">
+        <v>1228500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1064600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1038700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1057400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1042600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>873800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>792300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>690400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>557500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24600</v>
+        <v>24200</v>
       </c>
       <c r="E57" s="3">
-        <v>24000</v>
+        <v>25100</v>
       </c>
       <c r="F57" s="3">
-        <v>31600</v>
+        <v>24400</v>
       </c>
       <c r="G57" s="3">
-        <v>46000</v>
+        <v>32200</v>
       </c>
       <c r="H57" s="3">
-        <v>30200</v>
+        <v>46800</v>
       </c>
       <c r="I57" s="3">
-        <v>79100</v>
+        <v>30800</v>
       </c>
       <c r="J57" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K57" s="3">
         <v>22100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>58100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>49900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>52500</v>
+        <v>44200</v>
       </c>
       <c r="E58" s="3">
-        <v>279600</v>
+        <v>53500</v>
       </c>
       <c r="F58" s="3">
-        <v>198600</v>
+        <v>284900</v>
       </c>
       <c r="G58" s="3">
-        <v>133700</v>
+        <v>202400</v>
       </c>
       <c r="H58" s="3">
-        <v>83700</v>
+        <v>136200</v>
       </c>
       <c r="I58" s="3">
-        <v>66000</v>
+        <v>85300</v>
       </c>
       <c r="J58" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K58" s="3">
         <v>23600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>60700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>55300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36300</v>
+        <v>55900</v>
       </c>
       <c r="E59" s="3">
-        <v>39600</v>
+        <v>37000</v>
       </c>
       <c r="F59" s="3">
-        <v>32400</v>
+        <v>40300</v>
       </c>
       <c r="G59" s="3">
-        <v>45100</v>
+        <v>33000</v>
       </c>
       <c r="H59" s="3">
-        <v>20300</v>
+        <v>46000</v>
       </c>
       <c r="I59" s="3">
-        <v>24200</v>
+        <v>20700</v>
       </c>
       <c r="J59" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K59" s="3">
         <v>14300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>113400</v>
+        <v>124300</v>
       </c>
       <c r="E60" s="3">
-        <v>343200</v>
+        <v>115600</v>
       </c>
       <c r="F60" s="3">
-        <v>262600</v>
+        <v>349700</v>
       </c>
       <c r="G60" s="3">
-        <v>224800</v>
+        <v>267500</v>
       </c>
       <c r="H60" s="3">
-        <v>134300</v>
+        <v>229100</v>
       </c>
       <c r="I60" s="3">
-        <v>169200</v>
+        <v>136800</v>
       </c>
       <c r="J60" s="3">
+        <v>172400</v>
+      </c>
+      <c r="K60" s="3">
         <v>60100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>72300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>72800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>88300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>132000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>118800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>79300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1078200</v>
+        <v>1166300</v>
       </c>
       <c r="E61" s="3">
-        <v>1087100</v>
+        <v>1098600</v>
       </c>
       <c r="F61" s="3">
-        <v>898900</v>
+        <v>1107700</v>
       </c>
       <c r="G61" s="3">
-        <v>815100</v>
+        <v>915900</v>
       </c>
       <c r="H61" s="3">
-        <v>845400</v>
+        <v>830500</v>
       </c>
       <c r="I61" s="3">
-        <v>833500</v>
+        <v>861400</v>
       </c>
       <c r="J61" s="3">
+        <v>849200</v>
+      </c>
+      <c r="K61" s="3">
         <v>784500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>733400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>748900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>721300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>482400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>429100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>371000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>303100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>113000</v>
+        <v>126300</v>
       </c>
       <c r="E62" s="3">
-        <v>108800</v>
+        <v>115100</v>
       </c>
       <c r="F62" s="3">
-        <v>101500</v>
+        <v>110800</v>
       </c>
       <c r="G62" s="3">
-        <v>63500</v>
+        <v>103400</v>
       </c>
       <c r="H62" s="3">
-        <v>47400</v>
+        <v>64700</v>
       </c>
       <c r="I62" s="3">
-        <v>45400</v>
+        <v>48300</v>
       </c>
       <c r="J62" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K62" s="3">
         <v>42800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>43800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>38800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1307600</v>
+        <v>1419500</v>
       </c>
       <c r="E66" s="3">
-        <v>1542300</v>
+        <v>1332400</v>
       </c>
       <c r="F66" s="3">
-        <v>1266500</v>
+        <v>1571400</v>
       </c>
       <c r="G66" s="3">
-        <v>1107000</v>
+        <v>1290400</v>
       </c>
       <c r="H66" s="3">
-        <v>1042400</v>
+        <v>1127900</v>
       </c>
       <c r="I66" s="3">
-        <v>1063700</v>
+        <v>1062100</v>
       </c>
       <c r="J66" s="3">
+        <v>1083800</v>
+      </c>
+      <c r="K66" s="3">
         <v>903000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>868600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>882200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>869000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>681400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>610100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>503400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>507900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,10 +3545,13 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-108600</v>
+        <v>-115600</v>
       </c>
       <c r="E72" s="3">
-        <v>-90800</v>
+        <v>-110600</v>
       </c>
       <c r="F72" s="3">
-        <v>-82200</v>
+        <v>-92500</v>
       </c>
       <c r="G72" s="3">
-        <v>-83400</v>
+        <v>-83700</v>
       </c>
       <c r="H72" s="3">
-        <v>-86200</v>
+        <v>-85000</v>
       </c>
       <c r="I72" s="3">
-        <v>-88100</v>
+        <v>-87800</v>
       </c>
       <c r="J72" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-84200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-92600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-97400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-95800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-81800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-78900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-74400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>379300</v>
+        <v>363900</v>
       </c>
       <c r="E76" s="3">
-        <v>328600</v>
+        <v>386500</v>
       </c>
       <c r="F76" s="3">
-        <v>338300</v>
+        <v>334900</v>
       </c>
       <c r="G76" s="3">
-        <v>332200</v>
+        <v>344700</v>
       </c>
       <c r="H76" s="3">
-        <v>332900</v>
+        <v>338500</v>
       </c>
       <c r="I76" s="3">
-        <v>142000</v>
+        <v>339200</v>
       </c>
       <c r="J76" s="3">
+        <v>144700</v>
+      </c>
+      <c r="K76" s="3">
         <v>161600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>170100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>175200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>173600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>192500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>182200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>186900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-110200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17700</v>
+        <v>-5000</v>
       </c>
       <c r="E81" s="3">
-        <v>-9700</v>
+        <v>-18100</v>
       </c>
       <c r="F81" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="O81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10500</v>
+        <v>24800</v>
       </c>
       <c r="E89" s="3">
-        <v>20000</v>
+        <v>10700</v>
       </c>
       <c r="F89" s="3">
-        <v>-6200</v>
+        <v>20300</v>
       </c>
       <c r="G89" s="3">
-        <v>17500</v>
+        <v>-6300</v>
       </c>
       <c r="H89" s="3">
+        <v>17900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-3000</v>
       </c>
-      <c r="I89" s="3">
-        <v>23300</v>
-      </c>
       <c r="J89" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-87200</v>
+        <v>49600</v>
       </c>
       <c r="E94" s="3">
-        <v>-128000</v>
+        <v>-88800</v>
       </c>
       <c r="F94" s="3">
-        <v>-74900</v>
+        <v>-130400</v>
       </c>
       <c r="G94" s="3">
-        <v>-170800</v>
+        <v>-76300</v>
       </c>
       <c r="H94" s="3">
-        <v>-73600</v>
+        <v>-174000</v>
       </c>
       <c r="I94" s="3">
-        <v>-44300</v>
+        <v>-75000</v>
       </c>
       <c r="J94" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-55500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-194500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-101200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-125500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-60400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-183100</v>
+        <v>3200</v>
       </c>
       <c r="E100" s="3">
-        <v>251500</v>
+        <v>-186600</v>
       </c>
       <c r="F100" s="3">
-        <v>142000</v>
+        <v>256200</v>
       </c>
       <c r="G100" s="3">
-        <v>23400</v>
+        <v>144700</v>
       </c>
       <c r="H100" s="3">
-        <v>220200</v>
+        <v>23900</v>
       </c>
       <c r="I100" s="3">
-        <v>55600</v>
+        <v>224400</v>
       </c>
       <c r="J100" s="3">
+        <v>56600</v>
+      </c>
+      <c r="K100" s="3">
         <v>56200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>55900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>168700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>17700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>98500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>122000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>AZRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49500</v>
+        <v>47400</v>
       </c>
       <c r="E8" s="3">
-        <v>41000</v>
+        <v>53300</v>
       </c>
       <c r="F8" s="3">
-        <v>38300</v>
+        <v>49700</v>
       </c>
       <c r="G8" s="3">
-        <v>45700</v>
+        <v>41200</v>
       </c>
       <c r="H8" s="3">
-        <v>38400</v>
+        <v>38500</v>
       </c>
       <c r="I8" s="3">
+        <v>45900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K8" s="3">
         <v>32700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>30000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>32000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>31700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>25200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>26400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>27200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>18200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>13100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E9" s="3">
         <v>3600</v>
       </c>
       <c r="F9" s="3">
-        <v>3400</v>
+        <v>4400</v>
       </c>
       <c r="G9" s="3">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="H9" s="3">
         <v>3400</v>
       </c>
       <c r="I9" s="3">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="J9" s="3">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="K9" s="3">
         <v>2900</v>
       </c>
       <c r="L9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N9" s="3">
         <v>3000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>45100</v>
+        <v>43200</v>
       </c>
       <c r="E10" s="3">
-        <v>37500</v>
+        <v>49700</v>
       </c>
       <c r="F10" s="3">
-        <v>34900</v>
+        <v>45300</v>
       </c>
       <c r="G10" s="3">
-        <v>41700</v>
+        <v>37600</v>
       </c>
       <c r="H10" s="3">
-        <v>34900</v>
+        <v>35100</v>
       </c>
       <c r="I10" s="3">
+        <v>41800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K10" s="3">
         <v>29800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>27600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>29100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>28700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>22900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>24300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>24600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>16400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>11900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,58 +1098,70 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11400</v>
+        <v>10500</v>
       </c>
       <c r="E15" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>11500</v>
+      </c>
+      <c r="G15" s="3">
         <v>9700</v>
       </c>
-      <c r="F15" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I15" s="3">
         <v>8400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>6900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>6400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>8000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>7300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>7400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>6900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>6700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>6100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>4300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>3400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25300</v>
+        <v>26500</v>
       </c>
       <c r="E17" s="3">
-        <v>22400</v>
+        <v>18900</v>
       </c>
       <c r="F17" s="3">
-        <v>19400</v>
+        <v>25400</v>
       </c>
       <c r="G17" s="3">
-        <v>19700</v>
+        <v>22500</v>
       </c>
       <c r="H17" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J17" s="3">
         <v>16400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>14400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>14300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>11400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>12000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24200</v>
+        <v>20900</v>
       </c>
       <c r="E18" s="3">
-        <v>18700</v>
+        <v>34400</v>
       </c>
       <c r="F18" s="3">
-        <v>19000</v>
+        <v>24300</v>
       </c>
       <c r="G18" s="3">
-        <v>25900</v>
+        <v>18800</v>
       </c>
       <c r="H18" s="3">
-        <v>22000</v>
+        <v>19100</v>
       </c>
       <c r="I18" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K18" s="3">
         <v>18300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>18500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>15500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>15000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>15200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>9100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>6100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-28400</v>
+        <v>-27200</v>
       </c>
       <c r="E20" s="3">
-        <v>-33800</v>
+        <v>-29500</v>
       </c>
       <c r="F20" s="3">
-        <v>-28800</v>
+        <v>-28500</v>
       </c>
       <c r="G20" s="3">
-        <v>-21700</v>
+        <v>-34000</v>
       </c>
       <c r="H20" s="3">
-        <v>-19000</v>
+        <v>-28900</v>
       </c>
       <c r="I20" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-20100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-16900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-13100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-34800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-12100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-8600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-9200</v>
-      </c>
       <c r="G21" s="3">
-        <v>12600</v>
+        <v>-23000</v>
       </c>
       <c r="H21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J21" s="3">
         <v>3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>9000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-19200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>9200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1377,11 +1457,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1395,108 +1475,126 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-9800</v>
-      </c>
       <c r="G23" s="3">
-        <v>4200</v>
+        <v>-15200</v>
       </c>
       <c r="H23" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J23" s="3">
         <v>3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-19800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>8900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>4600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,58 +1643,70 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-17900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-7100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,49 +1714,55 @@
         <v>-5000</v>
       </c>
       <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-18100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I27" s="3">
         <v>2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-15600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1712,27 +1834,27 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>1600</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,58 +1979,70 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>28400</v>
+        <v>27200</v>
       </c>
       <c r="E32" s="3">
-        <v>33800</v>
+        <v>29500</v>
       </c>
       <c r="F32" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="G32" s="3">
-        <v>21700</v>
+        <v>34000</v>
       </c>
       <c r="H32" s="3">
-        <v>19000</v>
+        <v>28900</v>
       </c>
       <c r="I32" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K32" s="3">
         <v>15300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>20100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>16900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>13100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>34800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>12100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>4400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>8600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,49 +2050,55 @@
         <v>-5000</v>
       </c>
       <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-18100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-15600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2147,14 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,104 +2162,116 @@
         <v>-5000</v>
       </c>
       <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-18100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-15600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,158 +2312,178 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>131900</v>
+        <v>105900</v>
       </c>
       <c r="E41" s="3">
-        <v>83100</v>
+        <v>107800</v>
       </c>
       <c r="F41" s="3">
-        <v>87000</v>
+        <v>132500</v>
       </c>
       <c r="G41" s="3">
-        <v>154400</v>
+        <v>83400</v>
       </c>
       <c r="H41" s="3">
-        <v>141900</v>
+        <v>87400</v>
       </c>
       <c r="I41" s="3">
+        <v>155100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>142600</v>
+      </c>
+      <c r="K41" s="3">
         <v>235100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>101700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>101900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>117200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>109500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>223100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>72700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>63600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>81300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>69300</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>69600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>43100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>41300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>19400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>60200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>15900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>30800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>57100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>34800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60000</v>
+        <v>59900</v>
       </c>
       <c r="E43" s="3">
-        <v>53300</v>
+        <v>69500</v>
       </c>
       <c r="F43" s="3">
-        <v>54800</v>
+        <v>60300</v>
       </c>
       <c r="G43" s="3">
-        <v>55800</v>
+        <v>53500</v>
       </c>
       <c r="H43" s="3">
-        <v>44500</v>
+        <v>55000</v>
       </c>
       <c r="I43" s="3">
+        <v>56000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K43" s="3">
         <v>33600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>30000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>37900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>31200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>27500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>25300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>18800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>16600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>9400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,131 +2532,149 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>87500</v>
+        <v>102300</v>
       </c>
       <c r="E45" s="3">
-        <v>51300</v>
+        <v>89600</v>
       </c>
       <c r="F45" s="3">
-        <v>314300</v>
+        <v>87900</v>
       </c>
       <c r="G45" s="3">
-        <v>106300</v>
+        <v>51600</v>
       </c>
       <c r="H45" s="3">
-        <v>47800</v>
+        <v>315700</v>
       </c>
       <c r="I45" s="3">
+        <v>106800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K45" s="3">
         <v>96900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>74900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>47900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>49400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>68000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>36000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>50500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>56000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>20800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>279400</v>
+        <v>268200</v>
       </c>
       <c r="E46" s="3">
-        <v>257000</v>
+        <v>266900</v>
       </c>
       <c r="F46" s="3">
-        <v>469600</v>
+        <v>280700</v>
       </c>
       <c r="G46" s="3">
-        <v>316600</v>
+        <v>258100</v>
       </c>
       <c r="H46" s="3">
-        <v>234400</v>
+        <v>471700</v>
       </c>
       <c r="I46" s="3">
+        <v>318000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>235400</v>
+      </c>
+      <c r="K46" s="3">
         <v>365500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>249800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>229000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>217300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>265300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>300300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>172800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>193200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>146200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
+      <c r="E47" s="3">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>100</v>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
@@ -2482,77 +2692,89 @@
         <v>100</v>
       </c>
       <c r="P47" s="3">
-        <v>1900</v>
+        <v>100</v>
       </c>
       <c r="Q47" s="3">
         <v>100</v>
       </c>
       <c r="R47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1352800</v>
+        <v>1459000</v>
       </c>
       <c r="E48" s="3">
-        <v>1343600</v>
+        <v>1393600</v>
       </c>
       <c r="F48" s="3">
-        <v>1320700</v>
+        <v>1358800</v>
       </c>
       <c r="G48" s="3">
-        <v>1215100</v>
+        <v>1349600</v>
       </c>
       <c r="H48" s="3">
-        <v>1124000</v>
+        <v>1326600</v>
       </c>
       <c r="I48" s="3">
+        <v>1220500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1129000</v>
+      </c>
+      <c r="K48" s="3">
         <v>948400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>885000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>775300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>794400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>770800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>707700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>666100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>564200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>513200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>391300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
         <v>700</v>
       </c>
-      <c r="E49" s="3">
-        <v>900</v>
-      </c>
       <c r="F49" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
@@ -2561,10 +2783,10 @@
         <v>900</v>
       </c>
       <c r="I49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="J49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K49" s="3">
         <v>600</v>
@@ -2573,25 +2795,31 @@
         <v>600</v>
       </c>
       <c r="M49" s="3">
+        <v>600</v>
+      </c>
+      <c r="N49" s="3">
+        <v>600</v>
+      </c>
+      <c r="O49" s="3">
         <v>400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>150400</v>
+        <v>134800</v>
       </c>
       <c r="E52" s="3">
-        <v>117300</v>
+        <v>158900</v>
       </c>
       <c r="F52" s="3">
-        <v>115000</v>
+        <v>151100</v>
       </c>
       <c r="G52" s="3">
-        <v>102500</v>
+        <v>117800</v>
       </c>
       <c r="H52" s="3">
-        <v>107200</v>
+        <v>115600</v>
       </c>
       <c r="I52" s="3">
+        <v>103000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>107600</v>
+      </c>
+      <c r="K52" s="3">
         <v>86700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>93100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>59700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>26400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>20900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>34300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>34600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>31200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>30700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1783400</v>
+        <v>1862600</v>
       </c>
       <c r="E54" s="3">
-        <v>1718800</v>
+        <v>1820200</v>
       </c>
       <c r="F54" s="3">
-        <v>1906300</v>
+        <v>1791400</v>
       </c>
       <c r="G54" s="3">
-        <v>1635100</v>
+        <v>1726500</v>
       </c>
       <c r="H54" s="3">
-        <v>1466400</v>
+        <v>1914800</v>
       </c>
       <c r="I54" s="3">
+        <v>1642400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1472900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1401300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1228500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1064600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1038700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1057400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1042600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>873800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>792300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>690400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>557500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3140,346 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="E57" s="3">
-        <v>25100</v>
+        <v>33400</v>
       </c>
       <c r="F57" s="3">
-        <v>24400</v>
+        <v>24300</v>
       </c>
       <c r="G57" s="3">
-        <v>32200</v>
+        <v>25200</v>
       </c>
       <c r="H57" s="3">
-        <v>46800</v>
+        <v>24500</v>
       </c>
       <c r="I57" s="3">
+        <v>32300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K57" s="3">
         <v>30800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>80600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>22100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>21400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>30900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>43900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>58100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>49900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>41700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>44200</v>
+        <v>79400</v>
       </c>
       <c r="E58" s="3">
-        <v>53500</v>
+        <v>29300</v>
       </c>
       <c r="F58" s="3">
-        <v>284900</v>
+        <v>44400</v>
       </c>
       <c r="G58" s="3">
-        <v>202400</v>
+        <v>53800</v>
       </c>
       <c r="H58" s="3">
-        <v>136200</v>
+        <v>286200</v>
       </c>
       <c r="I58" s="3">
+        <v>203300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>136800</v>
+      </c>
+      <c r="K58" s="3">
         <v>85300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>67200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>23600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>24000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>19300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>27400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>60700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>55300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>23400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>55900</v>
+        <v>74900</v>
       </c>
       <c r="E59" s="3">
-        <v>37000</v>
+        <v>49500</v>
       </c>
       <c r="F59" s="3">
-        <v>40300</v>
+        <v>56200</v>
       </c>
       <c r="G59" s="3">
-        <v>33000</v>
+        <v>37100</v>
       </c>
       <c r="H59" s="3">
-        <v>46000</v>
+        <v>40500</v>
       </c>
       <c r="I59" s="3">
+        <v>33100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K59" s="3">
         <v>20700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>24600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>14300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>26900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>22600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>17000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>13300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>13600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>14300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>124300</v>
+        <v>178200</v>
       </c>
       <c r="E60" s="3">
-        <v>115600</v>
+        <v>112200</v>
       </c>
       <c r="F60" s="3">
-        <v>349700</v>
+        <v>124800</v>
       </c>
       <c r="G60" s="3">
-        <v>267500</v>
+        <v>116100</v>
       </c>
       <c r="H60" s="3">
-        <v>229100</v>
+        <v>351200</v>
       </c>
       <c r="I60" s="3">
+        <v>268700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>230100</v>
+      </c>
+      <c r="K60" s="3">
         <v>136800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>172400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>60100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>72300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>72800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>88300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>132000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>118800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>79300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1166300</v>
+        <v>1176700</v>
       </c>
       <c r="E61" s="3">
-        <v>1098600</v>
+        <v>1210800</v>
       </c>
       <c r="F61" s="3">
-        <v>1107700</v>
+        <v>1171500</v>
       </c>
       <c r="G61" s="3">
-        <v>915900</v>
+        <v>1103500</v>
       </c>
       <c r="H61" s="3">
-        <v>830500</v>
+        <v>1112600</v>
       </c>
       <c r="I61" s="3">
+        <v>920000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>834200</v>
+      </c>
+      <c r="K61" s="3">
         <v>861400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>849200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>784500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>733400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>748900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>721300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>482400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>429100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>371000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>303100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>126300</v>
+        <v>131700</v>
       </c>
       <c r="E62" s="3">
-        <v>115100</v>
+        <v>122800</v>
       </c>
       <c r="F62" s="3">
-        <v>110800</v>
+        <v>126800</v>
       </c>
       <c r="G62" s="3">
-        <v>103400</v>
+        <v>115600</v>
       </c>
       <c r="H62" s="3">
-        <v>64700</v>
+        <v>111300</v>
       </c>
       <c r="I62" s="3">
+        <v>103900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K62" s="3">
         <v>48300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>46300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>42800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>46700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>43800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>35500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>40800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>38800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>35000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1419500</v>
+        <v>1489400</v>
       </c>
       <c r="E66" s="3">
-        <v>1332400</v>
+        <v>1448700</v>
       </c>
       <c r="F66" s="3">
-        <v>1571400</v>
+        <v>1425800</v>
       </c>
       <c r="G66" s="3">
-        <v>1290400</v>
+        <v>1338300</v>
       </c>
       <c r="H66" s="3">
-        <v>1127900</v>
+        <v>1578400</v>
       </c>
       <c r="I66" s="3">
+        <v>1296200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1132900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1062100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1083800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>903000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>868600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>882200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>869000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>681400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>610100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>503400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>507900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,10 +3884,16 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-120500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-115600</v>
       </c>
-      <c r="E72" s="3">
-        <v>-110600</v>
-      </c>
       <c r="F72" s="3">
-        <v>-92500</v>
+        <v>-116100</v>
       </c>
       <c r="G72" s="3">
-        <v>-83700</v>
+        <v>-111100</v>
       </c>
       <c r="H72" s="3">
-        <v>-85000</v>
+        <v>-93000</v>
       </c>
       <c r="I72" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-87800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-89700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-84200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-92600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-97400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-95800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-81800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-78900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-74400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>363900</v>
+        <v>373200</v>
       </c>
       <c r="E76" s="3">
-        <v>386500</v>
+        <v>371500</v>
       </c>
       <c r="F76" s="3">
-        <v>334900</v>
+        <v>365600</v>
       </c>
       <c r="G76" s="3">
-        <v>344700</v>
+        <v>388200</v>
       </c>
       <c r="H76" s="3">
-        <v>338500</v>
+        <v>336400</v>
       </c>
       <c r="I76" s="3">
+        <v>346200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>340000</v>
+      </c>
+      <c r="K76" s="3">
         <v>339200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>144700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>161600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>170100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>175200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>173600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>192500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>182200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>186900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-110200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4278,75 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,49 +4354,55 @@
         <v>-5000</v>
       </c>
       <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-18100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-15600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,31 +4421,33 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>10200</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24800</v>
+        <v>40500</v>
       </c>
       <c r="E89" s="3">
-        <v>10700</v>
+        <v>-7600</v>
       </c>
       <c r="F89" s="3">
-        <v>20300</v>
+        <v>24900</v>
       </c>
       <c r="G89" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>20700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-6300</v>
       </c>
-      <c r="H89" s="3">
-        <v>17900</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>23800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-9900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>20100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>8700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,31 +4835,33 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-71900</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-25100</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>49600</v>
+        <v>-71900</v>
       </c>
       <c r="E94" s="3">
-        <v>-88800</v>
+        <v>-25200</v>
       </c>
       <c r="F94" s="3">
-        <v>-130400</v>
+        <v>49900</v>
       </c>
       <c r="G94" s="3">
-        <v>-76300</v>
+        <v>-89200</v>
       </c>
       <c r="H94" s="3">
-        <v>-174000</v>
+        <v>-131000</v>
       </c>
       <c r="I94" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-174800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-75000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-45200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-55500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-194500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-12200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-16000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-101200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-125500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-60400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,81 +5301,93 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F100" s="3">
         <v>3200</v>
       </c>
-      <c r="E100" s="3">
-        <v>-186600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>256200</v>
-      </c>
       <c r="G100" s="3">
-        <v>144700</v>
+        <v>-187500</v>
       </c>
       <c r="H100" s="3">
-        <v>23900</v>
+        <v>257400</v>
       </c>
       <c r="I100" s="3">
+        <v>145300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K100" s="3">
         <v>224400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>56600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>56200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>55900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>168700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>17700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>98500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>122000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4915,31 +5413,37 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-29300</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4963,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>AZRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47400</v>
+        <v>48400</v>
       </c>
       <c r="E8" s="3">
-        <v>53300</v>
+        <v>102400</v>
       </c>
       <c r="F8" s="3">
-        <v>49700</v>
+        <v>54200</v>
       </c>
       <c r="G8" s="3">
-        <v>41200</v>
+        <v>50600</v>
       </c>
       <c r="H8" s="3">
+        <v>41900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>85800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K8" s="3">
         <v>38500</v>
       </c>
-      <c r="I8" s="3">
-        <v>45900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>38500</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,111 +817,117 @@
         <v>4200</v>
       </c>
       <c r="E9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F9" s="3">
         <v>3600</v>
       </c>
-      <c r="F9" s="3">
-        <v>4400</v>
-      </c>
       <c r="G9" s="3">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="H9" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="I9" s="3">
-        <v>4000</v>
+        <v>7600</v>
       </c>
       <c r="J9" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K9" s="3">
         <v>3500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>43200</v>
+        <v>44200</v>
       </c>
       <c r="E10" s="3">
-        <v>49700</v>
+        <v>94600</v>
       </c>
       <c r="F10" s="3">
-        <v>45300</v>
+        <v>50600</v>
       </c>
       <c r="G10" s="3">
-        <v>37600</v>
+        <v>46000</v>
       </c>
       <c r="H10" s="3">
+        <v>38300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>78200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>42600</v>
+      </c>
+      <c r="K10" s="3">
         <v>35100</v>
       </c>
-      <c r="I10" s="3">
-        <v>41800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>35100</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>16400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,64 +1123,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="E15" s="3">
-        <v>10200</v>
+        <v>21000</v>
       </c>
       <c r="F15" s="3">
-        <v>11500</v>
+        <v>10400</v>
       </c>
       <c r="G15" s="3">
-        <v>9700</v>
+        <v>11700</v>
       </c>
       <c r="H15" s="3">
-        <v>9100</v>
+        <v>9900</v>
       </c>
       <c r="I15" s="3">
-        <v>8400</v>
+        <v>17800</v>
       </c>
       <c r="J15" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K15" s="3">
         <v>6900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4300</v>
-      </c>
-      <c r="S15" s="3">
-        <v>3400</v>
       </c>
       <c r="T15" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26500</v>
+        <v>37900</v>
       </c>
       <c r="E17" s="3">
-        <v>18900</v>
+        <v>46100</v>
       </c>
       <c r="F17" s="3">
-        <v>25400</v>
+        <v>19200</v>
       </c>
       <c r="G17" s="3">
-        <v>22500</v>
+        <v>25800</v>
       </c>
       <c r="H17" s="3">
-        <v>19500</v>
+        <v>22700</v>
       </c>
       <c r="I17" s="3">
-        <v>19800</v>
+        <v>39900</v>
       </c>
       <c r="J17" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K17" s="3">
         <v>16400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20900</v>
+        <v>10600</v>
       </c>
       <c r="E18" s="3">
-        <v>34400</v>
+        <v>56400</v>
       </c>
       <c r="F18" s="3">
-        <v>24300</v>
+        <v>35000</v>
       </c>
       <c r="G18" s="3">
-        <v>18800</v>
+        <v>24700</v>
       </c>
       <c r="H18" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="I18" s="3">
-        <v>26000</v>
+        <v>45900</v>
       </c>
       <c r="J18" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K18" s="3">
         <v>22100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27200</v>
+        <v>-27600</v>
       </c>
       <c r="E20" s="3">
-        <v>-29500</v>
+        <v>-57800</v>
       </c>
       <c r="F20" s="3">
-        <v>-28500</v>
+        <v>-30000</v>
       </c>
       <c r="G20" s="3">
-        <v>-34000</v>
+        <v>-29000</v>
       </c>
       <c r="H20" s="3">
-        <v>-28900</v>
+        <v>-34600</v>
       </c>
       <c r="I20" s="3">
-        <v>-21800</v>
+        <v>-51600</v>
       </c>
       <c r="J20" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-19100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-16900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4200</v>
+        <v>-6100</v>
       </c>
       <c r="E21" s="3">
-        <v>15100</v>
+        <v>19600</v>
       </c>
       <c r="F21" s="3">
+        <v>15400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="O21" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="R21" s="3">
+        <v>9200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>5500</v>
+      </c>
+      <c r="T21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>12700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>9000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>9200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>5500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1463,8 +1502,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6300</v>
+        <v>-17000</v>
       </c>
       <c r="E23" s="3">
-        <v>4900</v>
+        <v>-1400</v>
       </c>
       <c r="F23" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="Q23" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="R23" s="3">
         <v>3100</v>
       </c>
-      <c r="L23" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>3100</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1300</v>
+        <v>-2100</v>
       </c>
       <c r="E24" s="3">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="F24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3200</v>
       </c>
-      <c r="H24" s="3">
-        <v>400</v>
-      </c>
       <c r="I24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5000</v>
+        <v>-15000</v>
       </c>
       <c r="E26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-5300</v>
-      </c>
       <c r="G26" s="3">
-        <v>-18400</v>
+        <v>-5400</v>
       </c>
       <c r="H26" s="3">
-        <v>-10200</v>
+        <v>-18700</v>
       </c>
       <c r="I26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="J26" s="3">
         <v>2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5000</v>
+        <v>-14900</v>
       </c>
       <c r="E27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-5000</v>
-      </c>
       <c r="G27" s="3">
-        <v>-18100</v>
+        <v>-5100</v>
       </c>
       <c r="H27" s="3">
-        <v>-10000</v>
+        <v>-18500</v>
       </c>
       <c r="I27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J27" s="3">
         <v>2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1840,11 +1900,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1852,11 +1912,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>1600</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27200</v>
+        <v>27600</v>
       </c>
       <c r="E32" s="3">
-        <v>29500</v>
+        <v>57800</v>
       </c>
       <c r="F32" s="3">
-        <v>28500</v>
+        <v>30000</v>
       </c>
       <c r="G32" s="3">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="H32" s="3">
-        <v>28900</v>
+        <v>34600</v>
       </c>
       <c r="I32" s="3">
-        <v>21800</v>
+        <v>51600</v>
       </c>
       <c r="J32" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K32" s="3">
         <v>19100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>16900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>34800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5000</v>
+        <v>-14900</v>
       </c>
       <c r="E33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-5000</v>
-      </c>
       <c r="G33" s="3">
-        <v>-18100</v>
+        <v>-5100</v>
       </c>
       <c r="H33" s="3">
-        <v>-10000</v>
+        <v>-18500</v>
       </c>
       <c r="I33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J33" s="3">
         <v>2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5000</v>
+        <v>-14900</v>
       </c>
       <c r="E35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-5000</v>
-      </c>
       <c r="G35" s="3">
-        <v>-18100</v>
+        <v>-5100</v>
       </c>
       <c r="H35" s="3">
-        <v>-10000</v>
+        <v>-18500</v>
       </c>
       <c r="I35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J35" s="3">
         <v>2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>105900</v>
+        <v>122700</v>
       </c>
       <c r="E41" s="3">
-        <v>107800</v>
+        <v>107700</v>
       </c>
       <c r="F41" s="3">
-        <v>132500</v>
+        <v>109700</v>
       </c>
       <c r="G41" s="3">
-        <v>83400</v>
+        <v>134700</v>
       </c>
       <c r="H41" s="3">
-        <v>87400</v>
+        <v>84900</v>
       </c>
       <c r="I41" s="3">
-        <v>155100</v>
+        <v>88900</v>
       </c>
       <c r="J41" s="3">
+        <v>157700</v>
+      </c>
+      <c r="K41" s="3">
         <v>142600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>235100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>101700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>101900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>117200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>109500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>223100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>72700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>63600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>81300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2381,109 +2470,115 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>69600</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>13600</v>
+        <v>70800</v>
       </c>
       <c r="I42" s="3">
-        <v>100</v>
+        <v>13800</v>
       </c>
       <c r="J42" s="3">
         <v>100</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>43100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>41300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>60200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>30800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>57100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>34800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59900</v>
+        <v>62400</v>
       </c>
       <c r="E43" s="3">
-        <v>69500</v>
+        <v>60900</v>
       </c>
       <c r="F43" s="3">
-        <v>60300</v>
+        <v>70700</v>
       </c>
       <c r="G43" s="3">
-        <v>53500</v>
+        <v>61300</v>
       </c>
       <c r="H43" s="3">
-        <v>55000</v>
+        <v>54500</v>
       </c>
       <c r="I43" s="3">
         <v>56000</v>
       </c>
       <c r="J43" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K43" s="3">
         <v>44700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>31200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>18800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,120 +2633,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>102300</v>
+        <v>90500</v>
       </c>
       <c r="E45" s="3">
-        <v>89600</v>
+        <v>104100</v>
       </c>
       <c r="F45" s="3">
-        <v>87900</v>
+        <v>91100</v>
       </c>
       <c r="G45" s="3">
-        <v>51600</v>
+        <v>89400</v>
       </c>
       <c r="H45" s="3">
-        <v>315700</v>
+        <v>52400</v>
       </c>
       <c r="I45" s="3">
-        <v>106800</v>
+        <v>321100</v>
       </c>
       <c r="J45" s="3">
+        <v>108600</v>
+      </c>
+      <c r="K45" s="3">
         <v>48000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>96900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>74900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>47900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>49400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>68000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>36000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>56000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>268200</v>
+        <v>275500</v>
       </c>
       <c r="E46" s="3">
-        <v>266900</v>
+        <v>272700</v>
       </c>
       <c r="F46" s="3">
-        <v>280700</v>
+        <v>271400</v>
       </c>
       <c r="G46" s="3">
-        <v>258100</v>
+        <v>285400</v>
       </c>
       <c r="H46" s="3">
-        <v>471700</v>
+        <v>262500</v>
       </c>
       <c r="I46" s="3">
-        <v>318000</v>
+        <v>479700</v>
       </c>
       <c r="J46" s="3">
+        <v>323400</v>
+      </c>
+      <c r="K46" s="3">
         <v>235400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>365500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>249800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>229000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>217300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>265300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>172800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>193200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>146200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2664,8 +2768,8 @@
       <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+      <c r="G47" s="3">
+        <v>100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2673,11 +2777,11 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
@@ -2698,98 +2802,104 @@
         <v>100</v>
       </c>
       <c r="R47" s="3">
+        <v>100</v>
+      </c>
+      <c r="S47" s="3">
         <v>1900</v>
-      </c>
-      <c r="S47" s="3">
-        <v>100</v>
       </c>
       <c r="T47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1459000</v>
+        <v>1564700</v>
       </c>
       <c r="E48" s="3">
-        <v>1393600</v>
+        <v>1483800</v>
       </c>
       <c r="F48" s="3">
-        <v>1358800</v>
+        <v>1417300</v>
       </c>
       <c r="G48" s="3">
-        <v>1349600</v>
+        <v>1381900</v>
       </c>
       <c r="H48" s="3">
-        <v>1326600</v>
+        <v>1372600</v>
       </c>
       <c r="I48" s="3">
-        <v>1220500</v>
+        <v>1349100</v>
       </c>
       <c r="J48" s="3">
+        <v>1241300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1129000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>948400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>885000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>775300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>794400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>770800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>707700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>666100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>564200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>513200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>391300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>700</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
       </c>
       <c r="G49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H49" s="3">
         <v>900</v>
       </c>
       <c r="I49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J49" s="3">
         <v>900</v>
       </c>
       <c r="K49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L49" s="3">
         <v>600</v>
@@ -2801,25 +2911,28 @@
         <v>600</v>
       </c>
       <c r="O49" s="3">
+        <v>600</v>
+      </c>
+      <c r="P49" s="3">
         <v>400</v>
-      </c>
-      <c r="P49" s="3">
-        <v>300</v>
       </c>
       <c r="Q49" s="3">
         <v>300</v>
       </c>
       <c r="R49" s="3">
+        <v>300</v>
+      </c>
+      <c r="S49" s="3">
         <v>1800</v>
-      </c>
-      <c r="S49" s="3">
-        <v>200</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>134800</v>
+        <v>140300</v>
       </c>
       <c r="E52" s="3">
-        <v>158900</v>
+        <v>137100</v>
       </c>
       <c r="F52" s="3">
-        <v>151100</v>
+        <v>161600</v>
       </c>
       <c r="G52" s="3">
-        <v>117800</v>
+        <v>153700</v>
       </c>
       <c r="H52" s="3">
-        <v>115600</v>
+        <v>119800</v>
       </c>
       <c r="I52" s="3">
-        <v>103000</v>
+        <v>117500</v>
       </c>
       <c r="J52" s="3">
+        <v>104700</v>
+      </c>
+      <c r="K52" s="3">
         <v>107600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>86700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>93100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>59700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>34300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>34600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>31200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>30700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1862600</v>
+        <v>1981100</v>
       </c>
       <c r="E54" s="3">
-        <v>1820200</v>
+        <v>1894300</v>
       </c>
       <c r="F54" s="3">
-        <v>1791400</v>
+        <v>1851200</v>
       </c>
       <c r="G54" s="3">
-        <v>1726500</v>
+        <v>1821800</v>
       </c>
       <c r="H54" s="3">
-        <v>1914800</v>
+        <v>1755800</v>
       </c>
       <c r="I54" s="3">
-        <v>1642400</v>
+        <v>1947300</v>
       </c>
       <c r="J54" s="3">
+        <v>1670300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1472900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1401300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1228500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1064600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1038700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1057400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1042600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>873800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>792300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>690400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>557500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23900</v>
+        <v>27200</v>
       </c>
       <c r="E57" s="3">
-        <v>33400</v>
+        <v>24300</v>
       </c>
       <c r="F57" s="3">
-        <v>24300</v>
+        <v>34000</v>
       </c>
       <c r="G57" s="3">
-        <v>25200</v>
+        <v>24700</v>
       </c>
       <c r="H57" s="3">
-        <v>24500</v>
+        <v>25600</v>
       </c>
       <c r="I57" s="3">
-        <v>32300</v>
+        <v>24900</v>
       </c>
       <c r="J57" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K57" s="3">
         <v>47000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>80600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>43900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>58100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>49900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>79400</v>
+        <v>140300</v>
       </c>
       <c r="E58" s="3">
-        <v>29300</v>
+        <v>80800</v>
       </c>
       <c r="F58" s="3">
-        <v>44400</v>
+        <v>29800</v>
       </c>
       <c r="G58" s="3">
-        <v>53800</v>
+        <v>45100</v>
       </c>
       <c r="H58" s="3">
-        <v>286200</v>
+        <v>54700</v>
       </c>
       <c r="I58" s="3">
-        <v>203300</v>
+        <v>291000</v>
       </c>
       <c r="J58" s="3">
+        <v>206700</v>
+      </c>
+      <c r="K58" s="3">
         <v>136800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>85300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>67200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>27400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>60700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>55300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>74900</v>
+        <v>85800</v>
       </c>
       <c r="E59" s="3">
-        <v>49500</v>
+        <v>76100</v>
       </c>
       <c r="F59" s="3">
-        <v>56200</v>
+        <v>50400</v>
       </c>
       <c r="G59" s="3">
-        <v>37100</v>
+        <v>57100</v>
       </c>
       <c r="H59" s="3">
-        <v>40500</v>
+        <v>37800</v>
       </c>
       <c r="I59" s="3">
-        <v>33100</v>
+        <v>41200</v>
       </c>
       <c r="J59" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K59" s="3">
         <v>46200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>26900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>178200</v>
+        <v>253300</v>
       </c>
       <c r="E60" s="3">
-        <v>112200</v>
+        <v>181200</v>
       </c>
       <c r="F60" s="3">
-        <v>124800</v>
+        <v>114200</v>
       </c>
       <c r="G60" s="3">
-        <v>116100</v>
+        <v>126900</v>
       </c>
       <c r="H60" s="3">
-        <v>351200</v>
+        <v>118100</v>
       </c>
       <c r="I60" s="3">
-        <v>268700</v>
+        <v>357200</v>
       </c>
       <c r="J60" s="3">
+        <v>273300</v>
+      </c>
+      <c r="K60" s="3">
         <v>230100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>136800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>172400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>72300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>72800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>88300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>132000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>118800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>79300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1176700</v>
+        <v>1206700</v>
       </c>
       <c r="E61" s="3">
-        <v>1210800</v>
+        <v>1196700</v>
       </c>
       <c r="F61" s="3">
-        <v>1171500</v>
+        <v>1231400</v>
       </c>
       <c r="G61" s="3">
-        <v>1103500</v>
+        <v>1191400</v>
       </c>
       <c r="H61" s="3">
-        <v>1112600</v>
+        <v>1122300</v>
       </c>
       <c r="I61" s="3">
-        <v>920000</v>
+        <v>1131500</v>
       </c>
       <c r="J61" s="3">
+        <v>935700</v>
+      </c>
+      <c r="K61" s="3">
         <v>834200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>861400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>849200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>784500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>733400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>748900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>721300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>482400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>429100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>371000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>303100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>131700</v>
+        <v>146700</v>
       </c>
       <c r="E62" s="3">
-        <v>122800</v>
+        <v>134000</v>
       </c>
       <c r="F62" s="3">
-        <v>126800</v>
+        <v>124900</v>
       </c>
       <c r="G62" s="3">
-        <v>115600</v>
+        <v>129000</v>
       </c>
       <c r="H62" s="3">
-        <v>111300</v>
+        <v>117600</v>
       </c>
       <c r="I62" s="3">
-        <v>103900</v>
+        <v>113200</v>
       </c>
       <c r="J62" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K62" s="3">
         <v>65000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>48300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>46700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>43800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>38800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1489400</v>
+        <v>1609500</v>
       </c>
       <c r="E66" s="3">
-        <v>1448700</v>
+        <v>1514700</v>
       </c>
       <c r="F66" s="3">
-        <v>1425800</v>
+        <v>1473300</v>
       </c>
       <c r="G66" s="3">
-        <v>1338300</v>
+        <v>1450100</v>
       </c>
       <c r="H66" s="3">
-        <v>1578400</v>
+        <v>1361000</v>
       </c>
       <c r="I66" s="3">
-        <v>1296200</v>
+        <v>1605300</v>
       </c>
       <c r="J66" s="3">
+        <v>1318200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1132900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1062100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1083800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>903000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>868600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>882200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>869000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>681400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>610100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>503400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>507900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,10 +4057,13 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-120500</v>
+        <v>-137500</v>
       </c>
       <c r="E72" s="3">
-        <v>-115600</v>
+        <v>-122600</v>
       </c>
       <c r="F72" s="3">
-        <v>-116100</v>
+        <v>-117500</v>
       </c>
       <c r="G72" s="3">
-        <v>-111100</v>
+        <v>-118100</v>
       </c>
       <c r="H72" s="3">
-        <v>-93000</v>
+        <v>-113000</v>
       </c>
       <c r="I72" s="3">
-        <v>-84100</v>
+        <v>-94500</v>
       </c>
       <c r="J72" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-85400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-87800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-89700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-84200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-92600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-97400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-95800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-81800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-78900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-74400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>373200</v>
+        <v>371600</v>
       </c>
       <c r="E76" s="3">
-        <v>371500</v>
+        <v>379600</v>
       </c>
       <c r="F76" s="3">
-        <v>365600</v>
+        <v>377800</v>
       </c>
       <c r="G76" s="3">
-        <v>388200</v>
+        <v>371800</v>
       </c>
       <c r="H76" s="3">
-        <v>336400</v>
+        <v>394800</v>
       </c>
       <c r="I76" s="3">
-        <v>346200</v>
+        <v>342100</v>
       </c>
       <c r="J76" s="3">
+        <v>352100</v>
+      </c>
+      <c r="K76" s="3">
         <v>340000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>339200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>144700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>161600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>170100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>175200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>173600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>192500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>182200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>186900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-110200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5000</v>
+        <v>-14900</v>
       </c>
       <c r="E81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-5000</v>
-      </c>
       <c r="G81" s="3">
-        <v>-18100</v>
+        <v>-5100</v>
       </c>
       <c r="H81" s="3">
-        <v>-10000</v>
+        <v>-18500</v>
       </c>
       <c r="I81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J81" s="3">
         <v>2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,34 +4620,35 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="E83" s="3">
-        <v>10200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
+        <v>21000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+      <c r="H83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>17800</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>40500</v>
+        <v>6000</v>
       </c>
       <c r="E89" s="3">
-        <v>-7600</v>
+        <v>33500</v>
       </c>
       <c r="F89" s="3">
-        <v>24900</v>
+        <v>-7700</v>
       </c>
       <c r="G89" s="3">
-        <v>10500</v>
+        <v>25300</v>
       </c>
       <c r="H89" s="3">
-        <v>20700</v>
+        <v>10700</v>
       </c>
       <c r="I89" s="3">
-        <v>-6300</v>
+        <v>14600</v>
       </c>
       <c r="J89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K89" s="3">
         <v>18000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,34 +5056,35 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-71900</v>
+        <v>-78300</v>
       </c>
       <c r="E91" s="3">
-        <v>-25100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+        <v>-98600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-25500</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-197400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71900</v>
+        <v>-78300</v>
       </c>
       <c r="E94" s="3">
-        <v>-25200</v>
+        <v>-98700</v>
       </c>
       <c r="F94" s="3">
-        <v>49900</v>
+        <v>-25600</v>
       </c>
       <c r="G94" s="3">
-        <v>-89200</v>
+        <v>50700</v>
       </c>
       <c r="H94" s="3">
-        <v>-131000</v>
+        <v>-90700</v>
       </c>
       <c r="I94" s="3">
-        <v>-76700</v>
+        <v>-211200</v>
       </c>
       <c r="J94" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-174800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-75000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-45200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-55500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-194500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-101200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-125500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-60400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,90 +5549,96 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>41800</v>
+        <v>68400</v>
       </c>
       <c r="E100" s="3">
-        <v>3600</v>
+        <v>46200</v>
       </c>
       <c r="F100" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G100" s="3">
         <v>3200</v>
       </c>
-      <c r="G100" s="3">
-        <v>-187500</v>
-      </c>
       <c r="H100" s="3">
-        <v>257400</v>
+        <v>-190600</v>
       </c>
       <c r="I100" s="3">
-        <v>145300</v>
+        <v>409600</v>
       </c>
       <c r="J100" s="3">
+        <v>147800</v>
+      </c>
+      <c r="K100" s="3">
         <v>24000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>224400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>56600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>56200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>55900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>168700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>17700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>98500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>122000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-900</v>
+        <v>900</v>
       </c>
       <c r="E101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="H101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-500</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5419,34 +5667,37 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9500</v>
+        <v>-3000</v>
       </c>
       <c r="E102" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
+        <v>-20200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-29800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
+      <c r="H102" s="3">
+        <v>-271600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>212300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
@@ -758,19 +758,19 @@
         <v>48400</v>
       </c>
       <c r="E8" s="3">
-        <v>102400</v>
+        <v>102300</v>
       </c>
       <c r="F8" s="3">
-        <v>54200</v>
+        <v>54100</v>
       </c>
       <c r="G8" s="3">
-        <v>50600</v>
+        <v>50500</v>
       </c>
       <c r="H8" s="3">
         <v>41900</v>
       </c>
       <c r="I8" s="3">
-        <v>85800</v>
+        <v>85700</v>
       </c>
       <c r="J8" s="3">
         <v>46600</v>
@@ -876,22 +876,22 @@
         <v>44200</v>
       </c>
       <c r="E10" s="3">
-        <v>94600</v>
+        <v>94400</v>
       </c>
       <c r="F10" s="3">
-        <v>50600</v>
+        <v>50500</v>
       </c>
       <c r="G10" s="3">
         <v>46000</v>
       </c>
       <c r="H10" s="3">
-        <v>38300</v>
+        <v>38200</v>
       </c>
       <c r="I10" s="3">
-        <v>78200</v>
+        <v>78100</v>
       </c>
       <c r="J10" s="3">
-        <v>42600</v>
+        <v>42500</v>
       </c>
       <c r="K10" s="3">
         <v>35100</v>
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="E15" s="3">
         <v>21000</v>
@@ -1144,7 +1144,7 @@
         <v>11700</v>
       </c>
       <c r="H15" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="I15" s="3">
         <v>17800</v>
@@ -1211,10 +1211,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>37900</v>
+        <v>37800</v>
       </c>
       <c r="E17" s="3">
-        <v>46100</v>
+        <v>46000</v>
       </c>
       <c r="F17" s="3">
         <v>19200</v>
@@ -1226,7 +1226,7 @@
         <v>22700</v>
       </c>
       <c r="I17" s="3">
-        <v>39900</v>
+        <v>39800</v>
       </c>
       <c r="J17" s="3">
         <v>20100</v>
@@ -1270,13 +1270,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="E18" s="3">
-        <v>56400</v>
+        <v>56300</v>
       </c>
       <c r="F18" s="3">
-        <v>35000</v>
+        <v>34900</v>
       </c>
       <c r="G18" s="3">
         <v>24700</v>
@@ -1352,10 +1352,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27600</v>
+        <v>-27500</v>
       </c>
       <c r="E20" s="3">
-        <v>-57800</v>
+        <v>-57700</v>
       </c>
       <c r="F20" s="3">
         <v>-30000</v>
@@ -1370,7 +1370,7 @@
         <v>-51600</v>
       </c>
       <c r="J20" s="3">
-        <v>-22200</v>
+        <v>-22100</v>
       </c>
       <c r="K20" s="3">
         <v>-19100</v>
@@ -1420,7 +1420,7 @@
         <v>15400</v>
       </c>
       <c r="G21" s="3">
-        <v>-20300</v>
+        <v>-20200</v>
       </c>
       <c r="H21" s="3">
         <v>-5600</v>
@@ -1603,7 +1603,7 @@
         <v>3200</v>
       </c>
       <c r="I24" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J24" s="3">
         <v>2000</v>
@@ -1706,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E26" s="3">
         <v>-4400</v>
@@ -1777,7 +1777,7 @@
         <v>-5100</v>
       </c>
       <c r="H27" s="3">
-        <v>-18500</v>
+        <v>-18400</v>
       </c>
       <c r="I27" s="3">
         <v>-7700</v>
@@ -2060,10 +2060,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27600</v>
+        <v>27500</v>
       </c>
       <c r="E32" s="3">
-        <v>57800</v>
+        <v>57700</v>
       </c>
       <c r="F32" s="3">
         <v>30000</v>
@@ -2078,7 +2078,7 @@
         <v>51600</v>
       </c>
       <c r="J32" s="3">
-        <v>22200</v>
+        <v>22100</v>
       </c>
       <c r="K32" s="3">
         <v>19100</v>
@@ -2131,7 +2131,7 @@
         <v>-5100</v>
       </c>
       <c r="H33" s="3">
-        <v>-18500</v>
+        <v>-18400</v>
       </c>
       <c r="I33" s="3">
         <v>-7700</v>
@@ -2249,7 +2249,7 @@
         <v>-5100</v>
       </c>
       <c r="H35" s="3">
-        <v>-18500</v>
+        <v>-18400</v>
       </c>
       <c r="I35" s="3">
         <v>-7700</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>122700</v>
+        <v>122500</v>
       </c>
       <c r="E41" s="3">
-        <v>107700</v>
+        <v>107600</v>
       </c>
       <c r="F41" s="3">
-        <v>109700</v>
+        <v>109500</v>
       </c>
       <c r="G41" s="3">
-        <v>134700</v>
+        <v>134500</v>
       </c>
       <c r="H41" s="3">
-        <v>84900</v>
+        <v>84700</v>
       </c>
       <c r="I41" s="3">
-        <v>88900</v>
+        <v>88700</v>
       </c>
       <c r="J41" s="3">
-        <v>157700</v>
+        <v>157500</v>
       </c>
       <c r="K41" s="3">
         <v>142600</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>70800</v>
+        <v>70700</v>
       </c>
       <c r="I42" s="3">
         <v>13800</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="E43" s="3">
         <v>60900</v>
       </c>
       <c r="F43" s="3">
-        <v>70700</v>
+        <v>70600</v>
       </c>
       <c r="G43" s="3">
-        <v>61300</v>
+        <v>61200</v>
       </c>
       <c r="H43" s="3">
-        <v>54500</v>
+        <v>54400</v>
       </c>
       <c r="I43" s="3">
-        <v>56000</v>
+        <v>55900</v>
       </c>
       <c r="J43" s="3">
-        <v>57000</v>
+        <v>56900</v>
       </c>
       <c r="K43" s="3">
         <v>44700</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>90500</v>
+        <v>90400</v>
       </c>
       <c r="E45" s="3">
-        <v>104100</v>
+        <v>103900</v>
       </c>
       <c r="F45" s="3">
-        <v>91100</v>
+        <v>90900</v>
       </c>
       <c r="G45" s="3">
-        <v>89400</v>
+        <v>89300</v>
       </c>
       <c r="H45" s="3">
         <v>52400</v>
       </c>
       <c r="I45" s="3">
-        <v>321100</v>
+        <v>320600</v>
       </c>
       <c r="J45" s="3">
-        <v>108600</v>
+        <v>108400</v>
       </c>
       <c r="K45" s="3">
         <v>48000</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>275500</v>
+        <v>275100</v>
       </c>
       <c r="E46" s="3">
-        <v>272700</v>
+        <v>272300</v>
       </c>
       <c r="F46" s="3">
-        <v>271400</v>
+        <v>271000</v>
       </c>
       <c r="G46" s="3">
-        <v>285400</v>
+        <v>285000</v>
       </c>
       <c r="H46" s="3">
-        <v>262500</v>
+        <v>262100</v>
       </c>
       <c r="I46" s="3">
-        <v>479700</v>
+        <v>479000</v>
       </c>
       <c r="J46" s="3">
-        <v>323400</v>
+        <v>322900</v>
       </c>
       <c r="K46" s="3">
         <v>235400</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1564700</v>
+        <v>1562500</v>
       </c>
       <c r="E48" s="3">
-        <v>1483800</v>
+        <v>1481600</v>
       </c>
       <c r="F48" s="3">
-        <v>1417300</v>
+        <v>1415200</v>
       </c>
       <c r="G48" s="3">
-        <v>1381900</v>
+        <v>1379900</v>
       </c>
       <c r="H48" s="3">
-        <v>1372600</v>
+        <v>1370600</v>
       </c>
       <c r="I48" s="3">
-        <v>1349100</v>
+        <v>1347200</v>
       </c>
       <c r="J48" s="3">
-        <v>1241300</v>
+        <v>1239500</v>
       </c>
       <c r="K48" s="3">
         <v>1129000</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>140300</v>
+        <v>140100</v>
       </c>
       <c r="E52" s="3">
-        <v>137100</v>
+        <v>136900</v>
       </c>
       <c r="F52" s="3">
-        <v>161600</v>
+        <v>161400</v>
       </c>
       <c r="G52" s="3">
-        <v>153700</v>
+        <v>153400</v>
       </c>
       <c r="H52" s="3">
-        <v>119800</v>
+        <v>119600</v>
       </c>
       <c r="I52" s="3">
-        <v>117500</v>
+        <v>117400</v>
       </c>
       <c r="J52" s="3">
-        <v>104700</v>
+        <v>104600</v>
       </c>
       <c r="K52" s="3">
         <v>107600</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1981100</v>
+        <v>1978200</v>
       </c>
       <c r="E54" s="3">
-        <v>1894300</v>
+        <v>1891500</v>
       </c>
       <c r="F54" s="3">
-        <v>1851200</v>
+        <v>1848500</v>
       </c>
       <c r="G54" s="3">
-        <v>1821800</v>
+        <v>1819200</v>
       </c>
       <c r="H54" s="3">
-        <v>1755800</v>
+        <v>1753300</v>
       </c>
       <c r="I54" s="3">
-        <v>1947300</v>
+        <v>1944500</v>
       </c>
       <c r="J54" s="3">
-        <v>1670300</v>
+        <v>1667900</v>
       </c>
       <c r="K54" s="3">
         <v>1472900</v>
@@ -3278,7 +3278,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27200</v>
+        <v>27100</v>
       </c>
       <c r="E57" s="3">
         <v>24300</v>
@@ -3296,7 +3296,7 @@
         <v>24900</v>
       </c>
       <c r="J57" s="3">
-        <v>32900</v>
+        <v>32800</v>
       </c>
       <c r="K57" s="3">
         <v>47000</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>140300</v>
+        <v>140100</v>
       </c>
       <c r="E58" s="3">
-        <v>80800</v>
+        <v>80700</v>
       </c>
       <c r="F58" s="3">
-        <v>29800</v>
+        <v>29700</v>
       </c>
       <c r="G58" s="3">
-        <v>45100</v>
+        <v>45000</v>
       </c>
       <c r="H58" s="3">
-        <v>54700</v>
+        <v>54600</v>
       </c>
       <c r="I58" s="3">
-        <v>291000</v>
+        <v>290600</v>
       </c>
       <c r="J58" s="3">
-        <v>206700</v>
+        <v>206400</v>
       </c>
       <c r="K58" s="3">
         <v>136800</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>85800</v>
+        <v>85700</v>
       </c>
       <c r="E59" s="3">
-        <v>76100</v>
+        <v>76000</v>
       </c>
       <c r="F59" s="3">
-        <v>50400</v>
+        <v>50300</v>
       </c>
       <c r="G59" s="3">
-        <v>57100</v>
+        <v>57000</v>
       </c>
       <c r="H59" s="3">
-        <v>37800</v>
+        <v>37700</v>
       </c>
       <c r="I59" s="3">
         <v>41200</v>
       </c>
       <c r="J59" s="3">
-        <v>33700</v>
+        <v>33600</v>
       </c>
       <c r="K59" s="3">
         <v>46200</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>253300</v>
+        <v>253000</v>
       </c>
       <c r="E60" s="3">
-        <v>181200</v>
+        <v>181000</v>
       </c>
       <c r="F60" s="3">
-        <v>114200</v>
+        <v>114000</v>
       </c>
       <c r="G60" s="3">
-        <v>126900</v>
+        <v>126800</v>
       </c>
       <c r="H60" s="3">
-        <v>118100</v>
+        <v>117900</v>
       </c>
       <c r="I60" s="3">
-        <v>357200</v>
+        <v>356700</v>
       </c>
       <c r="J60" s="3">
-        <v>273300</v>
+        <v>272900</v>
       </c>
       <c r="K60" s="3">
         <v>230100</v>
@@ -3514,25 +3514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1206700</v>
+        <v>1205000</v>
       </c>
       <c r="E61" s="3">
-        <v>1196700</v>
+        <v>1194900</v>
       </c>
       <c r="F61" s="3">
-        <v>1231400</v>
+        <v>1229600</v>
       </c>
       <c r="G61" s="3">
-        <v>1191400</v>
+        <v>1189700</v>
       </c>
       <c r="H61" s="3">
-        <v>1122300</v>
+        <v>1120600</v>
       </c>
       <c r="I61" s="3">
-        <v>1131500</v>
+        <v>1129900</v>
       </c>
       <c r="J61" s="3">
-        <v>935700</v>
+        <v>934300</v>
       </c>
       <c r="K61" s="3">
         <v>834200</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>146700</v>
+        <v>146400</v>
       </c>
       <c r="E62" s="3">
-        <v>134000</v>
+        <v>133800</v>
       </c>
       <c r="F62" s="3">
-        <v>124900</v>
+        <v>124700</v>
       </c>
       <c r="G62" s="3">
-        <v>129000</v>
+        <v>128800</v>
       </c>
       <c r="H62" s="3">
-        <v>117600</v>
+        <v>117400</v>
       </c>
       <c r="I62" s="3">
-        <v>113200</v>
+        <v>113100</v>
       </c>
       <c r="J62" s="3">
-        <v>105700</v>
+        <v>105500</v>
       </c>
       <c r="K62" s="3">
         <v>65000</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1609500</v>
+        <v>1607200</v>
       </c>
       <c r="E66" s="3">
-        <v>1514700</v>
+        <v>1512500</v>
       </c>
       <c r="F66" s="3">
-        <v>1473300</v>
+        <v>1471200</v>
       </c>
       <c r="G66" s="3">
-        <v>1450100</v>
+        <v>1448000</v>
       </c>
       <c r="H66" s="3">
-        <v>1361000</v>
+        <v>1359100</v>
       </c>
       <c r="I66" s="3">
-        <v>1605300</v>
+        <v>1602900</v>
       </c>
       <c r="J66" s="3">
-        <v>1318200</v>
+        <v>1316300</v>
       </c>
       <c r="K66" s="3">
         <v>1132900</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-137500</v>
+        <v>-137300</v>
       </c>
       <c r="E72" s="3">
-        <v>-122600</v>
+        <v>-122400</v>
       </c>
       <c r="F72" s="3">
-        <v>-117500</v>
+        <v>-117400</v>
       </c>
       <c r="G72" s="3">
-        <v>-118100</v>
+        <v>-117900</v>
       </c>
       <c r="H72" s="3">
-        <v>-113000</v>
+        <v>-112800</v>
       </c>
       <c r="I72" s="3">
-        <v>-94500</v>
+        <v>-94400</v>
       </c>
       <c r="J72" s="3">
-        <v>-85500</v>
+        <v>-85400</v>
       </c>
       <c r="K72" s="3">
         <v>-85400</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>371600</v>
+        <v>371100</v>
       </c>
       <c r="E76" s="3">
-        <v>379600</v>
+        <v>379000</v>
       </c>
       <c r="F76" s="3">
-        <v>377800</v>
+        <v>377300</v>
       </c>
       <c r="G76" s="3">
-        <v>371800</v>
+        <v>371200</v>
       </c>
       <c r="H76" s="3">
-        <v>394800</v>
+        <v>394200</v>
       </c>
       <c r="I76" s="3">
-        <v>342100</v>
+        <v>341600</v>
       </c>
       <c r="J76" s="3">
-        <v>352100</v>
+        <v>351600</v>
       </c>
       <c r="K76" s="3">
         <v>340000</v>
@@ -4557,7 +4557,7 @@
         <v>-5100</v>
       </c>
       <c r="H81" s="3">
-        <v>-18500</v>
+        <v>-18400</v>
       </c>
       <c r="I81" s="3">
         <v>-7700</v>
@@ -4627,7 +4627,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="E83" s="3">
         <v>21000</v>
@@ -4639,7 +4639,7 @@
         <v>8</v>
       </c>
       <c r="H83" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="I83" s="3">
         <v>17800</v>
@@ -4984,7 +4984,7 @@
         <v>6000</v>
       </c>
       <c r="E89" s="3">
-        <v>33500</v>
+        <v>33400</v>
       </c>
       <c r="F89" s="3">
         <v>-7700</v>
@@ -5063,10 +5063,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-78300</v>
+        <v>-78200</v>
       </c>
       <c r="E91" s="3">
-        <v>-98600</v>
+        <v>-98500</v>
       </c>
       <c r="F91" s="3">
         <v>-25500</v>
@@ -5078,7 +5078,7 @@
         <v>-33800</v>
       </c>
       <c r="I91" s="3">
-        <v>-197400</v>
+        <v>-197200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -5240,25 +5240,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78300</v>
+        <v>-78200</v>
       </c>
       <c r="E94" s="3">
-        <v>-98700</v>
+        <v>-98600</v>
       </c>
       <c r="F94" s="3">
-        <v>-25600</v>
+        <v>-25500</v>
       </c>
       <c r="G94" s="3">
-        <v>50700</v>
+        <v>50600</v>
       </c>
       <c r="H94" s="3">
-        <v>-90700</v>
+        <v>-90600</v>
       </c>
       <c r="I94" s="3">
-        <v>-211200</v>
+        <v>-210800</v>
       </c>
       <c r="J94" s="3">
-        <v>-78000</v>
+        <v>-77900</v>
       </c>
       <c r="K94" s="3">
         <v>-174800</v>
@@ -5558,10 +5558,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>68400</v>
+        <v>68300</v>
       </c>
       <c r="E100" s="3">
-        <v>46200</v>
+        <v>46100</v>
       </c>
       <c r="F100" s="3">
         <v>3700</v>
@@ -5570,13 +5570,13 @@
         <v>3200</v>
       </c>
       <c r="H100" s="3">
-        <v>-190600</v>
+        <v>-190400</v>
       </c>
       <c r="I100" s="3">
-        <v>409600</v>
+        <v>409000</v>
       </c>
       <c r="J100" s="3">
-        <v>147800</v>
+        <v>147600</v>
       </c>
       <c r="K100" s="3">
         <v>24000</v>
@@ -5688,10 +5688,10 @@
         <v>8</v>
       </c>
       <c r="H102" s="3">
-        <v>-271600</v>
+        <v>-271200</v>
       </c>
       <c r="I102" s="3">
-        <v>212300</v>
+        <v>212000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>AZRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>48400</v>
+        <v>57400</v>
       </c>
       <c r="E8" s="3">
-        <v>102300</v>
+        <v>47400</v>
       </c>
       <c r="F8" s="3">
-        <v>54100</v>
+        <v>100100</v>
       </c>
       <c r="G8" s="3">
-        <v>50500</v>
+        <v>53000</v>
       </c>
       <c r="H8" s="3">
-        <v>41900</v>
+        <v>49400</v>
       </c>
       <c r="I8" s="3">
-        <v>85700</v>
+        <v>41000</v>
       </c>
       <c r="J8" s="3">
+        <v>83900</v>
+      </c>
+      <c r="K8" s="3">
         <v>46600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>25200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>27200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4200</v>
+        <v>5200</v>
       </c>
       <c r="E9" s="3">
-        <v>7900</v>
+        <v>4100</v>
       </c>
       <c r="F9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I9" s="3">
         <v>3600</v>
       </c>
-      <c r="G9" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7600</v>
-      </c>
       <c r="J9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K9" s="3">
         <v>4100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>44200</v>
+        <v>52300</v>
       </c>
       <c r="E10" s="3">
-        <v>94400</v>
+        <v>43200</v>
       </c>
       <c r="F10" s="3">
-        <v>50500</v>
+        <v>92400</v>
       </c>
       <c r="G10" s="3">
-        <v>46000</v>
+        <v>49500</v>
       </c>
       <c r="H10" s="3">
-        <v>38200</v>
+        <v>45000</v>
       </c>
       <c r="I10" s="3">
-        <v>78100</v>
+        <v>37400</v>
       </c>
       <c r="J10" s="3">
+        <v>76500</v>
+      </c>
+      <c r="K10" s="3">
         <v>42500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>16400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>43800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1126,67 +1146,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10900</v>
+        <v>11800</v>
       </c>
       <c r="E15" s="3">
-        <v>21000</v>
+        <v>10700</v>
       </c>
       <c r="F15" s="3">
-        <v>10400</v>
+        <v>20600</v>
       </c>
       <c r="G15" s="3">
-        <v>11700</v>
+        <v>10200</v>
       </c>
       <c r="H15" s="3">
-        <v>9800</v>
+        <v>11400</v>
       </c>
       <c r="I15" s="3">
-        <v>17800</v>
+        <v>9600</v>
       </c>
       <c r="J15" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K15" s="3">
         <v>8600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4300</v>
-      </c>
-      <c r="T15" s="3">
-        <v>3400</v>
       </c>
       <c r="U15" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>37800</v>
+        <v>61900</v>
       </c>
       <c r="E17" s="3">
-        <v>46000</v>
+        <v>37000</v>
       </c>
       <c r="F17" s="3">
-        <v>19200</v>
+        <v>45000</v>
       </c>
       <c r="G17" s="3">
-        <v>25800</v>
+        <v>18800</v>
       </c>
       <c r="H17" s="3">
-        <v>22700</v>
+        <v>25300</v>
       </c>
       <c r="I17" s="3">
-        <v>39800</v>
+        <v>22200</v>
       </c>
       <c r="J17" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K17" s="3">
         <v>20100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10500</v>
+        <v>-4500</v>
       </c>
       <c r="E18" s="3">
-        <v>56300</v>
+        <v>10300</v>
       </c>
       <c r="F18" s="3">
-        <v>34900</v>
+        <v>55100</v>
       </c>
       <c r="G18" s="3">
-        <v>24700</v>
+        <v>34200</v>
       </c>
       <c r="H18" s="3">
-        <v>19200</v>
+        <v>24200</v>
       </c>
       <c r="I18" s="3">
-        <v>45900</v>
+        <v>18800</v>
       </c>
       <c r="J18" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K18" s="3">
         <v>26500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27500</v>
+        <v>-30000</v>
       </c>
       <c r="E20" s="3">
-        <v>-57700</v>
+        <v>-27000</v>
       </c>
       <c r="F20" s="3">
-        <v>-30000</v>
+        <v>-56500</v>
       </c>
       <c r="G20" s="3">
-        <v>-29000</v>
+        <v>-29300</v>
       </c>
       <c r="H20" s="3">
-        <v>-34600</v>
+        <v>-28400</v>
       </c>
       <c r="I20" s="3">
-        <v>-51600</v>
+        <v>-33900</v>
       </c>
       <c r="J20" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-22100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-34800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6100</v>
+        <v>-22700</v>
       </c>
       <c r="E21" s="3">
-        <v>19600</v>
+        <v>-5900</v>
       </c>
       <c r="F21" s="3">
-        <v>15400</v>
+        <v>19200</v>
       </c>
       <c r="G21" s="3">
-        <v>-20200</v>
+        <v>15000</v>
       </c>
       <c r="H21" s="3">
-        <v>-5600</v>
+        <v>-19800</v>
       </c>
       <c r="I21" s="3">
-        <v>12100</v>
+        <v>-5500</v>
       </c>
       <c r="J21" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K21" s="3">
         <v>12900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-19200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1505,8 +1545,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17000</v>
+        <v>-34500</v>
       </c>
       <c r="E23" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
-        <v>5000</v>
-      </c>
       <c r="G23" s="3">
-        <v>-4300</v>
+        <v>4900</v>
       </c>
       <c r="H23" s="3">
-        <v>-15400</v>
+        <v>-4200</v>
       </c>
       <c r="I23" s="3">
-        <v>-5700</v>
+        <v>-15100</v>
       </c>
       <c r="J23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K23" s="3">
         <v>4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2100</v>
+        <v>3000</v>
       </c>
       <c r="E24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
-        <v>4400</v>
-      </c>
       <c r="G24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14900</v>
+        <v>-37500</v>
       </c>
       <c r="E26" s="3">
-        <v>-4400</v>
+        <v>-14600</v>
       </c>
       <c r="F26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5400</v>
-      </c>
       <c r="H26" s="3">
-        <v>-18700</v>
+        <v>-5300</v>
       </c>
       <c r="I26" s="3">
-        <v>-8000</v>
+        <v>-18300</v>
       </c>
       <c r="J26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14900</v>
+        <v>-37600</v>
       </c>
       <c r="E27" s="3">
-        <v>-4500</v>
+        <v>-14600</v>
       </c>
       <c r="F27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-5100</v>
-      </c>
       <c r="H27" s="3">
-        <v>-18400</v>
+        <v>-5000</v>
       </c>
       <c r="I27" s="3">
-        <v>-7700</v>
+        <v>-18000</v>
       </c>
       <c r="J27" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K27" s="3">
         <v>2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1903,11 +1964,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1915,12 +1976,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>1600</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27500</v>
+        <v>30000</v>
       </c>
       <c r="E32" s="3">
-        <v>57700</v>
+        <v>27000</v>
       </c>
       <c r="F32" s="3">
-        <v>30000</v>
+        <v>56500</v>
       </c>
       <c r="G32" s="3">
-        <v>29000</v>
+        <v>29300</v>
       </c>
       <c r="H32" s="3">
-        <v>34600</v>
+        <v>28400</v>
       </c>
       <c r="I32" s="3">
-        <v>51600</v>
+        <v>33900</v>
       </c>
       <c r="J32" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K32" s="3">
         <v>22100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>34800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14900</v>
+        <v>-37600</v>
       </c>
       <c r="E33" s="3">
-        <v>-4500</v>
+        <v>-14600</v>
       </c>
       <c r="F33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-5100</v>
-      </c>
       <c r="H33" s="3">
-        <v>-18400</v>
+        <v>-5000</v>
       </c>
       <c r="I33" s="3">
-        <v>-7700</v>
+        <v>-18000</v>
       </c>
       <c r="J33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K33" s="3">
         <v>2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14900</v>
+        <v>-37600</v>
       </c>
       <c r="E35" s="3">
-        <v>-4500</v>
+        <v>-14600</v>
       </c>
       <c r="F35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-5100</v>
-      </c>
       <c r="H35" s="3">
-        <v>-18400</v>
+        <v>-5000</v>
       </c>
       <c r="I35" s="3">
-        <v>-7700</v>
+        <v>-18000</v>
       </c>
       <c r="J35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K35" s="3">
         <v>2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>122500</v>
+        <v>149400</v>
       </c>
       <c r="E41" s="3">
-        <v>107600</v>
+        <v>119900</v>
       </c>
       <c r="F41" s="3">
+        <v>105300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>107200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>131700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>82900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>86900</v>
+      </c>
+      <c r="K41" s="3">
+        <v>157500</v>
+      </c>
+      <c r="L41" s="3">
+        <v>142600</v>
+      </c>
+      <c r="M41" s="3">
+        <v>235100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>101700</v>
+      </c>
+      <c r="O41" s="3">
+        <v>101900</v>
+      </c>
+      <c r="P41" s="3">
+        <v>117200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>109500</v>
       </c>
-      <c r="G41" s="3">
-        <v>134500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>84700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>88700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>157500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>142600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>235100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>101700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>101900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>117200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>109500</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>223100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>72700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>63600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>81300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2473,112 +2563,118 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>70700</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>13800</v>
+        <v>69200</v>
       </c>
       <c r="J42" s="3">
-        <v>100</v>
+        <v>13500</v>
       </c>
       <c r="K42" s="3">
         <v>100</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>43100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>41300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>60200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>30800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>57100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>34800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62300</v>
+        <v>65700</v>
       </c>
       <c r="E43" s="3">
-        <v>60900</v>
+        <v>61000</v>
       </c>
       <c r="F43" s="3">
-        <v>70600</v>
+        <v>59600</v>
       </c>
       <c r="G43" s="3">
-        <v>61200</v>
+        <v>69100</v>
       </c>
       <c r="H43" s="3">
-        <v>54400</v>
+        <v>59900</v>
       </c>
       <c r="I43" s="3">
-        <v>55900</v>
+        <v>53200</v>
       </c>
       <c r="J43" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K43" s="3">
         <v>56900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>37900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>31200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>18800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>16600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,126 +2732,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>90400</v>
+        <v>139500</v>
       </c>
       <c r="E45" s="3">
-        <v>103900</v>
+        <v>88400</v>
       </c>
       <c r="F45" s="3">
-        <v>90900</v>
+        <v>101700</v>
       </c>
       <c r="G45" s="3">
-        <v>89300</v>
+        <v>89000</v>
       </c>
       <c r="H45" s="3">
-        <v>52400</v>
+        <v>87400</v>
       </c>
       <c r="I45" s="3">
-        <v>320600</v>
+        <v>51300</v>
       </c>
       <c r="J45" s="3">
+        <v>313800</v>
+      </c>
+      <c r="K45" s="3">
         <v>108400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>96900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>74900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>47900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>49400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>68000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>36000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>56000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>275100</v>
+        <v>354600</v>
       </c>
       <c r="E46" s="3">
-        <v>272300</v>
+        <v>269300</v>
       </c>
       <c r="F46" s="3">
-        <v>271000</v>
+        <v>266600</v>
       </c>
       <c r="G46" s="3">
-        <v>285000</v>
+        <v>265300</v>
       </c>
       <c r="H46" s="3">
-        <v>262100</v>
+        <v>279000</v>
       </c>
       <c r="I46" s="3">
-        <v>479000</v>
+        <v>256600</v>
       </c>
       <c r="J46" s="3">
+        <v>468900</v>
+      </c>
+      <c r="K46" s="3">
         <v>322900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>235400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>365500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>249800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>229000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>217300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>265300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>172800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>193200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>146200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2771,8 +2876,8 @@
       <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2780,11 +2885,11 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
@@ -2805,95 +2910,101 @@
         <v>100</v>
       </c>
       <c r="S47" s="3">
+        <v>100</v>
+      </c>
+      <c r="T47" s="3">
         <v>1900</v>
-      </c>
-      <c r="T47" s="3">
-        <v>100</v>
       </c>
       <c r="U47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1562500</v>
+        <v>1520700</v>
       </c>
       <c r="E48" s="3">
-        <v>1481600</v>
+        <v>1529500</v>
       </c>
       <c r="F48" s="3">
-        <v>1415200</v>
+        <v>1450300</v>
       </c>
       <c r="G48" s="3">
-        <v>1379900</v>
+        <v>1385400</v>
       </c>
       <c r="H48" s="3">
-        <v>1370600</v>
+        <v>1350700</v>
       </c>
       <c r="I48" s="3">
-        <v>1347200</v>
+        <v>1341700</v>
       </c>
       <c r="J48" s="3">
+        <v>1318700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1239500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1129000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>948400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>885000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>775300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>794400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>770800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>707700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>666100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>564200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>513200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>391300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>400</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>700</v>
       </c>
-      <c r="G49" s="3">
-        <v>800</v>
-      </c>
       <c r="H49" s="3">
+        <v>700</v>
+      </c>
+      <c r="I49" s="3">
         <v>900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1000</v>
       </c>
       <c r="J49" s="3">
         <v>900</v>
@@ -2902,7 +3013,7 @@
         <v>900</v>
       </c>
       <c r="L49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M49" s="3">
         <v>600</v>
@@ -2914,25 +3025,28 @@
         <v>600</v>
       </c>
       <c r="P49" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q49" s="3">
         <v>400</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>300</v>
       </c>
       <c r="R49" s="3">
         <v>300</v>
       </c>
       <c r="S49" s="3">
+        <v>300</v>
+      </c>
+      <c r="T49" s="3">
         <v>1800</v>
-      </c>
-      <c r="T49" s="3">
-        <v>200</v>
       </c>
       <c r="U49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>140100</v>
+        <v>121100</v>
       </c>
       <c r="E52" s="3">
-        <v>136900</v>
+        <v>137100</v>
       </c>
       <c r="F52" s="3">
-        <v>161400</v>
+        <v>134000</v>
       </c>
       <c r="G52" s="3">
-        <v>153400</v>
+        <v>158000</v>
       </c>
       <c r="H52" s="3">
-        <v>119600</v>
+        <v>150200</v>
       </c>
       <c r="I52" s="3">
-        <v>117400</v>
+        <v>117100</v>
       </c>
       <c r="J52" s="3">
+        <v>114900</v>
+      </c>
+      <c r="K52" s="3">
         <v>104600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>107600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>86700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>93100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>59700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>34300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>34600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>31200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>30700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1978200</v>
+        <v>1996900</v>
       </c>
       <c r="E54" s="3">
-        <v>1891500</v>
+        <v>1936500</v>
       </c>
       <c r="F54" s="3">
-        <v>1848500</v>
+        <v>1851600</v>
       </c>
       <c r="G54" s="3">
-        <v>1819200</v>
+        <v>1809500</v>
       </c>
       <c r="H54" s="3">
-        <v>1753300</v>
+        <v>1780800</v>
       </c>
       <c r="I54" s="3">
-        <v>1944500</v>
+        <v>1716300</v>
       </c>
       <c r="J54" s="3">
+        <v>1903500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1667900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1472900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1401300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1228500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1064600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1038700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1057400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1042600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>873800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>792300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>690400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>557500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27100</v>
+        <v>57800</v>
       </c>
       <c r="E57" s="3">
-        <v>24300</v>
+        <v>26600</v>
       </c>
       <c r="F57" s="3">
-        <v>34000</v>
+        <v>23800</v>
       </c>
       <c r="G57" s="3">
-        <v>24700</v>
+        <v>33200</v>
       </c>
       <c r="H57" s="3">
-        <v>25600</v>
+        <v>24100</v>
       </c>
       <c r="I57" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="J57" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K57" s="3">
         <v>32800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>80600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>22100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>30900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>43900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>58100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>49900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>41700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>140100</v>
+        <v>182900</v>
       </c>
       <c r="E58" s="3">
-        <v>80700</v>
+        <v>137200</v>
       </c>
       <c r="F58" s="3">
-        <v>29700</v>
+        <v>79000</v>
       </c>
       <c r="G58" s="3">
-        <v>45000</v>
+        <v>29100</v>
       </c>
       <c r="H58" s="3">
-        <v>54600</v>
+        <v>44100</v>
       </c>
       <c r="I58" s="3">
-        <v>290600</v>
+        <v>53500</v>
       </c>
       <c r="J58" s="3">
+        <v>284500</v>
+      </c>
+      <c r="K58" s="3">
         <v>206400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>136800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>85300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>67200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>23600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>60700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>55300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>85700</v>
+        <v>83000</v>
       </c>
       <c r="E59" s="3">
-        <v>76000</v>
+        <v>83900</v>
       </c>
       <c r="F59" s="3">
-        <v>50300</v>
+        <v>74400</v>
       </c>
       <c r="G59" s="3">
-        <v>57000</v>
+        <v>49200</v>
       </c>
       <c r="H59" s="3">
-        <v>37700</v>
+        <v>55800</v>
       </c>
       <c r="I59" s="3">
-        <v>41200</v>
+        <v>36900</v>
       </c>
       <c r="J59" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K59" s="3">
         <v>33600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>26900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>253000</v>
+        <v>323600</v>
       </c>
       <c r="E60" s="3">
-        <v>181000</v>
+        <v>247600</v>
       </c>
       <c r="F60" s="3">
-        <v>114000</v>
+        <v>177200</v>
       </c>
       <c r="G60" s="3">
-        <v>126800</v>
+        <v>111600</v>
       </c>
       <c r="H60" s="3">
-        <v>117900</v>
+        <v>124100</v>
       </c>
       <c r="I60" s="3">
-        <v>356700</v>
+        <v>115400</v>
       </c>
       <c r="J60" s="3">
+        <v>349100</v>
+      </c>
+      <c r="K60" s="3">
         <v>272900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>230100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>136800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>172400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>60100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>72300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>72800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>88300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>132000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>118800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>79300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1205000</v>
+        <v>1209500</v>
       </c>
       <c r="E61" s="3">
-        <v>1194900</v>
+        <v>1179600</v>
       </c>
       <c r="F61" s="3">
-        <v>1229600</v>
+        <v>1169700</v>
       </c>
       <c r="G61" s="3">
-        <v>1189700</v>
+        <v>1203700</v>
       </c>
       <c r="H61" s="3">
-        <v>1120600</v>
+        <v>1164600</v>
       </c>
       <c r="I61" s="3">
-        <v>1129900</v>
+        <v>1097000</v>
       </c>
       <c r="J61" s="3">
+        <v>1106000</v>
+      </c>
+      <c r="K61" s="3">
         <v>934300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>834200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>861400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>849200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>784500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>733400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>748900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>721300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>482400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>429100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>371000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>303100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>146400</v>
+        <v>134900</v>
       </c>
       <c r="E62" s="3">
-        <v>133800</v>
+        <v>143400</v>
       </c>
       <c r="F62" s="3">
-        <v>124700</v>
+        <v>130900</v>
       </c>
       <c r="G62" s="3">
-        <v>128800</v>
+        <v>122100</v>
       </c>
       <c r="H62" s="3">
-        <v>117400</v>
+        <v>126100</v>
       </c>
       <c r="I62" s="3">
-        <v>113100</v>
+        <v>114900</v>
       </c>
       <c r="J62" s="3">
+        <v>110700</v>
+      </c>
+      <c r="K62" s="3">
         <v>105500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>65000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>48300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>43800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>38800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1607200</v>
+        <v>1670700</v>
       </c>
       <c r="E66" s="3">
-        <v>1512500</v>
+        <v>1573200</v>
       </c>
       <c r="F66" s="3">
-        <v>1471200</v>
+        <v>1480600</v>
       </c>
       <c r="G66" s="3">
-        <v>1448000</v>
+        <v>1440100</v>
       </c>
       <c r="H66" s="3">
-        <v>1359100</v>
+        <v>1417400</v>
       </c>
       <c r="I66" s="3">
-        <v>1602900</v>
+        <v>1330400</v>
       </c>
       <c r="J66" s="3">
+        <v>1569100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1316300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1132900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1062100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1083800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>903000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>868600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>882200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>869000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>681400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>610100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>503400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>507900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,10 +4228,13 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-137300</v>
+        <v>-172000</v>
       </c>
       <c r="E72" s="3">
-        <v>-122400</v>
+        <v>-134400</v>
       </c>
       <c r="F72" s="3">
-        <v>-117400</v>
+        <v>-119800</v>
       </c>
       <c r="G72" s="3">
-        <v>-117900</v>
+        <v>-114900</v>
       </c>
       <c r="H72" s="3">
-        <v>-112800</v>
+        <v>-115400</v>
       </c>
       <c r="I72" s="3">
-        <v>-94400</v>
+        <v>-110400</v>
       </c>
       <c r="J72" s="3">
-        <v>-85400</v>
+        <v>-92400</v>
       </c>
       <c r="K72" s="3">
         <v>-85400</v>
       </c>
       <c r="L72" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="M72" s="3">
         <v>-87800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-89700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-84200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-92600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-97400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-95800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-81800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-78900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-74400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>371100</v>
+        <v>326100</v>
       </c>
       <c r="E76" s="3">
-        <v>379000</v>
+        <v>363300</v>
       </c>
       <c r="F76" s="3">
-        <v>377300</v>
+        <v>371000</v>
       </c>
       <c r="G76" s="3">
-        <v>371200</v>
+        <v>369300</v>
       </c>
       <c r="H76" s="3">
-        <v>394200</v>
+        <v>363400</v>
       </c>
       <c r="I76" s="3">
-        <v>341600</v>
+        <v>385900</v>
       </c>
       <c r="J76" s="3">
+        <v>334400</v>
+      </c>
+      <c r="K76" s="3">
         <v>351600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>340000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>339200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>144700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>161600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>170100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>175200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>173600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>192500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>182200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>186900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-110200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14900</v>
+        <v>-37600</v>
       </c>
       <c r="E81" s="3">
-        <v>-4500</v>
+        <v>-14600</v>
       </c>
       <c r="F81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-5100</v>
-      </c>
       <c r="H81" s="3">
-        <v>-18400</v>
+        <v>-5000</v>
       </c>
       <c r="I81" s="3">
-        <v>-7700</v>
+        <v>-18000</v>
       </c>
       <c r="J81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K81" s="3">
         <v>2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,37 +4819,38 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10900</v>
+        <v>11800</v>
       </c>
       <c r="E83" s="3">
-        <v>21000</v>
+        <v>10700</v>
       </c>
       <c r="F83" s="3">
-        <v>10400</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3">
-        <v>9800</v>
+        <v>20600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I83" s="3">
-        <v>17800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>9600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>17400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6000</v>
+        <v>28400</v>
       </c>
       <c r="E89" s="3">
-        <v>33400</v>
+        <v>5900</v>
       </c>
       <c r="F89" s="3">
-        <v>-7700</v>
+        <v>32700</v>
       </c>
       <c r="G89" s="3">
-        <v>25300</v>
+        <v>-7600</v>
       </c>
       <c r="H89" s="3">
-        <v>10700</v>
+        <v>24700</v>
       </c>
       <c r="I89" s="3">
-        <v>14600</v>
+        <v>10500</v>
       </c>
       <c r="J89" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-6400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,37 +5277,38 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-78200</v>
+        <v>-81400</v>
       </c>
       <c r="E91" s="3">
-        <v>-98500</v>
+        <v>-76500</v>
       </c>
       <c r="F91" s="3">
-        <v>-25500</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-33800</v>
+        <v>-96400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
-        <v>-197200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+        <v>-33100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-193000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78200</v>
+        <v>-81500</v>
       </c>
       <c r="E94" s="3">
-        <v>-98600</v>
+        <v>-76500</v>
       </c>
       <c r="F94" s="3">
-        <v>-25500</v>
+        <v>-96500</v>
       </c>
       <c r="G94" s="3">
-        <v>50600</v>
+        <v>-25000</v>
       </c>
       <c r="H94" s="3">
-        <v>-90600</v>
+        <v>49500</v>
       </c>
       <c r="I94" s="3">
-        <v>-210800</v>
+        <v>-88700</v>
       </c>
       <c r="J94" s="3">
+        <v>-206400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-77900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-174800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-75000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-45200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-55500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-194500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-101200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-125500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-60400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,96 +5795,102 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>68300</v>
+        <v>90900</v>
       </c>
       <c r="E100" s="3">
-        <v>46100</v>
+        <v>66900</v>
       </c>
       <c r="F100" s="3">
-        <v>3700</v>
+        <v>45100</v>
       </c>
       <c r="G100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H100" s="3">
         <v>3200</v>
       </c>
-      <c r="H100" s="3">
-        <v>-190400</v>
-      </c>
       <c r="I100" s="3">
-        <v>409000</v>
+        <v>-186300</v>
       </c>
       <c r="J100" s="3">
+        <v>400400</v>
+      </c>
+      <c r="K100" s="3">
         <v>147600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>24000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>224400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>56600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>56200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>55900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>168700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>17700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>98500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>122000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5670,37 +5919,40 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3000</v>
+        <v>38200</v>
       </c>
       <c r="E102" s="3">
-        <v>-20200</v>
+        <v>-2900</v>
       </c>
       <c r="F102" s="3">
-        <v>-29800</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-271200</v>
+        <v>-19800</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I102" s="3">
-        <v>212000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
+        <v>-265500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>207500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>AZRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57400</v>
+        <v>59200</v>
       </c>
       <c r="E8" s="3">
-        <v>47400</v>
+        <v>56900</v>
       </c>
       <c r="F8" s="3">
-        <v>100100</v>
+        <v>46900</v>
       </c>
       <c r="G8" s="3">
-        <v>53000</v>
+        <v>99200</v>
       </c>
       <c r="H8" s="3">
-        <v>49400</v>
+        <v>52500</v>
       </c>
       <c r="I8" s="3">
-        <v>41000</v>
+        <v>49000</v>
       </c>
       <c r="J8" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K8" s="3">
         <v>83900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="E9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F9" s="3">
         <v>4100</v>
       </c>
-      <c r="F9" s="3">
-        <v>7700</v>
-      </c>
       <c r="G9" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H9" s="3">
         <v>3500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>52300</v>
+        <v>54600</v>
       </c>
       <c r="E10" s="3">
-        <v>43200</v>
+        <v>51800</v>
       </c>
       <c r="F10" s="3">
-        <v>92400</v>
+        <v>42900</v>
       </c>
       <c r="G10" s="3">
-        <v>49500</v>
+        <v>91600</v>
       </c>
       <c r="H10" s="3">
-        <v>45000</v>
+        <v>49000</v>
       </c>
       <c r="I10" s="3">
-        <v>37400</v>
+        <v>44600</v>
       </c>
       <c r="J10" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K10" s="3">
         <v>76500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>42500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>16400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,16 +1104,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>43800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1124,8 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1149,70 +1169,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11800</v>
+        <v>10900</v>
       </c>
       <c r="E15" s="3">
-        <v>10700</v>
+        <v>11700</v>
       </c>
       <c r="F15" s="3">
-        <v>20600</v>
+        <v>10600</v>
       </c>
       <c r="G15" s="3">
-        <v>10200</v>
+        <v>20400</v>
       </c>
       <c r="H15" s="3">
-        <v>11400</v>
+        <v>10100</v>
       </c>
       <c r="I15" s="3">
-        <v>9600</v>
+        <v>11300</v>
       </c>
       <c r="J15" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K15" s="3">
         <v>17400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4300</v>
-      </c>
-      <c r="U15" s="3">
-        <v>3400</v>
       </c>
       <c r="V15" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61900</v>
+        <v>21600</v>
       </c>
       <c r="E17" s="3">
-        <v>37000</v>
+        <v>61400</v>
       </c>
       <c r="F17" s="3">
-        <v>45000</v>
+        <v>36700</v>
       </c>
       <c r="G17" s="3">
-        <v>18800</v>
+        <v>44600</v>
       </c>
       <c r="H17" s="3">
-        <v>25300</v>
+        <v>18500</v>
       </c>
       <c r="I17" s="3">
-        <v>22200</v>
+        <v>25000</v>
       </c>
       <c r="J17" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K17" s="3">
         <v>39000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4500</v>
       </c>
-      <c r="E18" s="3">
-        <v>10300</v>
-      </c>
       <c r="F18" s="3">
-        <v>55100</v>
+        <v>10200</v>
       </c>
       <c r="G18" s="3">
-        <v>34200</v>
+        <v>54600</v>
       </c>
       <c r="H18" s="3">
-        <v>24200</v>
+        <v>34000</v>
       </c>
       <c r="I18" s="3">
-        <v>18800</v>
+        <v>24000</v>
       </c>
       <c r="J18" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K18" s="3">
         <v>44900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>15200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-30000</v>
+        <v>-30300</v>
       </c>
       <c r="E20" s="3">
-        <v>-27000</v>
+        <v>-29700</v>
       </c>
       <c r="F20" s="3">
-        <v>-56500</v>
+        <v>-26700</v>
       </c>
       <c r="G20" s="3">
-        <v>-29300</v>
+        <v>-56000</v>
       </c>
       <c r="H20" s="3">
-        <v>-28400</v>
+        <v>-29100</v>
       </c>
       <c r="I20" s="3">
-        <v>-33900</v>
+        <v>-28100</v>
       </c>
       <c r="J20" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-50500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-22100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-16900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-34800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-22700</v>
+        <v>18300</v>
       </c>
       <c r="E21" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5900</v>
       </c>
-      <c r="F21" s="3">
-        <v>19200</v>
-      </c>
       <c r="G21" s="3">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="H21" s="3">
-        <v>-19800</v>
+        <v>14900</v>
       </c>
       <c r="I21" s="3">
-        <v>-5500</v>
+        <v>7200</v>
       </c>
       <c r="J21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K21" s="3">
         <v>11800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-19200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1548,8 +1588,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-34500</v>
+        <v>7400</v>
       </c>
       <c r="E23" s="3">
-        <v>-16700</v>
+        <v>-34200</v>
       </c>
       <c r="F23" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
-        <v>4900</v>
-      </c>
       <c r="H23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-15100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
-        <v>3000</v>
-      </c>
       <c r="G24" s="3">
-        <v>4300</v>
+        <v>2900</v>
       </c>
       <c r="H24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
-        <v>3200</v>
-      </c>
       <c r="J24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-37500</v>
+        <v>9300</v>
       </c>
       <c r="E26" s="3">
-        <v>-14600</v>
+        <v>-37200</v>
       </c>
       <c r="F26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-18300</v>
-      </c>
       <c r="J26" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-37600</v>
+        <v>9200</v>
       </c>
       <c r="E27" s="3">
-        <v>-14600</v>
+        <v>-37300</v>
       </c>
       <c r="F27" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-5000</v>
-      </c>
       <c r="I27" s="3">
-        <v>-18000</v>
+        <v>-4900</v>
       </c>
       <c r="J27" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,40 +1996,43 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1979,11 +2040,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>30000</v>
+        <v>30300</v>
       </c>
       <c r="E32" s="3">
-        <v>27000</v>
+        <v>29700</v>
       </c>
       <c r="F32" s="3">
-        <v>56500</v>
+        <v>26700</v>
       </c>
       <c r="G32" s="3">
-        <v>29300</v>
+        <v>56000</v>
       </c>
       <c r="H32" s="3">
-        <v>28400</v>
+        <v>29100</v>
       </c>
       <c r="I32" s="3">
-        <v>33900</v>
+        <v>28100</v>
       </c>
       <c r="J32" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K32" s="3">
         <v>50500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>22100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>16900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>34800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-37600</v>
+        <v>9200</v>
       </c>
       <c r="E33" s="3">
-        <v>-14600</v>
+        <v>-37300</v>
       </c>
       <c r="F33" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-5000</v>
-      </c>
       <c r="I33" s="3">
-        <v>-18000</v>
+        <v>-4900</v>
       </c>
       <c r="J33" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-37600</v>
+        <v>9200</v>
       </c>
       <c r="E35" s="3">
-        <v>-14600</v>
+        <v>-37300</v>
       </c>
       <c r="F35" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-5000</v>
-      </c>
       <c r="I35" s="3">
-        <v>-18000</v>
+        <v>-4900</v>
       </c>
       <c r="J35" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>149400</v>
+        <v>89800</v>
       </c>
       <c r="E41" s="3">
-        <v>119900</v>
+        <v>148100</v>
       </c>
       <c r="F41" s="3">
-        <v>105300</v>
+        <v>118800</v>
       </c>
       <c r="G41" s="3">
-        <v>107200</v>
+        <v>104300</v>
       </c>
       <c r="H41" s="3">
-        <v>131700</v>
+        <v>106300</v>
       </c>
       <c r="I41" s="3">
-        <v>82900</v>
+        <v>130500</v>
       </c>
       <c r="J41" s="3">
+        <v>82200</v>
+      </c>
+      <c r="K41" s="3">
         <v>86900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>157500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>142600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>235100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>101700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>101900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>117200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>109500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>223100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>72700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>63600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>81300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2566,115 +2656,121 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>69200</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>68600</v>
+      </c>
+      <c r="K42" s="3">
         <v>13500</v>
-      </c>
-      <c r="K42" s="3">
-        <v>100</v>
       </c>
       <c r="L42" s="3">
         <v>100</v>
       </c>
       <c r="M42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>43100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>41300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>60200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>15900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>30800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>57100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>34800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>65700</v>
+        <v>70800</v>
       </c>
       <c r="E43" s="3">
-        <v>61000</v>
+        <v>65100</v>
       </c>
       <c r="F43" s="3">
-        <v>59600</v>
+        <v>60400</v>
       </c>
       <c r="G43" s="3">
-        <v>69100</v>
+        <v>59000</v>
       </c>
       <c r="H43" s="3">
-        <v>59900</v>
+        <v>68500</v>
       </c>
       <c r="I43" s="3">
-        <v>53200</v>
+        <v>59400</v>
       </c>
       <c r="J43" s="3">
+        <v>52800</v>
+      </c>
+      <c r="K43" s="3">
         <v>54700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>56900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>37900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>31200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>18800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>16600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,132 +2831,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>139500</v>
+        <v>217800</v>
       </c>
       <c r="E45" s="3">
-        <v>88400</v>
+        <v>138300</v>
       </c>
       <c r="F45" s="3">
-        <v>101700</v>
+        <v>87700</v>
       </c>
       <c r="G45" s="3">
-        <v>89000</v>
+        <v>100800</v>
       </c>
       <c r="H45" s="3">
-        <v>87400</v>
+        <v>88200</v>
       </c>
       <c r="I45" s="3">
-        <v>51300</v>
+        <v>86600</v>
       </c>
       <c r="J45" s="3">
+        <v>50800</v>
+      </c>
+      <c r="K45" s="3">
         <v>313800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>108400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>96900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>74900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>47900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>49400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>68000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>36000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>50500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>56000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>354600</v>
+        <v>378400</v>
       </c>
       <c r="E46" s="3">
-        <v>269300</v>
+        <v>351500</v>
       </c>
       <c r="F46" s="3">
-        <v>266600</v>
+        <v>266900</v>
       </c>
       <c r="G46" s="3">
+        <v>264200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>263000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>276500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>254300</v>
+      </c>
+      <c r="K46" s="3">
+        <v>468900</v>
+      </c>
+      <c r="L46" s="3">
+        <v>322900</v>
+      </c>
+      <c r="M46" s="3">
+        <v>235400</v>
+      </c>
+      <c r="N46" s="3">
+        <v>365500</v>
+      </c>
+      <c r="O46" s="3">
+        <v>249800</v>
+      </c>
+      <c r="P46" s="3">
+        <v>229000</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>217300</v>
+      </c>
+      <c r="R46" s="3">
         <v>265300</v>
       </c>
-      <c r="H46" s="3">
-        <v>279000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>256600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>468900</v>
-      </c>
-      <c r="K46" s="3">
-        <v>322900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>235400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>365500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>249800</v>
-      </c>
-      <c r="O46" s="3">
-        <v>229000</v>
-      </c>
-      <c r="P46" s="3">
-        <v>217300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>265300</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>172800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>193200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>146200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2879,8 +2984,8 @@
       <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2888,11 +2993,11 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
@@ -2913,98 +3018,104 @@
         <v>100</v>
       </c>
       <c r="T47" s="3">
+        <v>100</v>
+      </c>
+      <c r="U47" s="3">
         <v>1900</v>
-      </c>
-      <c r="U47" s="3">
-        <v>100</v>
       </c>
       <c r="V47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1520700</v>
+        <v>1587000</v>
       </c>
       <c r="E48" s="3">
-        <v>1529500</v>
+        <v>1507100</v>
       </c>
       <c r="F48" s="3">
-        <v>1450300</v>
+        <v>1515800</v>
       </c>
       <c r="G48" s="3">
-        <v>1385400</v>
+        <v>1437400</v>
       </c>
       <c r="H48" s="3">
-        <v>1350700</v>
+        <v>1373000</v>
       </c>
       <c r="I48" s="3">
-        <v>1341700</v>
+        <v>1338700</v>
       </c>
       <c r="J48" s="3">
+        <v>1329700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1318700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1239500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1129000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>948400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>885000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>775300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>794400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>770800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>707700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>666100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>564200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>513200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>391300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300</v>
+      </c>
+      <c r="E49" s="3">
         <v>400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
       </c>
       <c r="I49" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="J49" s="3">
         <v>900</v>
@@ -3016,7 +3127,7 @@
         <v>900</v>
       </c>
       <c r="M49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="N49" s="3">
         <v>600</v>
@@ -3028,25 +3139,28 @@
         <v>600</v>
       </c>
       <c r="Q49" s="3">
+        <v>600</v>
+      </c>
+      <c r="R49" s="3">
         <v>400</v>
-      </c>
-      <c r="R49" s="3">
-        <v>300</v>
       </c>
       <c r="S49" s="3">
         <v>300</v>
       </c>
       <c r="T49" s="3">
+        <v>300</v>
+      </c>
+      <c r="U49" s="3">
         <v>1800</v>
-      </c>
-      <c r="U49" s="3">
-        <v>200</v>
       </c>
       <c r="V49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>121100</v>
+        <v>139900</v>
       </c>
       <c r="E52" s="3">
-        <v>137100</v>
+        <v>120000</v>
       </c>
       <c r="F52" s="3">
-        <v>134000</v>
+        <v>135900</v>
       </c>
       <c r="G52" s="3">
-        <v>158000</v>
+        <v>132800</v>
       </c>
       <c r="H52" s="3">
-        <v>150200</v>
+        <v>156500</v>
       </c>
       <c r="I52" s="3">
-        <v>117100</v>
+        <v>148900</v>
       </c>
       <c r="J52" s="3">
+        <v>116100</v>
+      </c>
+      <c r="K52" s="3">
         <v>114900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>104600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>107600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>86700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>93100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>59700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>34300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>34600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>31200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>30700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1996900</v>
+        <v>2105800</v>
       </c>
       <c r="E54" s="3">
-        <v>1936500</v>
+        <v>1979000</v>
       </c>
       <c r="F54" s="3">
-        <v>1851600</v>
+        <v>1919200</v>
       </c>
       <c r="G54" s="3">
-        <v>1809500</v>
+        <v>1835100</v>
       </c>
       <c r="H54" s="3">
-        <v>1780800</v>
+        <v>1793300</v>
       </c>
       <c r="I54" s="3">
-        <v>1716300</v>
+        <v>1764900</v>
       </c>
       <c r="J54" s="3">
+        <v>1700900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1903500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1667900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1472900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1401300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1228500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1064600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1038700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1057400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1042600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>873800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>792300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>690400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>557500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>57800</v>
+        <v>55000</v>
       </c>
       <c r="E57" s="3">
-        <v>26600</v>
+        <v>57200</v>
       </c>
       <c r="F57" s="3">
-        <v>23800</v>
+        <v>26300</v>
       </c>
       <c r="G57" s="3">
-        <v>33200</v>
+        <v>23600</v>
       </c>
       <c r="H57" s="3">
-        <v>24100</v>
+        <v>33000</v>
       </c>
       <c r="I57" s="3">
-        <v>25000</v>
+        <v>23900</v>
       </c>
       <c r="J57" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K57" s="3">
         <v>24400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>80600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>22100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>30900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>43900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>58100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>49900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>41700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>182900</v>
+        <v>321900</v>
       </c>
       <c r="E58" s="3">
-        <v>137200</v>
+        <v>181300</v>
       </c>
       <c r="F58" s="3">
-        <v>79000</v>
+        <v>136000</v>
       </c>
       <c r="G58" s="3">
-        <v>29100</v>
+        <v>78300</v>
       </c>
       <c r="H58" s="3">
-        <v>44100</v>
+        <v>28800</v>
       </c>
       <c r="I58" s="3">
-        <v>53500</v>
+        <v>43700</v>
       </c>
       <c r="J58" s="3">
+        <v>53000</v>
+      </c>
+      <c r="K58" s="3">
         <v>284500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>206400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>136800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>85300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>67200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>23600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>19300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>60700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>55300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>23400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>83000</v>
+        <v>60500</v>
       </c>
       <c r="E59" s="3">
-        <v>83900</v>
+        <v>82200</v>
       </c>
       <c r="F59" s="3">
-        <v>74400</v>
+        <v>83200</v>
       </c>
       <c r="G59" s="3">
-        <v>49200</v>
+        <v>73800</v>
       </c>
       <c r="H59" s="3">
-        <v>55800</v>
+        <v>48800</v>
       </c>
       <c r="I59" s="3">
-        <v>36900</v>
+        <v>55300</v>
       </c>
       <c r="J59" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K59" s="3">
         <v>40300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>26900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>323600</v>
+        <v>437500</v>
       </c>
       <c r="E60" s="3">
-        <v>247600</v>
+        <v>320800</v>
       </c>
       <c r="F60" s="3">
-        <v>177200</v>
+        <v>245400</v>
       </c>
       <c r="G60" s="3">
-        <v>111600</v>
+        <v>175600</v>
       </c>
       <c r="H60" s="3">
-        <v>124100</v>
+        <v>110600</v>
       </c>
       <c r="I60" s="3">
-        <v>115400</v>
+        <v>123000</v>
       </c>
       <c r="J60" s="3">
+        <v>114400</v>
+      </c>
+      <c r="K60" s="3">
         <v>349100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>272900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>230100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>136800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>172400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>60100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>72300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>72800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>88300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>132000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>118800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>79300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1209500</v>
+        <v>1204400</v>
       </c>
       <c r="E61" s="3">
-        <v>1179600</v>
+        <v>1198700</v>
       </c>
       <c r="F61" s="3">
-        <v>1169700</v>
+        <v>1169000</v>
       </c>
       <c r="G61" s="3">
-        <v>1203700</v>
+        <v>1159300</v>
       </c>
       <c r="H61" s="3">
-        <v>1164600</v>
+        <v>1192900</v>
       </c>
       <c r="I61" s="3">
-        <v>1097000</v>
+        <v>1154200</v>
       </c>
       <c r="J61" s="3">
+        <v>1087200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1106000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>934300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>834200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>861400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>849200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>784500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>733400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>748900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>721300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>482400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>429100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>371000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>303100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>134900</v>
+        <v>131600</v>
       </c>
       <c r="E62" s="3">
-        <v>143400</v>
+        <v>133700</v>
       </c>
       <c r="F62" s="3">
-        <v>130900</v>
+        <v>142100</v>
       </c>
       <c r="G62" s="3">
-        <v>122100</v>
+        <v>129800</v>
       </c>
       <c r="H62" s="3">
-        <v>126100</v>
+        <v>121000</v>
       </c>
       <c r="I62" s="3">
-        <v>114900</v>
+        <v>124900</v>
       </c>
       <c r="J62" s="3">
+        <v>113900</v>
+      </c>
+      <c r="K62" s="3">
         <v>110700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>105500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>65000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>48300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>46300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>42800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>43800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>38800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1670700</v>
+        <v>1776300</v>
       </c>
       <c r="E66" s="3">
-        <v>1573200</v>
+        <v>1655800</v>
       </c>
       <c r="F66" s="3">
-        <v>1480600</v>
+        <v>1559200</v>
       </c>
       <c r="G66" s="3">
-        <v>1440100</v>
+        <v>1467400</v>
       </c>
       <c r="H66" s="3">
-        <v>1417400</v>
+        <v>1427300</v>
       </c>
       <c r="I66" s="3">
-        <v>1330400</v>
+        <v>1404800</v>
       </c>
       <c r="J66" s="3">
+        <v>1318500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1569100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1316300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1132900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1062100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1083800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>903000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>868600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>882200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>869000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>681400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>610100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>503400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>507900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,10 +4399,13 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-172000</v>
+        <v>-161200</v>
       </c>
       <c r="E72" s="3">
-        <v>-134400</v>
+        <v>-170400</v>
       </c>
       <c r="F72" s="3">
-        <v>-119800</v>
+        <v>-133200</v>
       </c>
       <c r="G72" s="3">
-        <v>-114900</v>
+        <v>-118700</v>
       </c>
       <c r="H72" s="3">
-        <v>-115400</v>
+        <v>-113900</v>
       </c>
       <c r="I72" s="3">
-        <v>-110400</v>
+        <v>-114400</v>
       </c>
       <c r="J72" s="3">
+        <v>-109500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-92400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-85400</v>
       </c>
       <c r="L72" s="3">
         <v>-85400</v>
       </c>
       <c r="M72" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-87800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-89700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-84200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-92600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-97400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-95800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-81800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-78900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-74400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>326100</v>
+        <v>329500</v>
       </c>
       <c r="E76" s="3">
-        <v>363300</v>
+        <v>323200</v>
       </c>
       <c r="F76" s="3">
-        <v>371000</v>
+        <v>360000</v>
       </c>
       <c r="G76" s="3">
-        <v>369300</v>
+        <v>367700</v>
       </c>
       <c r="H76" s="3">
-        <v>363400</v>
+        <v>366000</v>
       </c>
       <c r="I76" s="3">
-        <v>385900</v>
+        <v>360100</v>
       </c>
       <c r="J76" s="3">
+        <v>382400</v>
+      </c>
+      <c r="K76" s="3">
         <v>334400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>351600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>340000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>339200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>144700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>161600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>170100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>175200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>173600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>192500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>182200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>186900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-110200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-37600</v>
+        <v>9200</v>
       </c>
       <c r="E81" s="3">
-        <v>-14600</v>
+        <v>-37300</v>
       </c>
       <c r="F81" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-5000</v>
-      </c>
       <c r="I81" s="3">
-        <v>-18000</v>
+        <v>-4900</v>
       </c>
       <c r="J81" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,40 +5018,41 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11800</v>
+        <v>10900</v>
       </c>
       <c r="E83" s="3">
-        <v>10700</v>
+        <v>11700</v>
       </c>
       <c r="F83" s="3">
-        <v>20600</v>
+        <v>10600</v>
       </c>
       <c r="G83" s="3">
-        <v>10200</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
+        <v>20400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>10100</v>
       </c>
       <c r="I83" s="3">
-        <v>9600</v>
+        <v>11300</v>
       </c>
       <c r="J83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K83" s="3">
         <v>17400</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28400</v>
+        <v>12300</v>
       </c>
       <c r="E89" s="3">
-        <v>5900</v>
+        <v>28100</v>
       </c>
       <c r="F89" s="3">
-        <v>32700</v>
+        <v>5800</v>
       </c>
       <c r="G89" s="3">
-        <v>-7600</v>
+        <v>32400</v>
       </c>
       <c r="H89" s="3">
-        <v>24700</v>
+        <v>-7500</v>
       </c>
       <c r="I89" s="3">
-        <v>10500</v>
+        <v>24500</v>
       </c>
       <c r="J89" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K89" s="3">
         <v>14300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,40 +5498,41 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-81400</v>
+        <v>-101400</v>
       </c>
       <c r="E91" s="3">
-        <v>-76500</v>
+        <v>-80700</v>
       </c>
       <c r="F91" s="3">
-        <v>-96400</v>
+        <v>-75800</v>
       </c>
       <c r="G91" s="3">
-        <v>-24900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+        <v>-95500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-24700</v>
       </c>
       <c r="I91" s="3">
-        <v>-33100</v>
+        <v>-20200</v>
       </c>
       <c r="J91" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-193000</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-81500</v>
+        <v>-99700</v>
       </c>
       <c r="E94" s="3">
-        <v>-76500</v>
+        <v>-80700</v>
       </c>
       <c r="F94" s="3">
-        <v>-96500</v>
+        <v>-75800</v>
       </c>
       <c r="G94" s="3">
-        <v>-25000</v>
+        <v>-95600</v>
       </c>
       <c r="H94" s="3">
-        <v>49500</v>
+        <v>-24800</v>
       </c>
       <c r="I94" s="3">
-        <v>-88700</v>
+        <v>49100</v>
       </c>
       <c r="J94" s="3">
+        <v>-87900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-206400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-77900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-174800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-75000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-45200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-55500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-194500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-101200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-125500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-60400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,102 +6041,108 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>90900</v>
+        <v>118800</v>
       </c>
       <c r="E100" s="3">
-        <v>66900</v>
+        <v>90100</v>
       </c>
       <c r="F100" s="3">
-        <v>45100</v>
+        <v>66300</v>
       </c>
       <c r="G100" s="3">
+        <v>44700</v>
+      </c>
+      <c r="H100" s="3">
         <v>3600</v>
       </c>
-      <c r="H100" s="3">
-        <v>3200</v>
-      </c>
       <c r="I100" s="3">
-        <v>-186300</v>
+        <v>3100</v>
       </c>
       <c r="J100" s="3">
+        <v>-184700</v>
+      </c>
+      <c r="K100" s="3">
         <v>400400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>147600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>224400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>56600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>56200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>55900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>168700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>17700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>98500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>122000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I101" s="3">
-        <v>-1200</v>
+        <v>1100</v>
       </c>
       <c r="J101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-500</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5922,40 +6171,43 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38200</v>
+        <v>18400</v>
       </c>
       <c r="E102" s="3">
+        <v>37900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2900</v>
       </c>
-      <c r="F102" s="3">
-        <v>-19800</v>
-      </c>
       <c r="G102" s="3">
-        <v>-29200</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
+        <v>-19600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-28900</v>
       </c>
       <c r="I102" s="3">
-        <v>-265500</v>
+        <v>77900</v>
       </c>
       <c r="J102" s="3">
+        <v>-263100</v>
+      </c>
+      <c r="K102" s="3">
         <v>207500</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>AZRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59200</v>
+        <v>57300</v>
       </c>
       <c r="E8" s="3">
-        <v>56900</v>
+        <v>58000</v>
       </c>
       <c r="F8" s="3">
-        <v>46900</v>
+        <v>55800</v>
       </c>
       <c r="G8" s="3">
-        <v>99200</v>
+        <v>46000</v>
       </c>
       <c r="H8" s="3">
-        <v>52500</v>
+        <v>97300</v>
       </c>
       <c r="I8" s="3">
-        <v>49000</v>
+        <v>51500</v>
       </c>
       <c r="J8" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K8" s="3">
         <v>40600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>83900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>27200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>13100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,129 +838,135 @@
         <v>4600</v>
       </c>
       <c r="E9" s="3">
-        <v>5100</v>
+        <v>4500</v>
       </c>
       <c r="F9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="M9" s="3">
         <v>4100</v>
       </c>
-      <c r="G9" s="3">
-        <v>7600</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="N9" s="3">
         <v>3500</v>
       </c>
-      <c r="I9" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>7400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>4100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3500</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>54600</v>
+        <v>52700</v>
       </c>
       <c r="E10" s="3">
-        <v>51800</v>
+        <v>53500</v>
       </c>
       <c r="F10" s="3">
-        <v>42900</v>
+        <v>50800</v>
       </c>
       <c r="G10" s="3">
-        <v>91600</v>
+        <v>42000</v>
       </c>
       <c r="H10" s="3">
-        <v>49000</v>
+        <v>89800</v>
       </c>
       <c r="I10" s="3">
-        <v>44600</v>
+        <v>48100</v>
       </c>
       <c r="J10" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K10" s="3">
         <v>37100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>76500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>42500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>27600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>16400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,28 +1124,31 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>43400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>42500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1136,8 +1156,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1172,73 +1192,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="E15" s="3">
-        <v>11700</v>
+        <v>10700</v>
       </c>
       <c r="F15" s="3">
-        <v>10600</v>
+        <v>11500</v>
       </c>
       <c r="G15" s="3">
-        <v>20400</v>
+        <v>10400</v>
       </c>
       <c r="H15" s="3">
-        <v>10100</v>
+        <v>20000</v>
       </c>
       <c r="I15" s="3">
-        <v>11300</v>
+        <v>9900</v>
       </c>
       <c r="J15" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K15" s="3">
         <v>9500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>6100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4300</v>
-      </c>
-      <c r="V15" s="3">
-        <v>3400</v>
       </c>
       <c r="W15" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="E17" s="3">
-        <v>61400</v>
+        <v>21100</v>
       </c>
       <c r="F17" s="3">
-        <v>36700</v>
+        <v>60200</v>
       </c>
       <c r="G17" s="3">
-        <v>44600</v>
+        <v>36000</v>
       </c>
       <c r="H17" s="3">
-        <v>18500</v>
+        <v>43700</v>
       </c>
       <c r="I17" s="3">
-        <v>25000</v>
+        <v>18200</v>
       </c>
       <c r="J17" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K17" s="3">
         <v>22000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>37600</v>
+        <v>36700</v>
       </c>
       <c r="E18" s="3">
-        <v>-4500</v>
+        <v>36900</v>
       </c>
       <c r="F18" s="3">
-        <v>10200</v>
+        <v>-4400</v>
       </c>
       <c r="G18" s="3">
-        <v>54600</v>
+        <v>10000</v>
       </c>
       <c r="H18" s="3">
-        <v>34000</v>
+        <v>53500</v>
       </c>
       <c r="I18" s="3">
-        <v>24000</v>
+        <v>33300</v>
       </c>
       <c r="J18" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K18" s="3">
         <v>18600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>15000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>15200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-30300</v>
+        <v>-29900</v>
       </c>
       <c r="E20" s="3">
         <v>-29700</v>
       </c>
       <c r="F20" s="3">
-        <v>-26700</v>
+        <v>-29200</v>
       </c>
       <c r="G20" s="3">
-        <v>-56000</v>
+        <v>-26200</v>
       </c>
       <c r="H20" s="3">
-        <v>-29100</v>
+        <v>-54900</v>
       </c>
       <c r="I20" s="3">
-        <v>-28100</v>
+        <v>-28600</v>
       </c>
       <c r="J20" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-33600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-50500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-22100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-34800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18300</v>
+        <v>18000</v>
       </c>
       <c r="E21" s="3">
-        <v>-22500</v>
+        <v>17900</v>
       </c>
       <c r="F21" s="3">
-        <v>-5900</v>
+        <v>-22000</v>
       </c>
       <c r="G21" s="3">
-        <v>19000</v>
+        <v>-5800</v>
       </c>
       <c r="H21" s="3">
-        <v>14900</v>
+        <v>18600</v>
       </c>
       <c r="I21" s="3">
-        <v>7200</v>
+        <v>14600</v>
       </c>
       <c r="J21" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-19200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1591,8 +1631,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7400</v>
+        <v>6800</v>
       </c>
       <c r="E23" s="3">
-        <v>-34200</v>
+        <v>7200</v>
       </c>
       <c r="F23" s="3">
-        <v>-16500</v>
+        <v>-33500</v>
       </c>
       <c r="G23" s="3">
-        <v>-1400</v>
+        <v>-16200</v>
       </c>
       <c r="H23" s="3">
-        <v>4800</v>
+        <v>-1300</v>
       </c>
       <c r="I23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="M23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>4300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>3000</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="T23" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="U23" s="3">
         <v>3100</v>
       </c>
-      <c r="O23" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>2400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="T23" s="3">
-        <v>3100</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
-        <v>4200</v>
-      </c>
       <c r="I24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9300</v>
+        <v>-3900</v>
       </c>
       <c r="E26" s="3">
-        <v>-37200</v>
+        <v>9100</v>
       </c>
       <c r="F26" s="3">
-        <v>-14500</v>
+        <v>-36500</v>
       </c>
       <c r="G26" s="3">
-        <v>-4300</v>
+        <v>-14200</v>
       </c>
       <c r="H26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
-        <v>-5300</v>
-      </c>
       <c r="J26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-18100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9200</v>
+        <v>-4100</v>
       </c>
       <c r="E27" s="3">
-        <v>-37300</v>
+        <v>9000</v>
       </c>
       <c r="F27" s="3">
-        <v>-14400</v>
+        <v>-36500</v>
       </c>
       <c r="G27" s="3">
-        <v>-4400</v>
+        <v>-14200</v>
       </c>
       <c r="H27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
-        <v>-4900</v>
-      </c>
       <c r="J27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-17900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,17 +2086,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2043,11 +2104,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>1600</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>30300</v>
+        <v>29900</v>
       </c>
       <c r="E32" s="3">
         <v>29700</v>
       </c>
       <c r="F32" s="3">
-        <v>26700</v>
+        <v>29200</v>
       </c>
       <c r="G32" s="3">
-        <v>56000</v>
+        <v>26200</v>
       </c>
       <c r="H32" s="3">
-        <v>29100</v>
+        <v>54900</v>
       </c>
       <c r="I32" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="J32" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K32" s="3">
         <v>33600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>50500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>22100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>16900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>34800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9200</v>
+        <v>-4100</v>
       </c>
       <c r="E33" s="3">
-        <v>-37300</v>
+        <v>9000</v>
       </c>
       <c r="F33" s="3">
-        <v>-14400</v>
+        <v>-36500</v>
       </c>
       <c r="G33" s="3">
-        <v>-4400</v>
+        <v>-14200</v>
       </c>
       <c r="H33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
-        <v>-4900</v>
-      </c>
       <c r="J33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-17900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9200</v>
+        <v>-4100</v>
       </c>
       <c r="E35" s="3">
-        <v>-37300</v>
+        <v>9000</v>
       </c>
       <c r="F35" s="3">
-        <v>-14400</v>
+        <v>-36500</v>
       </c>
       <c r="G35" s="3">
-        <v>-4400</v>
+        <v>-14200</v>
       </c>
       <c r="H35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
-        <v>-4900</v>
-      </c>
       <c r="J35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-17900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>89800</v>
+        <v>124300</v>
       </c>
       <c r="E41" s="3">
-        <v>148100</v>
+        <v>88000</v>
       </c>
       <c r="F41" s="3">
-        <v>118800</v>
+        <v>145200</v>
       </c>
       <c r="G41" s="3">
-        <v>104300</v>
+        <v>116500</v>
       </c>
       <c r="H41" s="3">
-        <v>106300</v>
+        <v>102300</v>
       </c>
       <c r="I41" s="3">
-        <v>130500</v>
+        <v>104200</v>
       </c>
       <c r="J41" s="3">
+        <v>128000</v>
+      </c>
+      <c r="K41" s="3">
         <v>82200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>86900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>157500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>142600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>235100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>101700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>101900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>117200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>109500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>223100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>72700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>63600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>81300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2659,118 +2749,124 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>68600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13500</v>
-      </c>
-      <c r="L42" s="3">
-        <v>100</v>
       </c>
       <c r="M42" s="3">
         <v>100</v>
       </c>
       <c r="N42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>43100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>41300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>60200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>15900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>30800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>57100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>34800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>70800</v>
+        <v>74200</v>
       </c>
       <c r="E43" s="3">
-        <v>65100</v>
+        <v>69400</v>
       </c>
       <c r="F43" s="3">
-        <v>60400</v>
+        <v>63900</v>
       </c>
       <c r="G43" s="3">
-        <v>59000</v>
+        <v>59300</v>
       </c>
       <c r="H43" s="3">
-        <v>68500</v>
+        <v>57900</v>
       </c>
       <c r="I43" s="3">
-        <v>59400</v>
+        <v>67100</v>
       </c>
       <c r="J43" s="3">
+        <v>58200</v>
+      </c>
+      <c r="K43" s="3">
         <v>52800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>56900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>37900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>31200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>18800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>16600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,138 +2930,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>217800</v>
+        <v>206200</v>
       </c>
       <c r="E45" s="3">
-        <v>138300</v>
+        <v>213600</v>
       </c>
       <c r="F45" s="3">
-        <v>87700</v>
+        <v>135600</v>
       </c>
       <c r="G45" s="3">
-        <v>100800</v>
+        <v>85900</v>
       </c>
       <c r="H45" s="3">
-        <v>88200</v>
+        <v>98800</v>
       </c>
       <c r="I45" s="3">
-        <v>86600</v>
+        <v>86500</v>
       </c>
       <c r="J45" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K45" s="3">
         <v>50800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>313800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>108400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>96900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>74900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>47900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>49400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>68000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>36000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>50500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>56000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>20800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>378400</v>
+        <v>404800</v>
       </c>
       <c r="E46" s="3">
-        <v>351500</v>
+        <v>371000</v>
       </c>
       <c r="F46" s="3">
-        <v>266900</v>
+        <v>344600</v>
       </c>
       <c r="G46" s="3">
-        <v>264200</v>
+        <v>261700</v>
       </c>
       <c r="H46" s="3">
-        <v>263000</v>
+        <v>259000</v>
       </c>
       <c r="I46" s="3">
-        <v>276500</v>
+        <v>257800</v>
       </c>
       <c r="J46" s="3">
+        <v>271100</v>
+      </c>
+      <c r="K46" s="3">
         <v>254300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>468900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>322900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>235400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>365500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>249800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>229000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>217300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>265300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>172800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>193200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>146200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2987,8 +3092,8 @@
       <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2996,11 +3101,11 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
@@ -3021,81 +3126,87 @@
         <v>100</v>
       </c>
       <c r="U47" s="3">
+        <v>100</v>
+      </c>
+      <c r="V47" s="3">
         <v>1900</v>
-      </c>
-      <c r="V47" s="3">
-        <v>100</v>
       </c>
       <c r="W47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1587000</v>
+        <v>1631500</v>
       </c>
       <c r="E48" s="3">
-        <v>1507100</v>
+        <v>1556100</v>
       </c>
       <c r="F48" s="3">
-        <v>1515800</v>
+        <v>1477700</v>
       </c>
       <c r="G48" s="3">
-        <v>1437400</v>
+        <v>1486300</v>
       </c>
       <c r="H48" s="3">
-        <v>1373000</v>
+        <v>1409400</v>
       </c>
       <c r="I48" s="3">
-        <v>1338700</v>
+        <v>1346200</v>
       </c>
       <c r="J48" s="3">
+        <v>1312600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1329700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1318700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1239500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1129000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>948400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>885000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>775300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>794400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>770800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>707700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>666100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>564200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>513200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>391300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3103,22 +3214,22 @@
         <v>300</v>
       </c>
       <c r="E49" s="3">
+        <v>300</v>
+      </c>
+      <c r="F49" s="3">
         <v>400</v>
       </c>
-      <c r="F49" s="3">
-        <v>500</v>
-      </c>
       <c r="G49" s="3">
+        <v>400</v>
+      </c>
+      <c r="H49" s="3">
         <v>600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>700</v>
       </c>
       <c r="I49" s="3">
         <v>700</v>
       </c>
       <c r="J49" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K49" s="3">
         <v>900</v>
@@ -3130,7 +3241,7 @@
         <v>900</v>
       </c>
       <c r="N49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="O49" s="3">
         <v>600</v>
@@ -3142,25 +3253,28 @@
         <v>600</v>
       </c>
       <c r="R49" s="3">
+        <v>600</v>
+      </c>
+      <c r="S49" s="3">
         <v>400</v>
-      </c>
-      <c r="S49" s="3">
-        <v>300</v>
       </c>
       <c r="T49" s="3">
         <v>300</v>
       </c>
       <c r="U49" s="3">
+        <v>300</v>
+      </c>
+      <c r="V49" s="3">
         <v>1800</v>
-      </c>
-      <c r="V49" s="3">
-        <v>200</v>
       </c>
       <c r="W49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>139900</v>
+        <v>59100</v>
       </c>
       <c r="E52" s="3">
-        <v>120000</v>
+        <v>137200</v>
       </c>
       <c r="F52" s="3">
-        <v>135900</v>
+        <v>117700</v>
       </c>
       <c r="G52" s="3">
-        <v>132800</v>
+        <v>133200</v>
       </c>
       <c r="H52" s="3">
-        <v>156500</v>
+        <v>130200</v>
       </c>
       <c r="I52" s="3">
-        <v>148900</v>
+        <v>153500</v>
       </c>
       <c r="J52" s="3">
+        <v>146000</v>
+      </c>
+      <c r="K52" s="3">
         <v>116100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>114900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>104600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>107600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>86700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>93100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>59700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>34300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>34600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>31200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>30700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2105800</v>
+        <v>2095900</v>
       </c>
       <c r="E54" s="3">
-        <v>1979000</v>
+        <v>2064700</v>
       </c>
       <c r="F54" s="3">
-        <v>1919200</v>
+        <v>1940400</v>
       </c>
       <c r="G54" s="3">
-        <v>1835100</v>
+        <v>1881800</v>
       </c>
       <c r="H54" s="3">
-        <v>1793300</v>
+        <v>1799300</v>
       </c>
       <c r="I54" s="3">
-        <v>1764900</v>
+        <v>1758300</v>
       </c>
       <c r="J54" s="3">
+        <v>1730500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1700900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1903500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1667900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1472900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1401300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1228500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1064600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1038700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1057400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1042600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>873800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>792300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>690400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>557500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>55000</v>
+        <v>72900</v>
       </c>
       <c r="E57" s="3">
-        <v>57200</v>
+        <v>53900</v>
       </c>
       <c r="F57" s="3">
-        <v>26300</v>
+        <v>56100</v>
       </c>
       <c r="G57" s="3">
-        <v>23600</v>
+        <v>25800</v>
       </c>
       <c r="H57" s="3">
-        <v>33000</v>
+        <v>23100</v>
       </c>
       <c r="I57" s="3">
-        <v>23900</v>
+        <v>32300</v>
       </c>
       <c r="J57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K57" s="3">
         <v>24800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>80600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>43900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>58100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>49900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>41700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>321900</v>
+        <v>370900</v>
       </c>
       <c r="E58" s="3">
-        <v>181300</v>
+        <v>315700</v>
       </c>
       <c r="F58" s="3">
-        <v>136000</v>
+        <v>177800</v>
       </c>
       <c r="G58" s="3">
-        <v>78300</v>
+        <v>133300</v>
       </c>
       <c r="H58" s="3">
-        <v>28800</v>
+        <v>76700</v>
       </c>
       <c r="I58" s="3">
-        <v>43700</v>
+        <v>28300</v>
       </c>
       <c r="J58" s="3">
+        <v>42800</v>
+      </c>
+      <c r="K58" s="3">
         <v>53000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>284500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>206400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>136800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>85300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>67200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>19300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>27400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>60700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>55300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>23400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>60500</v>
+        <v>71700</v>
       </c>
       <c r="E59" s="3">
-        <v>82200</v>
+        <v>59400</v>
       </c>
       <c r="F59" s="3">
-        <v>83200</v>
+        <v>80600</v>
       </c>
       <c r="G59" s="3">
-        <v>73800</v>
+        <v>81500</v>
       </c>
       <c r="H59" s="3">
-        <v>48800</v>
+        <v>72300</v>
       </c>
       <c r="I59" s="3">
-        <v>55300</v>
+        <v>47800</v>
       </c>
       <c r="J59" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K59" s="3">
         <v>36600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>26900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>437500</v>
+        <v>515500</v>
       </c>
       <c r="E60" s="3">
-        <v>320800</v>
+        <v>428900</v>
       </c>
       <c r="F60" s="3">
-        <v>245400</v>
+        <v>314500</v>
       </c>
       <c r="G60" s="3">
-        <v>175600</v>
+        <v>240600</v>
       </c>
       <c r="H60" s="3">
-        <v>110600</v>
+        <v>172200</v>
       </c>
       <c r="I60" s="3">
-        <v>123000</v>
+        <v>108400</v>
       </c>
       <c r="J60" s="3">
+        <v>120600</v>
+      </c>
+      <c r="K60" s="3">
         <v>114400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>349100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>272900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>230100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>136800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>172400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>60100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>72300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>72800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>88300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>132000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>118800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>79300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1204400</v>
+        <v>1136200</v>
       </c>
       <c r="E61" s="3">
-        <v>1198700</v>
+        <v>1180900</v>
       </c>
       <c r="F61" s="3">
-        <v>1169000</v>
+        <v>1175300</v>
       </c>
       <c r="G61" s="3">
-        <v>1159300</v>
+        <v>1146200</v>
       </c>
       <c r="H61" s="3">
-        <v>1192900</v>
+        <v>1136700</v>
       </c>
       <c r="I61" s="3">
-        <v>1154200</v>
+        <v>1169600</v>
       </c>
       <c r="J61" s="3">
+        <v>1131700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1087200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1106000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>934300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>834200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>861400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>849200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>784500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>733400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>748900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>721300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>482400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>429100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>371000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>303100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>131600</v>
+        <v>126300</v>
       </c>
       <c r="E62" s="3">
-        <v>133700</v>
+        <v>129100</v>
       </c>
       <c r="F62" s="3">
-        <v>142100</v>
+        <v>131100</v>
       </c>
       <c r="G62" s="3">
-        <v>129800</v>
+        <v>139300</v>
       </c>
       <c r="H62" s="3">
-        <v>121000</v>
+        <v>127200</v>
       </c>
       <c r="I62" s="3">
-        <v>124900</v>
+        <v>118700</v>
       </c>
       <c r="J62" s="3">
+        <v>122500</v>
+      </c>
+      <c r="K62" s="3">
         <v>113900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>110700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>105500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>65000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>48300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>43800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>40800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>38800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>35000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1776300</v>
+        <v>1780900</v>
       </c>
       <c r="E66" s="3">
-        <v>1655800</v>
+        <v>1741600</v>
       </c>
       <c r="F66" s="3">
-        <v>1559200</v>
+        <v>1623500</v>
       </c>
       <c r="G66" s="3">
-        <v>1467400</v>
+        <v>1528800</v>
       </c>
       <c r="H66" s="3">
-        <v>1427300</v>
+        <v>1438700</v>
       </c>
       <c r="I66" s="3">
-        <v>1404800</v>
+        <v>1399400</v>
       </c>
       <c r="J66" s="3">
+        <v>1377400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1318500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1569100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1316300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1132900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1062100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1083800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>903000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>868600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>882200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>869000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>681400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>610100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>503400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>507900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,10 +4570,13 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-161200</v>
+        <v>-162200</v>
       </c>
       <c r="E72" s="3">
-        <v>-170400</v>
+        <v>-158100</v>
       </c>
       <c r="F72" s="3">
-        <v>-133200</v>
+        <v>-167100</v>
       </c>
       <c r="G72" s="3">
-        <v>-118700</v>
+        <v>-130600</v>
       </c>
       <c r="H72" s="3">
-        <v>-113900</v>
+        <v>-116400</v>
       </c>
       <c r="I72" s="3">
-        <v>-114400</v>
+        <v>-111600</v>
       </c>
       <c r="J72" s="3">
+        <v>-112100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-109500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-92400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-85400</v>
       </c>
       <c r="M72" s="3">
         <v>-85400</v>
       </c>
       <c r="N72" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="O72" s="3">
         <v>-87800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-89700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-84200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-92600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-97400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-95800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-81800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-78900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-74400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>329500</v>
+        <v>315000</v>
       </c>
       <c r="E76" s="3">
-        <v>323200</v>
+        <v>323100</v>
       </c>
       <c r="F76" s="3">
-        <v>360000</v>
+        <v>316900</v>
       </c>
       <c r="G76" s="3">
-        <v>367700</v>
+        <v>353000</v>
       </c>
       <c r="H76" s="3">
-        <v>366000</v>
+        <v>360500</v>
       </c>
       <c r="I76" s="3">
-        <v>360100</v>
+        <v>358900</v>
       </c>
       <c r="J76" s="3">
+        <v>353100</v>
+      </c>
+      <c r="K76" s="3">
         <v>382400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>334400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>351600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>340000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>339200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>144700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>161600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>170100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>175200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>173600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>192500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>182200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>186900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-110200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9200</v>
+        <v>-4100</v>
       </c>
       <c r="E81" s="3">
-        <v>-37300</v>
+        <v>9000</v>
       </c>
       <c r="F81" s="3">
-        <v>-14400</v>
+        <v>-36500</v>
       </c>
       <c r="G81" s="3">
-        <v>-4400</v>
+        <v>-14200</v>
       </c>
       <c r="H81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
-        <v>-4900</v>
-      </c>
       <c r="J81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-17900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,43 +5217,44 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="E83" s="3">
-        <v>11700</v>
+        <v>10700</v>
       </c>
       <c r="F83" s="3">
-        <v>10600</v>
+        <v>11500</v>
       </c>
       <c r="G83" s="3">
-        <v>20400</v>
+        <v>10400</v>
       </c>
       <c r="H83" s="3">
-        <v>10100</v>
+        <v>20000</v>
       </c>
       <c r="I83" s="3">
-        <v>11300</v>
+        <v>9900</v>
       </c>
       <c r="J83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K83" s="3">
         <v>9500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17400</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="E89" s="3">
-        <v>28100</v>
+        <v>12000</v>
       </c>
       <c r="F89" s="3">
-        <v>5800</v>
+        <v>27600</v>
       </c>
       <c r="G89" s="3">
-        <v>32400</v>
+        <v>5700</v>
       </c>
       <c r="H89" s="3">
-        <v>-7500</v>
+        <v>31800</v>
       </c>
       <c r="I89" s="3">
-        <v>24500</v>
+        <v>-7300</v>
       </c>
       <c r="J89" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K89" s="3">
         <v>10400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>20100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,43 +5719,44 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-101400</v>
+        <v>-58600</v>
       </c>
       <c r="E91" s="3">
-        <v>-80700</v>
+        <v>-99400</v>
       </c>
       <c r="F91" s="3">
-        <v>-75800</v>
+        <v>-79100</v>
       </c>
       <c r="G91" s="3">
-        <v>-95500</v>
+        <v>-74400</v>
       </c>
       <c r="H91" s="3">
-        <v>-24700</v>
+        <v>-93700</v>
       </c>
       <c r="I91" s="3">
-        <v>-20200</v>
+        <v>-24200</v>
       </c>
       <c r="J91" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-32800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-193000</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-99700</v>
+        <v>-58600</v>
       </c>
       <c r="E94" s="3">
-        <v>-80700</v>
+        <v>-97700</v>
       </c>
       <c r="F94" s="3">
-        <v>-75800</v>
+        <v>-79200</v>
       </c>
       <c r="G94" s="3">
-        <v>-95600</v>
+        <v>-74400</v>
       </c>
       <c r="H94" s="3">
-        <v>-24800</v>
+        <v>-93800</v>
       </c>
       <c r="I94" s="3">
-        <v>49100</v>
+        <v>-24300</v>
       </c>
       <c r="J94" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-87900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-206400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-77900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-174800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-75000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-45200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-55500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-194500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-101200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-125500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-60400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,108 +6287,114 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>118800</v>
+        <v>57800</v>
       </c>
       <c r="E100" s="3">
-        <v>90100</v>
+        <v>116500</v>
       </c>
       <c r="F100" s="3">
-        <v>66300</v>
+        <v>88400</v>
       </c>
       <c r="G100" s="3">
-        <v>44700</v>
+        <v>65000</v>
       </c>
       <c r="H100" s="3">
-        <v>3600</v>
+        <v>43900</v>
       </c>
       <c r="I100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J100" s="3">
         <v>3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-184700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>147600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>224400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>56600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>56200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>55900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>168700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>17700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>98500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>122000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13100</v>
+        <v>12900</v>
       </c>
       <c r="E101" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
-        <v>900</v>
-      </c>
       <c r="G101" s="3">
+        <v>800</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -6174,43 +6423,46 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18400</v>
+        <v>24300</v>
       </c>
       <c r="E102" s="3">
-        <v>37900</v>
+        <v>18000</v>
       </c>
       <c r="F102" s="3">
-        <v>-2900</v>
+        <v>37200</v>
       </c>
       <c r="G102" s="3">
-        <v>-19600</v>
+        <v>-2800</v>
       </c>
       <c r="H102" s="3">
-        <v>-28900</v>
+        <v>-19200</v>
       </c>
       <c r="I102" s="3">
-        <v>77900</v>
+        <v>-28300</v>
       </c>
       <c r="J102" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-263100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>207500</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>AZRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57300</v>
+        <v>57900</v>
       </c>
       <c r="E8" s="3">
-        <v>58000</v>
+        <v>56700</v>
       </c>
       <c r="F8" s="3">
-        <v>55800</v>
+        <v>57400</v>
       </c>
       <c r="G8" s="3">
-        <v>46000</v>
+        <v>55200</v>
       </c>
       <c r="H8" s="3">
-        <v>97300</v>
+        <v>45500</v>
       </c>
       <c r="I8" s="3">
-        <v>51500</v>
+        <v>96200</v>
       </c>
       <c r="J8" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K8" s="3">
         <v>48000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>83900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>30000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>32000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>25200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>27200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>13100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4500</v>
       </c>
-      <c r="F9" s="3">
-        <v>5000</v>
-      </c>
       <c r="G9" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H9" s="3">
         <v>4000</v>
       </c>
-      <c r="H9" s="3">
-        <v>7500</v>
-      </c>
       <c r="I9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>52700</v>
+        <v>52900</v>
       </c>
       <c r="E10" s="3">
-        <v>53500</v>
+        <v>52100</v>
       </c>
       <c r="F10" s="3">
-        <v>50800</v>
+        <v>52900</v>
       </c>
       <c r="G10" s="3">
-        <v>42000</v>
+        <v>50200</v>
       </c>
       <c r="H10" s="3">
-        <v>89800</v>
+        <v>41500</v>
       </c>
       <c r="I10" s="3">
-        <v>48100</v>
+        <v>88800</v>
       </c>
       <c r="J10" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K10" s="3">
         <v>43700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>76500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>28700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>16400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,31 +1143,34 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>42500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>42100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1159,8 +1178,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1195,76 +1214,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11200</v>
+        <v>12100</v>
       </c>
       <c r="E15" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="F15" s="3">
-        <v>11500</v>
+        <v>10600</v>
       </c>
       <c r="G15" s="3">
-        <v>10400</v>
+        <v>11300</v>
       </c>
       <c r="H15" s="3">
-        <v>20000</v>
+        <v>10300</v>
       </c>
       <c r="I15" s="3">
-        <v>9900</v>
+        <v>19700</v>
       </c>
       <c r="J15" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K15" s="3">
         <v>11100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>17400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>6700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>6100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4300</v>
-      </c>
-      <c r="W15" s="3">
-        <v>3400</v>
       </c>
       <c r="X15" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20600</v>
+        <v>21100</v>
       </c>
       <c r="E17" s="3">
-        <v>21100</v>
+        <v>20300</v>
       </c>
       <c r="F17" s="3">
-        <v>60200</v>
+        <v>20900</v>
       </c>
       <c r="G17" s="3">
-        <v>36000</v>
+        <v>59500</v>
       </c>
       <c r="H17" s="3">
-        <v>43700</v>
+        <v>35600</v>
       </c>
       <c r="I17" s="3">
-        <v>18200</v>
+        <v>43200</v>
       </c>
       <c r="J17" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K17" s="3">
         <v>24500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>36700</v>
+        <v>36800</v>
       </c>
       <c r="E18" s="3">
-        <v>36900</v>
+        <v>36300</v>
       </c>
       <c r="F18" s="3">
-        <v>-4400</v>
+        <v>36500</v>
       </c>
       <c r="G18" s="3">
-        <v>10000</v>
+        <v>-4300</v>
       </c>
       <c r="H18" s="3">
-        <v>53500</v>
+        <v>9900</v>
       </c>
       <c r="I18" s="3">
-        <v>33300</v>
+        <v>52900</v>
       </c>
       <c r="J18" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K18" s="3">
         <v>23500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>44900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>15000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>15200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-29900</v>
+        <v>-33700</v>
       </c>
       <c r="E20" s="3">
-        <v>-29700</v>
+        <v>-29600</v>
       </c>
       <c r="F20" s="3">
-        <v>-29200</v>
+        <v>-29300</v>
       </c>
       <c r="G20" s="3">
-        <v>-26200</v>
+        <v>-28800</v>
       </c>
       <c r="H20" s="3">
-        <v>-54900</v>
+        <v>-25900</v>
       </c>
       <c r="I20" s="3">
-        <v>-28600</v>
+        <v>-54300</v>
       </c>
       <c r="J20" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-27600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-33600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-50500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-22100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-16900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-13100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-34800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-8600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18000</v>
+        <v>15200</v>
       </c>
       <c r="E21" s="3">
-        <v>17900</v>
+        <v>17800</v>
       </c>
       <c r="F21" s="3">
-        <v>-22000</v>
+        <v>17700</v>
       </c>
       <c r="G21" s="3">
-        <v>-5800</v>
+        <v>-21800</v>
       </c>
       <c r="H21" s="3">
-        <v>18600</v>
+        <v>-5700</v>
       </c>
       <c r="I21" s="3">
-        <v>14600</v>
+        <v>18400</v>
       </c>
       <c r="J21" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K21" s="3">
         <v>7000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-19200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1634,8 +1673,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6800</v>
+        <v>3100</v>
       </c>
       <c r="E23" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="F23" s="3">
-        <v>-33500</v>
+        <v>7100</v>
       </c>
       <c r="G23" s="3">
-        <v>-16200</v>
+        <v>-33100</v>
       </c>
       <c r="H23" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-19800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="E24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1900</v>
       </c>
-      <c r="F24" s="3">
-        <v>3000</v>
-      </c>
       <c r="G24" s="3">
-        <v>-2000</v>
+        <v>2900</v>
       </c>
       <c r="H24" s="3">
-        <v>2900</v>
+        <v>-1900</v>
       </c>
       <c r="I24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J24" s="3">
         <v>4100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
-        <v>9100</v>
-      </c>
       <c r="F26" s="3">
-        <v>-36500</v>
+        <v>9000</v>
       </c>
       <c r="G26" s="3">
-        <v>-14200</v>
+        <v>-36100</v>
       </c>
       <c r="H26" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4100</v>
+        <v>-7700</v>
       </c>
       <c r="E27" s="3">
-        <v>9000</v>
+        <v>-4000</v>
       </c>
       <c r="F27" s="3">
-        <v>-36500</v>
+        <v>8900</v>
       </c>
       <c r="G27" s="3">
-        <v>-14200</v>
+        <v>-36100</v>
       </c>
       <c r="H27" s="3">
-        <v>-4300</v>
+        <v>-14000</v>
       </c>
       <c r="I27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,17 +2149,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2107,11 +2167,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>1600</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>29900</v>
+        <v>33700</v>
       </c>
       <c r="E32" s="3">
-        <v>29700</v>
+        <v>29600</v>
       </c>
       <c r="F32" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="G32" s="3">
-        <v>26200</v>
+        <v>28800</v>
       </c>
       <c r="H32" s="3">
-        <v>54900</v>
+        <v>25900</v>
       </c>
       <c r="I32" s="3">
-        <v>28600</v>
+        <v>54300</v>
       </c>
       <c r="J32" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K32" s="3">
         <v>27600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>33600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>50500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>22100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>16900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>13100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>34800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>8600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4100</v>
+        <v>-7700</v>
       </c>
       <c r="E33" s="3">
-        <v>9000</v>
+        <v>-4000</v>
       </c>
       <c r="F33" s="3">
-        <v>-36500</v>
+        <v>8900</v>
       </c>
       <c r="G33" s="3">
-        <v>-14200</v>
+        <v>-36100</v>
       </c>
       <c r="H33" s="3">
-        <v>-4300</v>
+        <v>-14000</v>
       </c>
       <c r="I33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4100</v>
+        <v>-7700</v>
       </c>
       <c r="E35" s="3">
-        <v>9000</v>
+        <v>-4000</v>
       </c>
       <c r="F35" s="3">
-        <v>-36500</v>
+        <v>8900</v>
       </c>
       <c r="G35" s="3">
-        <v>-14200</v>
+        <v>-36100</v>
       </c>
       <c r="H35" s="3">
-        <v>-4300</v>
+        <v>-14000</v>
       </c>
       <c r="I35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,212 +2746,222 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>124300</v>
+        <v>110800</v>
       </c>
       <c r="E41" s="3">
-        <v>88000</v>
+        <v>122900</v>
       </c>
       <c r="F41" s="3">
-        <v>145200</v>
+        <v>87000</v>
       </c>
       <c r="G41" s="3">
-        <v>116500</v>
+        <v>143500</v>
       </c>
       <c r="H41" s="3">
-        <v>102300</v>
+        <v>115200</v>
       </c>
       <c r="I41" s="3">
-        <v>104200</v>
+        <v>101100</v>
       </c>
       <c r="J41" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K41" s="3">
         <v>128000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>82200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>86900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>157500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>142600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>235100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>101700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>101900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>117200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>109500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>223100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>72700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>63600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>81300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>68600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13500</v>
-      </c>
-      <c r="M42" s="3">
-        <v>100</v>
       </c>
       <c r="N42" s="3">
         <v>100</v>
       </c>
       <c r="O42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>43100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>41300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>60200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>30800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>57100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>34800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>74200</v>
+        <v>70800</v>
       </c>
       <c r="E43" s="3">
-        <v>69400</v>
+        <v>73400</v>
       </c>
       <c r="F43" s="3">
-        <v>63900</v>
+        <v>68600</v>
       </c>
       <c r="G43" s="3">
-        <v>59300</v>
+        <v>63100</v>
       </c>
       <c r="H43" s="3">
-        <v>57900</v>
+        <v>58600</v>
       </c>
       <c r="I43" s="3">
-        <v>67100</v>
+        <v>57200</v>
       </c>
       <c r="J43" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K43" s="3">
         <v>58200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>52800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>56900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>33600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>37900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>31200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>27500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>18800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>16600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,144 +3028,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>206200</v>
+        <v>134000</v>
       </c>
       <c r="E45" s="3">
-        <v>213600</v>
+        <v>203900</v>
       </c>
       <c r="F45" s="3">
-        <v>135600</v>
+        <v>211100</v>
       </c>
       <c r="G45" s="3">
-        <v>85900</v>
+        <v>134000</v>
       </c>
       <c r="H45" s="3">
-        <v>98800</v>
+        <v>85000</v>
       </c>
       <c r="I45" s="3">
-        <v>86500</v>
+        <v>97700</v>
       </c>
       <c r="J45" s="3">
+        <v>85500</v>
+      </c>
+      <c r="K45" s="3">
         <v>84900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>313800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>108400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>96900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>74900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>47900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>49400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>68000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>36000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>50500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>56000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>20800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>404800</v>
+        <v>315600</v>
       </c>
       <c r="E46" s="3">
-        <v>371000</v>
+        <v>400200</v>
       </c>
       <c r="F46" s="3">
-        <v>344600</v>
+        <v>366800</v>
       </c>
       <c r="G46" s="3">
-        <v>261700</v>
+        <v>340600</v>
       </c>
       <c r="H46" s="3">
-        <v>259000</v>
+        <v>258700</v>
       </c>
       <c r="I46" s="3">
-        <v>257800</v>
+        <v>256100</v>
       </c>
       <c r="J46" s="3">
+        <v>254900</v>
+      </c>
+      <c r="K46" s="3">
         <v>271100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>254300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>468900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>322900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>235400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>365500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>249800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>229000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>217300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>265300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>172800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>193200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>146200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3095,8 +3199,8 @@
       <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -3104,11 +3208,11 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
@@ -3129,110 +3233,116 @@
         <v>100</v>
       </c>
       <c r="V47" s="3">
+        <v>100</v>
+      </c>
+      <c r="W47" s="3">
         <v>1900</v>
-      </c>
-      <c r="W47" s="3">
-        <v>100</v>
       </c>
       <c r="X47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1631500</v>
+        <v>1760600</v>
       </c>
       <c r="E48" s="3">
-        <v>1556100</v>
+        <v>1612800</v>
       </c>
       <c r="F48" s="3">
-        <v>1477700</v>
+        <v>1538200</v>
       </c>
       <c r="G48" s="3">
-        <v>1486300</v>
+        <v>1460700</v>
       </c>
       <c r="H48" s="3">
-        <v>1409400</v>
+        <v>1469200</v>
       </c>
       <c r="I48" s="3">
-        <v>1346200</v>
+        <v>1393200</v>
       </c>
       <c r="J48" s="3">
+        <v>1330800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1312600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1329700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1318700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1239500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1129000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>948400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>885000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>775300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>794400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>770800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>707700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>666100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>564200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>513200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>391300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
       </c>
       <c r="H49" s="3">
+        <v>400</v>
+      </c>
+      <c r="I49" s="3">
         <v>600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>700</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
       </c>
       <c r="K49" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L49" s="3">
         <v>900</v>
@@ -3244,7 +3354,7 @@
         <v>900</v>
       </c>
       <c r="O49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="P49" s="3">
         <v>600</v>
@@ -3256,25 +3366,28 @@
         <v>600</v>
       </c>
       <c r="S49" s="3">
+        <v>600</v>
+      </c>
+      <c r="T49" s="3">
         <v>400</v>
-      </c>
-      <c r="T49" s="3">
-        <v>300</v>
       </c>
       <c r="U49" s="3">
         <v>300</v>
       </c>
       <c r="V49" s="3">
+        <v>300</v>
+      </c>
+      <c r="W49" s="3">
         <v>1800</v>
-      </c>
-      <c r="W49" s="3">
-        <v>200</v>
       </c>
       <c r="X49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>59100</v>
+        <v>69600</v>
       </c>
       <c r="E52" s="3">
-        <v>137200</v>
+        <v>58500</v>
       </c>
       <c r="F52" s="3">
-        <v>117700</v>
+        <v>135600</v>
       </c>
       <c r="G52" s="3">
-        <v>133200</v>
+        <v>116300</v>
       </c>
       <c r="H52" s="3">
-        <v>130200</v>
+        <v>131700</v>
       </c>
       <c r="I52" s="3">
-        <v>153500</v>
+        <v>128700</v>
       </c>
       <c r="J52" s="3">
+        <v>151700</v>
+      </c>
+      <c r="K52" s="3">
         <v>146000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>116100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>114900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>104600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>107600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>86700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>93100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>59700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>34300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>34600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>31200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>30700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2095900</v>
+        <v>2146100</v>
       </c>
       <c r="E54" s="3">
-        <v>2064700</v>
+        <v>2071800</v>
       </c>
       <c r="F54" s="3">
-        <v>1940400</v>
+        <v>2041000</v>
       </c>
       <c r="G54" s="3">
-        <v>1881800</v>
+        <v>1918200</v>
       </c>
       <c r="H54" s="3">
-        <v>1799300</v>
+        <v>1860200</v>
       </c>
       <c r="I54" s="3">
-        <v>1758300</v>
+        <v>1778600</v>
       </c>
       <c r="J54" s="3">
+        <v>1738200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1730500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1700900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1903500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1667900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1472900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1401300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1228500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1064600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1038700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1057400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1042600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>873800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>792300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>690400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>557500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>72900</v>
+        <v>90700</v>
       </c>
       <c r="E57" s="3">
-        <v>53900</v>
+        <v>72100</v>
       </c>
       <c r="F57" s="3">
-        <v>56100</v>
+        <v>53300</v>
       </c>
       <c r="G57" s="3">
-        <v>25800</v>
+        <v>55500</v>
       </c>
       <c r="H57" s="3">
-        <v>23100</v>
+        <v>25500</v>
       </c>
       <c r="I57" s="3">
-        <v>32300</v>
+        <v>22800</v>
       </c>
       <c r="J57" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K57" s="3">
         <v>23500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>80600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>22100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>21400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>30900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>43900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>58100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>49900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>41700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>370900</v>
+        <v>356200</v>
       </c>
       <c r="E58" s="3">
-        <v>315700</v>
+        <v>366700</v>
       </c>
       <c r="F58" s="3">
-        <v>177800</v>
+        <v>312000</v>
       </c>
       <c r="G58" s="3">
-        <v>133300</v>
+        <v>175700</v>
       </c>
       <c r="H58" s="3">
-        <v>76700</v>
+        <v>131800</v>
       </c>
       <c r="I58" s="3">
-        <v>28300</v>
+        <v>75900</v>
       </c>
       <c r="J58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K58" s="3">
         <v>42800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>53000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>284500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>206400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>136800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>85300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>67200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>19300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>27400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>60700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>55300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>23400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71700</v>
+        <v>70300</v>
       </c>
       <c r="E59" s="3">
-        <v>59400</v>
+        <v>70900</v>
       </c>
       <c r="F59" s="3">
+        <v>58700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>79700</v>
+      </c>
+      <c r="H59" s="3">
         <v>80600</v>
       </c>
-      <c r="G59" s="3">
-        <v>81500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>72300</v>
-      </c>
       <c r="I59" s="3">
-        <v>47800</v>
+        <v>71500</v>
       </c>
       <c r="J59" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K59" s="3">
         <v>54300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>26900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>515500</v>
+        <v>517200</v>
       </c>
       <c r="E60" s="3">
-        <v>428900</v>
+        <v>509600</v>
       </c>
       <c r="F60" s="3">
-        <v>314500</v>
+        <v>424000</v>
       </c>
       <c r="G60" s="3">
-        <v>240600</v>
+        <v>310900</v>
       </c>
       <c r="H60" s="3">
-        <v>172200</v>
+        <v>237900</v>
       </c>
       <c r="I60" s="3">
-        <v>108400</v>
+        <v>170200</v>
       </c>
       <c r="J60" s="3">
+        <v>107200</v>
+      </c>
+      <c r="K60" s="3">
         <v>120600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>114400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>349100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>272900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>230100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>136800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>172400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>60100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>72300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>72800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>88300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>132000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>118800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>79300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1136200</v>
+        <v>1190200</v>
       </c>
       <c r="E61" s="3">
-        <v>1180900</v>
+        <v>1123100</v>
       </c>
       <c r="F61" s="3">
-        <v>1175300</v>
+        <v>1167300</v>
       </c>
       <c r="G61" s="3">
-        <v>1146200</v>
+        <v>1161800</v>
       </c>
       <c r="H61" s="3">
-        <v>1136700</v>
+        <v>1133100</v>
       </c>
       <c r="I61" s="3">
-        <v>1169600</v>
+        <v>1123600</v>
       </c>
       <c r="J61" s="3">
+        <v>1156200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1131700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1087200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1106000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>934300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>834200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>861400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>849200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>784500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>733400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>748900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>721300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>482400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>429100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>371000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>303100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>126300</v>
+        <v>131500</v>
       </c>
       <c r="E62" s="3">
-        <v>129100</v>
+        <v>124900</v>
       </c>
       <c r="F62" s="3">
-        <v>131100</v>
+        <v>127600</v>
       </c>
       <c r="G62" s="3">
-        <v>139300</v>
+        <v>129600</v>
       </c>
       <c r="H62" s="3">
-        <v>127200</v>
+        <v>137700</v>
       </c>
       <c r="I62" s="3">
-        <v>118700</v>
+        <v>125800</v>
       </c>
       <c r="J62" s="3">
+        <v>117300</v>
+      </c>
+      <c r="K62" s="3">
         <v>122500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>113900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>110700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>105500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>65000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>48300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>43800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>38800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>35000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1780900</v>
+        <v>1841600</v>
       </c>
       <c r="E66" s="3">
-        <v>1741600</v>
+        <v>1760500</v>
       </c>
       <c r="F66" s="3">
-        <v>1623500</v>
+        <v>1721700</v>
       </c>
       <c r="G66" s="3">
-        <v>1528800</v>
+        <v>1604900</v>
       </c>
       <c r="H66" s="3">
-        <v>1438700</v>
+        <v>1511200</v>
       </c>
       <c r="I66" s="3">
-        <v>1399400</v>
+        <v>1422200</v>
       </c>
       <c r="J66" s="3">
+        <v>1383400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1377400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1318500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1569100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1316300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1132900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1062100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1083800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>903000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>868600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>882200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>869000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>681400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>610100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>503400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>507900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,10 +4740,13 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-162200</v>
+        <v>-168000</v>
       </c>
       <c r="E72" s="3">
-        <v>-158100</v>
+        <v>-160300</v>
       </c>
       <c r="F72" s="3">
-        <v>-167100</v>
+        <v>-156300</v>
       </c>
       <c r="G72" s="3">
-        <v>-130600</v>
+        <v>-165200</v>
       </c>
       <c r="H72" s="3">
-        <v>-116400</v>
+        <v>-129100</v>
       </c>
       <c r="I72" s="3">
-        <v>-111600</v>
+        <v>-115100</v>
       </c>
       <c r="J72" s="3">
+        <v>-110300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-112100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-92400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-85400</v>
       </c>
       <c r="N72" s="3">
         <v>-85400</v>
       </c>
       <c r="O72" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="P72" s="3">
         <v>-87800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-89700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-84200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-92600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-97400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-95800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-81800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-78900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-74400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>315000</v>
+        <v>304500</v>
       </c>
       <c r="E76" s="3">
-        <v>323100</v>
+        <v>311300</v>
       </c>
       <c r="F76" s="3">
-        <v>316900</v>
+        <v>319400</v>
       </c>
       <c r="G76" s="3">
-        <v>353000</v>
+        <v>313300</v>
       </c>
       <c r="H76" s="3">
-        <v>360500</v>
+        <v>348900</v>
       </c>
       <c r="I76" s="3">
-        <v>358900</v>
+        <v>356400</v>
       </c>
       <c r="J76" s="3">
+        <v>354800</v>
+      </c>
+      <c r="K76" s="3">
         <v>353100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>382400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>334400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>351600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>340000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>339200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>144700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>161600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>170100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>175200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>173600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>192500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>182200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>186900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-110200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4100</v>
+        <v>-7700</v>
       </c>
       <c r="E81" s="3">
-        <v>9000</v>
+        <v>-4000</v>
       </c>
       <c r="F81" s="3">
-        <v>-36500</v>
+        <v>8900</v>
       </c>
       <c r="G81" s="3">
-        <v>-14200</v>
+        <v>-36100</v>
       </c>
       <c r="H81" s="3">
-        <v>-4300</v>
+        <v>-14000</v>
       </c>
       <c r="I81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,46 +5415,47 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11200</v>
+        <v>12100</v>
       </c>
       <c r="E83" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="F83" s="3">
-        <v>11500</v>
+        <v>10600</v>
       </c>
       <c r="G83" s="3">
-        <v>10400</v>
+        <v>11300</v>
       </c>
       <c r="H83" s="3">
-        <v>20000</v>
+        <v>10300</v>
       </c>
       <c r="I83" s="3">
-        <v>9900</v>
+        <v>19700</v>
       </c>
       <c r="J83" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K83" s="3">
         <v>11100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17400</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12200</v>
+        <v>19800</v>
       </c>
       <c r="E89" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="F89" s="3">
-        <v>27600</v>
+        <v>11900</v>
       </c>
       <c r="G89" s="3">
-        <v>5700</v>
+        <v>27300</v>
       </c>
       <c r="H89" s="3">
-        <v>31800</v>
+        <v>5600</v>
       </c>
       <c r="I89" s="3">
+        <v>31400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-7300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>20100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,46 +5939,47 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-58600</v>
+        <v>-141100</v>
       </c>
       <c r="E91" s="3">
-        <v>-99400</v>
+        <v>-58000</v>
       </c>
       <c r="F91" s="3">
-        <v>-79100</v>
+        <v>-98300</v>
       </c>
       <c r="G91" s="3">
-        <v>-74400</v>
+        <v>-78200</v>
       </c>
       <c r="H91" s="3">
-        <v>-93700</v>
+        <v>-73500</v>
       </c>
       <c r="I91" s="3">
-        <v>-24200</v>
+        <v>-92600</v>
       </c>
       <c r="J91" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-19800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-193000</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-58600</v>
+        <v>-140200</v>
       </c>
       <c r="E94" s="3">
-        <v>-97700</v>
+        <v>-57900</v>
       </c>
       <c r="F94" s="3">
-        <v>-79200</v>
+        <v>-96600</v>
       </c>
       <c r="G94" s="3">
-        <v>-74400</v>
+        <v>-78200</v>
       </c>
       <c r="H94" s="3">
-        <v>-93800</v>
+        <v>-73500</v>
       </c>
       <c r="I94" s="3">
-        <v>-24300</v>
+        <v>-92700</v>
       </c>
       <c r="J94" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="K94" s="3">
         <v>48100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-87900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-206400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-77900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-174800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-75000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-45200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-55500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-194500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-101200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-125500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-60400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,114 +6532,120 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>57800</v>
+        <v>48500</v>
       </c>
       <c r="E100" s="3">
-        <v>116500</v>
+        <v>57100</v>
       </c>
       <c r="F100" s="3">
-        <v>88400</v>
+        <v>115200</v>
       </c>
       <c r="G100" s="3">
-        <v>65000</v>
+        <v>87400</v>
       </c>
       <c r="H100" s="3">
-        <v>43900</v>
+        <v>64300</v>
       </c>
       <c r="I100" s="3">
+        <v>43400</v>
+      </c>
+      <c r="J100" s="3">
         <v>3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-184700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>147600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>24000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>224400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>56600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>56200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>55900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>168700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>17700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>98500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>122000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12900</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-12800</v>
+        <v>12700</v>
       </c>
       <c r="F101" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -6426,46 +6674,49 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24300</v>
+        <v>-71900</v>
       </c>
       <c r="E102" s="3">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="F102" s="3">
-        <v>37200</v>
+        <v>17800</v>
       </c>
       <c r="G102" s="3">
+        <v>36700</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
-        <v>-19200</v>
-      </c>
       <c r="I102" s="3">
-        <v>-28300</v>
+        <v>-19000</v>
       </c>
       <c r="J102" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="K102" s="3">
         <v>76400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-263100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>207500</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57900</v>
+        <v>56100</v>
       </c>
       <c r="E8" s="3">
-        <v>56700</v>
+        <v>54900</v>
       </c>
       <c r="F8" s="3">
-        <v>57400</v>
+        <v>55600</v>
       </c>
       <c r="G8" s="3">
-        <v>55200</v>
+        <v>53500</v>
       </c>
       <c r="H8" s="3">
-        <v>45500</v>
+        <v>44100</v>
       </c>
       <c r="I8" s="3">
-        <v>96200</v>
+        <v>93200</v>
       </c>
       <c r="J8" s="3">
-        <v>50900</v>
+        <v>49300</v>
       </c>
       <c r="K8" s="3">
         <v>48000</v>
@@ -841,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="E9" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="F9" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="G9" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="H9" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I9" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="J9" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K9" s="3">
         <v>4300</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>52900</v>
+        <v>51200</v>
       </c>
       <c r="E10" s="3">
-        <v>52100</v>
+        <v>50500</v>
       </c>
       <c r="F10" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="G10" s="3">
-        <v>50200</v>
+        <v>48700</v>
       </c>
       <c r="H10" s="3">
-        <v>41500</v>
+        <v>40300</v>
       </c>
       <c r="I10" s="3">
-        <v>88800</v>
+        <v>86000</v>
       </c>
       <c r="J10" s="3">
-        <v>47500</v>
+        <v>46000</v>
       </c>
       <c r="K10" s="3">
         <v>43700</v>
@@ -1152,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -1161,7 +1161,7 @@
         <v>300</v>
       </c>
       <c r="G14" s="3">
-        <v>42100</v>
+        <v>40800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1223,25 +1223,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="E15" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="F15" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="G15" s="3">
-        <v>11300</v>
+        <v>11000</v>
       </c>
       <c r="H15" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="I15" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="J15" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="K15" s="3">
         <v>11100</v>
@@ -1318,25 +1318,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21100</v>
+        <v>20400</v>
       </c>
       <c r="E17" s="3">
-        <v>20300</v>
+        <v>19700</v>
       </c>
       <c r="F17" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="G17" s="3">
-        <v>59500</v>
+        <v>57700</v>
       </c>
       <c r="H17" s="3">
-        <v>35600</v>
+        <v>34500</v>
       </c>
       <c r="I17" s="3">
-        <v>43200</v>
+        <v>41900</v>
       </c>
       <c r="J17" s="3">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="K17" s="3">
         <v>24500</v>
@@ -1389,25 +1389,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>36800</v>
+        <v>35700</v>
       </c>
       <c r="E18" s="3">
-        <v>36300</v>
+        <v>35200</v>
       </c>
       <c r="F18" s="3">
-        <v>36500</v>
+        <v>35300</v>
       </c>
       <c r="G18" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="H18" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="I18" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="J18" s="3">
-        <v>32900</v>
+        <v>31900</v>
       </c>
       <c r="K18" s="3">
         <v>23500</v>
@@ -1487,25 +1487,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-33700</v>
+        <v>-32700</v>
       </c>
       <c r="E20" s="3">
-        <v>-29600</v>
+        <v>-28700</v>
       </c>
       <c r="F20" s="3">
-        <v>-29300</v>
+        <v>-28400</v>
       </c>
       <c r="G20" s="3">
-        <v>-28800</v>
+        <v>-27900</v>
       </c>
       <c r="H20" s="3">
-        <v>-25900</v>
+        <v>-25100</v>
       </c>
       <c r="I20" s="3">
-        <v>-54300</v>
+        <v>-52600</v>
       </c>
       <c r="J20" s="3">
-        <v>-28200</v>
+        <v>-27400</v>
       </c>
       <c r="K20" s="3">
         <v>-27600</v>
@@ -1558,25 +1558,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="E21" s="3">
-        <v>17800</v>
+        <v>17300</v>
       </c>
       <c r="F21" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="G21" s="3">
-        <v>-21800</v>
+        <v>-21100</v>
       </c>
       <c r="H21" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="I21" s="3">
-        <v>18400</v>
+        <v>17900</v>
       </c>
       <c r="J21" s="3">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="K21" s="3">
         <v>7000</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E23" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="F23" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="G23" s="3">
-        <v>-33100</v>
+        <v>-32100</v>
       </c>
       <c r="H23" s="3">
-        <v>-16000</v>
+        <v>-15500</v>
       </c>
       <c r="I23" s="3">
         <v>-1300</v>
       </c>
       <c r="J23" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="K23" s="3">
         <v>-4100</v>
@@ -1771,16 +1771,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="E24" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="F24" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G24" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H24" s="3">
         <v>-1900</v>
@@ -1789,7 +1789,7 @@
         <v>2800</v>
       </c>
       <c r="J24" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K24" s="3">
         <v>1100</v>
@@ -1913,22 +1913,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="E26" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="F26" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="G26" s="3">
-        <v>-36100</v>
+        <v>-34900</v>
       </c>
       <c r="H26" s="3">
-        <v>-14100</v>
+        <v>-13600</v>
       </c>
       <c r="I26" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="J26" s="3">
         <v>600</v>
@@ -1984,22 +1984,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="E27" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="F27" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="G27" s="3">
-        <v>-36100</v>
+        <v>-35000</v>
       </c>
       <c r="H27" s="3">
-        <v>-14000</v>
+        <v>-13600</v>
       </c>
       <c r="I27" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="J27" s="3">
         <v>500</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33700</v>
+        <v>32700</v>
       </c>
       <c r="E32" s="3">
-        <v>29600</v>
+        <v>28700</v>
       </c>
       <c r="F32" s="3">
-        <v>29300</v>
+        <v>28400</v>
       </c>
       <c r="G32" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="H32" s="3">
-        <v>25900</v>
+        <v>25100</v>
       </c>
       <c r="I32" s="3">
-        <v>54300</v>
+        <v>52600</v>
       </c>
       <c r="J32" s="3">
-        <v>28200</v>
+        <v>27400</v>
       </c>
       <c r="K32" s="3">
         <v>27600</v>
@@ -2410,22 +2410,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="E33" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="F33" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="G33" s="3">
-        <v>-36100</v>
+        <v>-35000</v>
       </c>
       <c r="H33" s="3">
-        <v>-14000</v>
+        <v>-13600</v>
       </c>
       <c r="I33" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="J33" s="3">
         <v>500</v>
@@ -2552,22 +2552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="E35" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="F35" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="G35" s="3">
-        <v>-36100</v>
+        <v>-35000</v>
       </c>
       <c r="H35" s="3">
-        <v>-14000</v>
+        <v>-13600</v>
       </c>
       <c r="I35" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="J35" s="3">
         <v>500</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>110800</v>
+        <v>107400</v>
       </c>
       <c r="E41" s="3">
-        <v>122900</v>
+        <v>119100</v>
       </c>
       <c r="F41" s="3">
-        <v>87000</v>
+        <v>84300</v>
       </c>
       <c r="G41" s="3">
-        <v>143500</v>
+        <v>139100</v>
       </c>
       <c r="H41" s="3">
-        <v>115200</v>
+        <v>111600</v>
       </c>
       <c r="I41" s="3">
-        <v>101100</v>
+        <v>98000</v>
       </c>
       <c r="J41" s="3">
-        <v>103000</v>
+        <v>99800</v>
       </c>
       <c r="K41" s="3">
         <v>128000</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>70800</v>
+        <v>68600</v>
       </c>
       <c r="E43" s="3">
-        <v>73400</v>
+        <v>71100</v>
       </c>
       <c r="F43" s="3">
-        <v>68600</v>
+        <v>66500</v>
       </c>
       <c r="G43" s="3">
-        <v>63100</v>
+        <v>61200</v>
       </c>
       <c r="H43" s="3">
-        <v>58600</v>
+        <v>56800</v>
       </c>
       <c r="I43" s="3">
-        <v>57200</v>
+        <v>55500</v>
       </c>
       <c r="J43" s="3">
-        <v>66400</v>
+        <v>64300</v>
       </c>
       <c r="K43" s="3">
         <v>58200</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>134000</v>
+        <v>129900</v>
       </c>
       <c r="E45" s="3">
-        <v>203900</v>
+        <v>197600</v>
       </c>
       <c r="F45" s="3">
-        <v>211100</v>
+        <v>204600</v>
       </c>
       <c r="G45" s="3">
-        <v>134000</v>
+        <v>129900</v>
       </c>
       <c r="H45" s="3">
-        <v>85000</v>
+        <v>82300</v>
       </c>
       <c r="I45" s="3">
-        <v>97700</v>
+        <v>94700</v>
       </c>
       <c r="J45" s="3">
-        <v>85500</v>
+        <v>82900</v>
       </c>
       <c r="K45" s="3">
         <v>84900</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>315600</v>
+        <v>305900</v>
       </c>
       <c r="E46" s="3">
-        <v>400200</v>
+        <v>387800</v>
       </c>
       <c r="F46" s="3">
-        <v>366800</v>
+        <v>355400</v>
       </c>
       <c r="G46" s="3">
-        <v>340600</v>
+        <v>330100</v>
       </c>
       <c r="H46" s="3">
-        <v>258700</v>
+        <v>250700</v>
       </c>
       <c r="I46" s="3">
-        <v>256100</v>
+        <v>248100</v>
       </c>
       <c r="J46" s="3">
-        <v>254900</v>
+        <v>247000</v>
       </c>
       <c r="K46" s="3">
         <v>271100</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1760600</v>
+        <v>1706100</v>
       </c>
       <c r="E48" s="3">
-        <v>1612800</v>
+        <v>1562900</v>
       </c>
       <c r="F48" s="3">
-        <v>1538200</v>
+        <v>1490600</v>
       </c>
       <c r="G48" s="3">
-        <v>1460700</v>
+        <v>1415500</v>
       </c>
       <c r="H48" s="3">
-        <v>1469200</v>
+        <v>1423700</v>
       </c>
       <c r="I48" s="3">
-        <v>1393200</v>
+        <v>1350000</v>
       </c>
       <c r="J48" s="3">
-        <v>1330800</v>
+        <v>1289600</v>
       </c>
       <c r="K48" s="3">
         <v>1312600</v>
@@ -3336,7 +3336,7 @@
         <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69600</v>
+        <v>67500</v>
       </c>
       <c r="E52" s="3">
-        <v>58500</v>
+        <v>56700</v>
       </c>
       <c r="F52" s="3">
-        <v>135600</v>
+        <v>131400</v>
       </c>
       <c r="G52" s="3">
-        <v>116300</v>
+        <v>112700</v>
       </c>
       <c r="H52" s="3">
-        <v>131700</v>
+        <v>127600</v>
       </c>
       <c r="I52" s="3">
-        <v>128700</v>
+        <v>124800</v>
       </c>
       <c r="J52" s="3">
-        <v>151700</v>
+        <v>147000</v>
       </c>
       <c r="K52" s="3">
         <v>146000</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2146100</v>
+        <v>2079600</v>
       </c>
       <c r="E54" s="3">
-        <v>2071800</v>
+        <v>2007700</v>
       </c>
       <c r="F54" s="3">
-        <v>2041000</v>
+        <v>1977800</v>
       </c>
       <c r="G54" s="3">
-        <v>1918200</v>
+        <v>1858800</v>
       </c>
       <c r="H54" s="3">
-        <v>1860200</v>
+        <v>1802600</v>
       </c>
       <c r="I54" s="3">
-        <v>1778600</v>
+        <v>1723600</v>
       </c>
       <c r="J54" s="3">
-        <v>1738200</v>
+        <v>1684300</v>
       </c>
       <c r="K54" s="3">
         <v>1730500</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>90700</v>
+        <v>87900</v>
       </c>
       <c r="E57" s="3">
-        <v>72100</v>
+        <v>69800</v>
       </c>
       <c r="F57" s="3">
-        <v>53300</v>
+        <v>51700</v>
       </c>
       <c r="G57" s="3">
-        <v>55500</v>
+        <v>53800</v>
       </c>
       <c r="H57" s="3">
-        <v>25500</v>
+        <v>24700</v>
       </c>
       <c r="I57" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="J57" s="3">
-        <v>31900</v>
+        <v>30900</v>
       </c>
       <c r="K57" s="3">
         <v>23500</v>
@@ -3872,25 +3872,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>356200</v>
+        <v>345200</v>
       </c>
       <c r="E58" s="3">
-        <v>366700</v>
+        <v>355300</v>
       </c>
       <c r="F58" s="3">
-        <v>312000</v>
+        <v>302400</v>
       </c>
       <c r="G58" s="3">
-        <v>175700</v>
+        <v>170300</v>
       </c>
       <c r="H58" s="3">
-        <v>131800</v>
+        <v>127700</v>
       </c>
       <c r="I58" s="3">
-        <v>75900</v>
+        <v>73500</v>
       </c>
       <c r="J58" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="K58" s="3">
         <v>42800</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>70300</v>
+        <v>68100</v>
       </c>
       <c r="E59" s="3">
-        <v>70900</v>
+        <v>68700</v>
       </c>
       <c r="F59" s="3">
-        <v>58700</v>
+        <v>56900</v>
       </c>
       <c r="G59" s="3">
-        <v>79700</v>
+        <v>77200</v>
       </c>
       <c r="H59" s="3">
-        <v>80600</v>
+        <v>78100</v>
       </c>
       <c r="I59" s="3">
-        <v>71500</v>
+        <v>69300</v>
       </c>
       <c r="J59" s="3">
-        <v>47300</v>
+        <v>45800</v>
       </c>
       <c r="K59" s="3">
         <v>54300</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>517200</v>
+        <v>501200</v>
       </c>
       <c r="E60" s="3">
-        <v>509600</v>
+        <v>493800</v>
       </c>
       <c r="F60" s="3">
-        <v>424000</v>
+        <v>410900</v>
       </c>
       <c r="G60" s="3">
-        <v>310900</v>
+        <v>301300</v>
       </c>
       <c r="H60" s="3">
-        <v>237900</v>
+        <v>230500</v>
       </c>
       <c r="I60" s="3">
-        <v>170200</v>
+        <v>164900</v>
       </c>
       <c r="J60" s="3">
-        <v>107200</v>
+        <v>103900</v>
       </c>
       <c r="K60" s="3">
         <v>120600</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1190200</v>
+        <v>1153400</v>
       </c>
       <c r="E61" s="3">
-        <v>1123100</v>
+        <v>1088400</v>
       </c>
       <c r="F61" s="3">
-        <v>1167300</v>
+        <v>1131200</v>
       </c>
       <c r="G61" s="3">
-        <v>1161800</v>
+        <v>1125800</v>
       </c>
       <c r="H61" s="3">
-        <v>1133100</v>
+        <v>1098000</v>
       </c>
       <c r="I61" s="3">
-        <v>1123600</v>
+        <v>1088800</v>
       </c>
       <c r="J61" s="3">
-        <v>1156200</v>
+        <v>1120400</v>
       </c>
       <c r="K61" s="3">
         <v>1131700</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>131500</v>
+        <v>127400</v>
       </c>
       <c r="E62" s="3">
-        <v>124900</v>
+        <v>121000</v>
       </c>
       <c r="F62" s="3">
-        <v>127600</v>
+        <v>123600</v>
       </c>
       <c r="G62" s="3">
-        <v>129600</v>
+        <v>125600</v>
       </c>
       <c r="H62" s="3">
-        <v>137700</v>
+        <v>133400</v>
       </c>
       <c r="I62" s="3">
-        <v>125800</v>
+        <v>121900</v>
       </c>
       <c r="J62" s="3">
-        <v>117300</v>
+        <v>113700</v>
       </c>
       <c r="K62" s="3">
         <v>122500</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1841600</v>
+        <v>1784600</v>
       </c>
       <c r="E66" s="3">
-        <v>1760500</v>
+        <v>1706000</v>
       </c>
       <c r="F66" s="3">
-        <v>1721700</v>
+        <v>1668400</v>
       </c>
       <c r="G66" s="3">
-        <v>1604900</v>
+        <v>1555200</v>
       </c>
       <c r="H66" s="3">
-        <v>1511200</v>
+        <v>1464500</v>
       </c>
       <c r="I66" s="3">
-        <v>1422200</v>
+        <v>1378200</v>
       </c>
       <c r="J66" s="3">
-        <v>1383400</v>
+        <v>1340500</v>
       </c>
       <c r="K66" s="3">
         <v>1377400</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-168000</v>
+        <v>-162800</v>
       </c>
       <c r="E72" s="3">
-        <v>-160300</v>
+        <v>-155300</v>
       </c>
       <c r="F72" s="3">
-        <v>-156300</v>
+        <v>-151400</v>
       </c>
       <c r="G72" s="3">
-        <v>-165200</v>
+        <v>-160100</v>
       </c>
       <c r="H72" s="3">
-        <v>-129100</v>
+        <v>-125100</v>
       </c>
       <c r="I72" s="3">
-        <v>-115100</v>
+        <v>-111500</v>
       </c>
       <c r="J72" s="3">
-        <v>-110300</v>
+        <v>-106900</v>
       </c>
       <c r="K72" s="3">
         <v>-112100</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>304500</v>
+        <v>295100</v>
       </c>
       <c r="E76" s="3">
-        <v>311300</v>
+        <v>301700</v>
       </c>
       <c r="F76" s="3">
-        <v>319400</v>
+        <v>309500</v>
       </c>
       <c r="G76" s="3">
-        <v>313300</v>
+        <v>303600</v>
       </c>
       <c r="H76" s="3">
-        <v>348900</v>
+        <v>338100</v>
       </c>
       <c r="I76" s="3">
-        <v>356400</v>
+        <v>345400</v>
       </c>
       <c r="J76" s="3">
-        <v>354800</v>
+        <v>343800</v>
       </c>
       <c r="K76" s="3">
         <v>353100</v>
@@ -5324,22 +5324,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="E81" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="F81" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="G81" s="3">
-        <v>-36100</v>
+        <v>-35000</v>
       </c>
       <c r="H81" s="3">
-        <v>-14000</v>
+        <v>-13600</v>
       </c>
       <c r="I81" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="J81" s="3">
         <v>500</v>
@@ -5422,25 +5422,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="E83" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="F83" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="G83" s="3">
-        <v>11300</v>
+        <v>11000</v>
       </c>
       <c r="H83" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="I83" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="J83" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="K83" s="3">
         <v>11100</v>
@@ -5848,25 +5848,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19800</v>
+        <v>19200</v>
       </c>
       <c r="E89" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="F89" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="G89" s="3">
-        <v>27300</v>
+        <v>26400</v>
       </c>
       <c r="H89" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="I89" s="3">
-        <v>31400</v>
+        <v>30400</v>
       </c>
       <c r="J89" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="K89" s="3">
         <v>24000</v>
@@ -5946,25 +5946,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-141100</v>
+        <v>-136700</v>
       </c>
       <c r="E91" s="3">
-        <v>-58000</v>
+        <v>-56200</v>
       </c>
       <c r="F91" s="3">
-        <v>-98300</v>
+        <v>-95200</v>
       </c>
       <c r="G91" s="3">
-        <v>-78200</v>
+        <v>-75800</v>
       </c>
       <c r="H91" s="3">
-        <v>-73500</v>
+        <v>-71200</v>
       </c>
       <c r="I91" s="3">
-        <v>-92600</v>
+        <v>-89700</v>
       </c>
       <c r="J91" s="3">
-        <v>-23900</v>
+        <v>-23200</v>
       </c>
       <c r="K91" s="3">
         <v>-19800</v>
@@ -6159,25 +6159,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-140200</v>
+        <v>-135900</v>
       </c>
       <c r="E94" s="3">
-        <v>-57900</v>
+        <v>-56100</v>
       </c>
       <c r="F94" s="3">
-        <v>-96600</v>
+        <v>-93600</v>
       </c>
       <c r="G94" s="3">
-        <v>-78200</v>
+        <v>-75800</v>
       </c>
       <c r="H94" s="3">
-        <v>-73500</v>
+        <v>-71200</v>
       </c>
       <c r="I94" s="3">
-        <v>-92700</v>
+        <v>-89800</v>
       </c>
       <c r="J94" s="3">
-        <v>-24000</v>
+        <v>-23300</v>
       </c>
       <c r="K94" s="3">
         <v>48100</v>
@@ -6541,25 +6541,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>48500</v>
+        <v>47000</v>
       </c>
       <c r="E100" s="3">
-        <v>57100</v>
+        <v>55400</v>
       </c>
       <c r="F100" s="3">
-        <v>115200</v>
+        <v>111600</v>
       </c>
       <c r="G100" s="3">
-        <v>87400</v>
+        <v>84700</v>
       </c>
       <c r="H100" s="3">
-        <v>64300</v>
+        <v>62300</v>
       </c>
       <c r="I100" s="3">
-        <v>43400</v>
+        <v>42000</v>
       </c>
       <c r="J100" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K100" s="3">
         <v>3100</v>
@@ -6615,10 +6615,10 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="F101" s="3">
-        <v>-12600</v>
+        <v>-12300</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
@@ -6627,7 +6627,7 @@
         <v>800</v>
       </c>
       <c r="I101" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J101" s="3">
         <v>-200</v>
@@ -6683,25 +6683,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-71900</v>
+        <v>-69700</v>
       </c>
       <c r="E102" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="F102" s="3">
-        <v>17800</v>
+        <v>17300</v>
       </c>
       <c r="G102" s="3">
-        <v>36700</v>
+        <v>35600</v>
       </c>
       <c r="H102" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="I102" s="3">
-        <v>-19000</v>
+        <v>-18400</v>
       </c>
       <c r="J102" s="3">
-        <v>-28000</v>
+        <v>-27200</v>
       </c>
       <c r="K102" s="3">
         <v>76400</v>

--- a/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>56100</v>
+        <v>55600</v>
       </c>
       <c r="E8" s="3">
-        <v>54900</v>
+        <v>54400</v>
       </c>
       <c r="F8" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="G8" s="3">
-        <v>53500</v>
+        <v>53000</v>
       </c>
       <c r="H8" s="3">
-        <v>44100</v>
+        <v>43700</v>
       </c>
       <c r="I8" s="3">
-        <v>93200</v>
+        <v>92300</v>
       </c>
       <c r="J8" s="3">
-        <v>49300</v>
+        <v>48900</v>
       </c>
       <c r="K8" s="3">
         <v>48000</v>
@@ -841,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E9" s="3">
         <v>4400</v>
@@ -850,13 +850,13 @@
         <v>4300</v>
       </c>
       <c r="G9" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H9" s="3">
         <v>3800</v>
       </c>
       <c r="I9" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="J9" s="3">
         <v>3300</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>51200</v>
+        <v>50700</v>
       </c>
       <c r="E10" s="3">
-        <v>50500</v>
+        <v>50000</v>
       </c>
       <c r="F10" s="3">
-        <v>51300</v>
+        <v>50800</v>
       </c>
       <c r="G10" s="3">
-        <v>48700</v>
+        <v>48200</v>
       </c>
       <c r="H10" s="3">
-        <v>40300</v>
+        <v>39900</v>
       </c>
       <c r="I10" s="3">
-        <v>86000</v>
+        <v>85200</v>
       </c>
       <c r="J10" s="3">
-        <v>46000</v>
+        <v>45600</v>
       </c>
       <c r="K10" s="3">
         <v>43700</v>
@@ -1161,7 +1161,7 @@
         <v>300</v>
       </c>
       <c r="G14" s="3">
-        <v>40800</v>
+        <v>40400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1223,25 +1223,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="E15" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="F15" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="G15" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="H15" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="I15" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="J15" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="K15" s="3">
         <v>11100</v>
@@ -1318,25 +1318,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20400</v>
+        <v>20200</v>
       </c>
       <c r="E17" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="F17" s="3">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="G17" s="3">
-        <v>57700</v>
+        <v>57100</v>
       </c>
       <c r="H17" s="3">
-        <v>34500</v>
+        <v>34100</v>
       </c>
       <c r="I17" s="3">
-        <v>41900</v>
+        <v>41500</v>
       </c>
       <c r="J17" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="K17" s="3">
         <v>24500</v>
@@ -1389,25 +1389,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>35700</v>
+        <v>35300</v>
       </c>
       <c r="E18" s="3">
-        <v>35200</v>
+        <v>34900</v>
       </c>
       <c r="F18" s="3">
-        <v>35300</v>
+        <v>35000</v>
       </c>
       <c r="G18" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="H18" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="I18" s="3">
-        <v>51300</v>
+        <v>50800</v>
       </c>
       <c r="J18" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="K18" s="3">
         <v>23500</v>
@@ -1487,25 +1487,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-32700</v>
+        <v>-32400</v>
       </c>
       <c r="E20" s="3">
-        <v>-28700</v>
+        <v>-28400</v>
       </c>
       <c r="F20" s="3">
-        <v>-28400</v>
+        <v>-28100</v>
       </c>
       <c r="G20" s="3">
-        <v>-27900</v>
+        <v>-27700</v>
       </c>
       <c r="H20" s="3">
-        <v>-25100</v>
+        <v>-24900</v>
       </c>
       <c r="I20" s="3">
-        <v>-52600</v>
+        <v>-52100</v>
       </c>
       <c r="J20" s="3">
-        <v>-27400</v>
+        <v>-27100</v>
       </c>
       <c r="K20" s="3">
         <v>-27600</v>
@@ -1558,25 +1558,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="E21" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="F21" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="G21" s="3">
-        <v>-21100</v>
+        <v>-20900</v>
       </c>
       <c r="H21" s="3">
         <v>-5500</v>
       </c>
       <c r="I21" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="J21" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="K21" s="3">
         <v>7000</v>
@@ -1709,10 +1709,10 @@
         <v>6900</v>
       </c>
       <c r="G23" s="3">
-        <v>-32100</v>
+        <v>-31800</v>
       </c>
       <c r="H23" s="3">
-        <v>-15500</v>
+        <v>-15400</v>
       </c>
       <c r="I23" s="3">
         <v>-1300</v>
@@ -1771,10 +1771,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="E24" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="F24" s="3">
         <v>-1800</v>
@@ -1786,10 +1786,10 @@
         <v>-1900</v>
       </c>
       <c r="I24" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J24" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="K24" s="3">
         <v>1100</v>
@@ -1916,16 +1916,16 @@
         <v>-7600</v>
       </c>
       <c r="E26" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="F26" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="G26" s="3">
-        <v>-34900</v>
+        <v>-34600</v>
       </c>
       <c r="H26" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="I26" s="3">
         <v>-4000</v>
@@ -1990,13 +1990,13 @@
         <v>-3900</v>
       </c>
       <c r="F27" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="G27" s="3">
-        <v>-35000</v>
+        <v>-34700</v>
       </c>
       <c r="H27" s="3">
-        <v>-13600</v>
+        <v>-13400</v>
       </c>
       <c r="I27" s="3">
         <v>-4100</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>32700</v>
+        <v>32400</v>
       </c>
       <c r="E32" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="F32" s="3">
-        <v>28400</v>
+        <v>28100</v>
       </c>
       <c r="G32" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="H32" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="I32" s="3">
-        <v>52600</v>
+        <v>52100</v>
       </c>
       <c r="J32" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="K32" s="3">
         <v>27600</v>
@@ -2416,13 +2416,13 @@
         <v>-3900</v>
       </c>
       <c r="F33" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="G33" s="3">
-        <v>-35000</v>
+        <v>-34700</v>
       </c>
       <c r="H33" s="3">
-        <v>-13600</v>
+        <v>-13400</v>
       </c>
       <c r="I33" s="3">
         <v>-4100</v>
@@ -2558,13 +2558,13 @@
         <v>-3900</v>
       </c>
       <c r="F35" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="G35" s="3">
-        <v>-35000</v>
+        <v>-34700</v>
       </c>
       <c r="H35" s="3">
-        <v>-13600</v>
+        <v>-13400</v>
       </c>
       <c r="I35" s="3">
         <v>-4100</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107400</v>
+        <v>106300</v>
       </c>
       <c r="E41" s="3">
-        <v>119100</v>
+        <v>118000</v>
       </c>
       <c r="F41" s="3">
-        <v>84300</v>
+        <v>83500</v>
       </c>
       <c r="G41" s="3">
-        <v>139100</v>
+        <v>137700</v>
       </c>
       <c r="H41" s="3">
-        <v>111600</v>
+        <v>110500</v>
       </c>
       <c r="I41" s="3">
-        <v>98000</v>
+        <v>97100</v>
       </c>
       <c r="J41" s="3">
-        <v>99800</v>
+        <v>98800</v>
       </c>
       <c r="K41" s="3">
         <v>128000</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>68600</v>
+        <v>68000</v>
       </c>
       <c r="E43" s="3">
-        <v>71100</v>
+        <v>70400</v>
       </c>
       <c r="F43" s="3">
-        <v>66500</v>
+        <v>65900</v>
       </c>
       <c r="G43" s="3">
-        <v>61200</v>
+        <v>60600</v>
       </c>
       <c r="H43" s="3">
-        <v>56800</v>
+        <v>56200</v>
       </c>
       <c r="I43" s="3">
-        <v>55500</v>
+        <v>54900</v>
       </c>
       <c r="J43" s="3">
-        <v>64300</v>
+        <v>63700</v>
       </c>
       <c r="K43" s="3">
         <v>58200</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>129900</v>
+        <v>128600</v>
       </c>
       <c r="E45" s="3">
-        <v>197600</v>
+        <v>195700</v>
       </c>
       <c r="F45" s="3">
-        <v>204600</v>
+        <v>202600</v>
       </c>
       <c r="G45" s="3">
-        <v>129900</v>
+        <v>128600</v>
       </c>
       <c r="H45" s="3">
-        <v>82300</v>
+        <v>81500</v>
       </c>
       <c r="I45" s="3">
-        <v>94700</v>
+        <v>93800</v>
       </c>
       <c r="J45" s="3">
-        <v>82900</v>
+        <v>82100</v>
       </c>
       <c r="K45" s="3">
         <v>84900</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>305900</v>
+        <v>302900</v>
       </c>
       <c r="E46" s="3">
-        <v>387800</v>
+        <v>384100</v>
       </c>
       <c r="F46" s="3">
-        <v>355400</v>
+        <v>352000</v>
       </c>
       <c r="G46" s="3">
-        <v>330100</v>
+        <v>326900</v>
       </c>
       <c r="H46" s="3">
-        <v>250700</v>
+        <v>248300</v>
       </c>
       <c r="I46" s="3">
-        <v>248100</v>
+        <v>245800</v>
       </c>
       <c r="J46" s="3">
-        <v>247000</v>
+        <v>244600</v>
       </c>
       <c r="K46" s="3">
         <v>271100</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1706100</v>
+        <v>1689700</v>
       </c>
       <c r="E48" s="3">
-        <v>1562900</v>
+        <v>1547900</v>
       </c>
       <c r="F48" s="3">
-        <v>1490600</v>
+        <v>1476300</v>
       </c>
       <c r="G48" s="3">
-        <v>1415500</v>
+        <v>1402000</v>
       </c>
       <c r="H48" s="3">
-        <v>1423700</v>
+        <v>1410100</v>
       </c>
       <c r="I48" s="3">
-        <v>1350000</v>
+        <v>1337100</v>
       </c>
       <c r="J48" s="3">
-        <v>1289600</v>
+        <v>1277200</v>
       </c>
       <c r="K48" s="3">
         <v>1312600</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>67500</v>
+        <v>66800</v>
       </c>
       <c r="E52" s="3">
-        <v>56700</v>
+        <v>56100</v>
       </c>
       <c r="F52" s="3">
-        <v>131400</v>
+        <v>130200</v>
       </c>
       <c r="G52" s="3">
-        <v>112700</v>
+        <v>111600</v>
       </c>
       <c r="H52" s="3">
-        <v>127600</v>
+        <v>126400</v>
       </c>
       <c r="I52" s="3">
-        <v>124800</v>
+        <v>123600</v>
       </c>
       <c r="J52" s="3">
-        <v>147000</v>
+        <v>145600</v>
       </c>
       <c r="K52" s="3">
         <v>146000</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2079600</v>
+        <v>2059700</v>
       </c>
       <c r="E54" s="3">
-        <v>2007700</v>
+        <v>1988400</v>
       </c>
       <c r="F54" s="3">
-        <v>1977800</v>
+        <v>1958900</v>
       </c>
       <c r="G54" s="3">
-        <v>1858800</v>
+        <v>1841000</v>
       </c>
       <c r="H54" s="3">
-        <v>1802600</v>
+        <v>1785300</v>
       </c>
       <c r="I54" s="3">
-        <v>1723600</v>
+        <v>1707100</v>
       </c>
       <c r="J54" s="3">
-        <v>1684300</v>
+        <v>1668200</v>
       </c>
       <c r="K54" s="3">
         <v>1730500</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>87900</v>
+        <v>87100</v>
       </c>
       <c r="E57" s="3">
-        <v>69800</v>
+        <v>69200</v>
       </c>
       <c r="F57" s="3">
-        <v>51700</v>
+        <v>51200</v>
       </c>
       <c r="G57" s="3">
-        <v>53800</v>
+        <v>53200</v>
       </c>
       <c r="H57" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="I57" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="J57" s="3">
-        <v>30900</v>
+        <v>30700</v>
       </c>
       <c r="K57" s="3">
         <v>23500</v>
@@ -3872,25 +3872,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>345200</v>
+        <v>341900</v>
       </c>
       <c r="E58" s="3">
-        <v>355300</v>
+        <v>351900</v>
       </c>
       <c r="F58" s="3">
-        <v>302400</v>
+        <v>299500</v>
       </c>
       <c r="G58" s="3">
-        <v>170300</v>
+        <v>168700</v>
       </c>
       <c r="H58" s="3">
-        <v>127700</v>
+        <v>126500</v>
       </c>
       <c r="I58" s="3">
-        <v>73500</v>
+        <v>72800</v>
       </c>
       <c r="J58" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="K58" s="3">
         <v>42800</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>68100</v>
+        <v>67400</v>
       </c>
       <c r="E59" s="3">
-        <v>68700</v>
+        <v>68000</v>
       </c>
       <c r="F59" s="3">
-        <v>56900</v>
+        <v>56300</v>
       </c>
       <c r="G59" s="3">
-        <v>77200</v>
+        <v>76500</v>
       </c>
       <c r="H59" s="3">
-        <v>78100</v>
+        <v>77400</v>
       </c>
       <c r="I59" s="3">
-        <v>69300</v>
+        <v>68600</v>
       </c>
       <c r="J59" s="3">
-        <v>45800</v>
+        <v>45400</v>
       </c>
       <c r="K59" s="3">
         <v>54300</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>501200</v>
+        <v>496400</v>
       </c>
       <c r="E60" s="3">
-        <v>493800</v>
+        <v>489100</v>
       </c>
       <c r="F60" s="3">
-        <v>410900</v>
+        <v>407000</v>
       </c>
       <c r="G60" s="3">
-        <v>301300</v>
+        <v>298400</v>
       </c>
       <c r="H60" s="3">
-        <v>230500</v>
+        <v>228300</v>
       </c>
       <c r="I60" s="3">
-        <v>164900</v>
+        <v>163300</v>
       </c>
       <c r="J60" s="3">
-        <v>103900</v>
+        <v>102900</v>
       </c>
       <c r="K60" s="3">
         <v>120600</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1153400</v>
+        <v>1142300</v>
       </c>
       <c r="E61" s="3">
-        <v>1088400</v>
+        <v>1077900</v>
       </c>
       <c r="F61" s="3">
-        <v>1131200</v>
+        <v>1120400</v>
       </c>
       <c r="G61" s="3">
-        <v>1125800</v>
+        <v>1115000</v>
       </c>
       <c r="H61" s="3">
-        <v>1098000</v>
+        <v>1087500</v>
       </c>
       <c r="I61" s="3">
-        <v>1088800</v>
+        <v>1078400</v>
       </c>
       <c r="J61" s="3">
-        <v>1120400</v>
+        <v>1109700</v>
       </c>
       <c r="K61" s="3">
         <v>1131700</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>127400</v>
+        <v>126200</v>
       </c>
       <c r="E62" s="3">
-        <v>121000</v>
+        <v>119800</v>
       </c>
       <c r="F62" s="3">
-        <v>123600</v>
+        <v>122400</v>
       </c>
       <c r="G62" s="3">
-        <v>125600</v>
+        <v>124300</v>
       </c>
       <c r="H62" s="3">
-        <v>133400</v>
+        <v>132200</v>
       </c>
       <c r="I62" s="3">
-        <v>121900</v>
+        <v>120700</v>
       </c>
       <c r="J62" s="3">
-        <v>113700</v>
+        <v>112600</v>
       </c>
       <c r="K62" s="3">
         <v>122500</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1784600</v>
+        <v>1767400</v>
       </c>
       <c r="E66" s="3">
-        <v>1706000</v>
+        <v>1689600</v>
       </c>
       <c r="F66" s="3">
-        <v>1668400</v>
+        <v>1652400</v>
       </c>
       <c r="G66" s="3">
-        <v>1555200</v>
+        <v>1540300</v>
       </c>
       <c r="H66" s="3">
-        <v>1464500</v>
+        <v>1450400</v>
       </c>
       <c r="I66" s="3">
-        <v>1378200</v>
+        <v>1365000</v>
       </c>
       <c r="J66" s="3">
-        <v>1340500</v>
+        <v>1327700</v>
       </c>
       <c r="K66" s="3">
         <v>1377400</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-162800</v>
+        <v>-161200</v>
       </c>
       <c r="E72" s="3">
-        <v>-155300</v>
+        <v>-153900</v>
       </c>
       <c r="F72" s="3">
-        <v>-151400</v>
+        <v>-150000</v>
       </c>
       <c r="G72" s="3">
-        <v>-160100</v>
+        <v>-158500</v>
       </c>
       <c r="H72" s="3">
-        <v>-125100</v>
+        <v>-123900</v>
       </c>
       <c r="I72" s="3">
-        <v>-111500</v>
+        <v>-110400</v>
       </c>
       <c r="J72" s="3">
-        <v>-106900</v>
+        <v>-105900</v>
       </c>
       <c r="K72" s="3">
         <v>-112100</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>295100</v>
+        <v>292300</v>
       </c>
       <c r="E76" s="3">
-        <v>301700</v>
+        <v>298800</v>
       </c>
       <c r="F76" s="3">
-        <v>309500</v>
+        <v>306500</v>
       </c>
       <c r="G76" s="3">
-        <v>303600</v>
+        <v>300700</v>
       </c>
       <c r="H76" s="3">
-        <v>338100</v>
+        <v>334900</v>
       </c>
       <c r="I76" s="3">
-        <v>345400</v>
+        <v>342100</v>
       </c>
       <c r="J76" s="3">
-        <v>343800</v>
+        <v>340500</v>
       </c>
       <c r="K76" s="3">
         <v>353100</v>
@@ -5330,13 +5330,13 @@
         <v>-3900</v>
       </c>
       <c r="F81" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="G81" s="3">
-        <v>-35000</v>
+        <v>-34700</v>
       </c>
       <c r="H81" s="3">
-        <v>-13600</v>
+        <v>-13400</v>
       </c>
       <c r="I81" s="3">
         <v>-4100</v>
@@ -5422,25 +5422,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="E83" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="F83" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="G83" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="H83" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="I83" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="J83" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="K83" s="3">
         <v>11100</v>
@@ -5848,22 +5848,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="E89" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="F89" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="G89" s="3">
-        <v>26400</v>
+        <v>26200</v>
       </c>
       <c r="H89" s="3">
         <v>5400</v>
       </c>
       <c r="I89" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="J89" s="3">
         <v>-7000</v>
@@ -5946,25 +5946,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-136700</v>
+        <v>-135400</v>
       </c>
       <c r="E91" s="3">
-        <v>-56200</v>
+        <v>-55600</v>
       </c>
       <c r="F91" s="3">
-        <v>-95200</v>
+        <v>-94300</v>
       </c>
       <c r="G91" s="3">
-        <v>-75800</v>
+        <v>-75100</v>
       </c>
       <c r="H91" s="3">
-        <v>-71200</v>
+        <v>-70500</v>
       </c>
       <c r="I91" s="3">
-        <v>-89700</v>
+        <v>-88900</v>
       </c>
       <c r="J91" s="3">
-        <v>-23200</v>
+        <v>-23000</v>
       </c>
       <c r="K91" s="3">
         <v>-19800</v>
@@ -6159,25 +6159,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-135900</v>
+        <v>-134600</v>
       </c>
       <c r="E94" s="3">
-        <v>-56100</v>
+        <v>-55600</v>
       </c>
       <c r="F94" s="3">
-        <v>-93600</v>
+        <v>-92700</v>
       </c>
       <c r="G94" s="3">
-        <v>-75800</v>
+        <v>-75100</v>
       </c>
       <c r="H94" s="3">
-        <v>-71200</v>
+        <v>-70500</v>
       </c>
       <c r="I94" s="3">
-        <v>-89800</v>
+        <v>-89000</v>
       </c>
       <c r="J94" s="3">
-        <v>-23300</v>
+        <v>-23100</v>
       </c>
       <c r="K94" s="3">
         <v>48100</v>
@@ -6541,25 +6541,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>47000</v>
+        <v>46600</v>
       </c>
       <c r="E100" s="3">
-        <v>55400</v>
+        <v>54800</v>
       </c>
       <c r="F100" s="3">
-        <v>111600</v>
+        <v>110500</v>
       </c>
       <c r="G100" s="3">
-        <v>84700</v>
+        <v>83800</v>
       </c>
       <c r="H100" s="3">
-        <v>62300</v>
+        <v>61700</v>
       </c>
       <c r="I100" s="3">
-        <v>42000</v>
+        <v>41600</v>
       </c>
       <c r="J100" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K100" s="3">
         <v>3100</v>
@@ -6615,10 +6615,10 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="F101" s="3">
-        <v>-12300</v>
+        <v>-12100</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
@@ -6683,25 +6683,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-69700</v>
+        <v>-69000</v>
       </c>
       <c r="E102" s="3">
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="F102" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="G102" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="H102" s="3">
         <v>-2700</v>
       </c>
       <c r="I102" s="3">
-        <v>-18400</v>
+        <v>-18200</v>
       </c>
       <c r="J102" s="3">
-        <v>-27200</v>
+        <v>-26900</v>
       </c>
       <c r="K102" s="3">
         <v>76400</v>

--- a/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AZRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>AZRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>55600</v>
+        <v>62400</v>
       </c>
       <c r="E8" s="3">
-        <v>54400</v>
+        <v>54600</v>
       </c>
       <c r="F8" s="3">
-        <v>55100</v>
+        <v>53500</v>
       </c>
       <c r="G8" s="3">
-        <v>53000</v>
+        <v>54100</v>
       </c>
       <c r="H8" s="3">
-        <v>43700</v>
+        <v>52100</v>
       </c>
       <c r="I8" s="3">
-        <v>92300</v>
+        <v>42900</v>
       </c>
       <c r="J8" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K8" s="3">
         <v>48900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>83900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>32700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>30000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>31700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>25200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>27200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>18200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>13100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>4800</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="F9" s="3">
         <v>4300</v>
       </c>
       <c r="G9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H9" s="3">
         <v>4700</v>
       </c>
-      <c r="H9" s="3">
-        <v>3800</v>
-      </c>
       <c r="I9" s="3">
-        <v>7100</v>
+        <v>3700</v>
       </c>
       <c r="J9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K9" s="3">
         <v>3300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>50700</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>50000</v>
+        <v>49900</v>
       </c>
       <c r="F10" s="3">
-        <v>50800</v>
+        <v>49100</v>
       </c>
       <c r="G10" s="3">
-        <v>48200</v>
+        <v>49900</v>
       </c>
       <c r="H10" s="3">
-        <v>39900</v>
+        <v>47400</v>
       </c>
       <c r="I10" s="3">
-        <v>85200</v>
+        <v>39200</v>
       </c>
       <c r="J10" s="3">
+        <v>83800</v>
+      </c>
+      <c r="K10" s="3">
         <v>45600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>76500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>42500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>29100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>28700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>22900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>24600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>16400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>11900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,34 +1163,37 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>40400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>39700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1181,8 +1201,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1217,79 +1237,85 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>11600</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="3">
         <v>10700</v>
       </c>
-      <c r="F15" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>9900</v>
-      </c>
       <c r="I15" s="3">
-        <v>18900</v>
+        <v>9700</v>
       </c>
       <c r="J15" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K15" s="3">
         <v>9400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>17400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>6900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>6400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>6900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>6700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>6100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4300</v>
-      </c>
-      <c r="X15" s="3">
-        <v>3400</v>
       </c>
       <c r="Y15" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>20200</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="F17" s="3">
+        <v>19200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>19700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>56100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>33600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K17" s="3">
+        <v>17200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>24500</v>
+      </c>
+      <c r="M17" s="3">
+        <v>22000</v>
+      </c>
+      <c r="N17" s="3">
+        <v>39000</v>
+      </c>
+      <c r="O17" s="3">
         <v>20100</v>
       </c>
-      <c r="G17" s="3">
-        <v>57100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>34100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>41500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>17200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>24500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>22000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>39000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>20100</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>35300</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>34900</v>
+        <v>34700</v>
       </c>
       <c r="F18" s="3">
-        <v>35000</v>
+        <v>34300</v>
       </c>
       <c r="G18" s="3">
+        <v>34400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
-        <v>9500</v>
-      </c>
       <c r="I18" s="3">
-        <v>50800</v>
+        <v>9300</v>
       </c>
       <c r="J18" s="3">
+        <v>49900</v>
+      </c>
+      <c r="K18" s="3">
         <v>31600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>44900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>15500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>15000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>15200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-32400</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-28400</v>
+        <v>-31800</v>
       </c>
       <c r="F20" s="3">
-        <v>-28100</v>
+        <v>-27900</v>
       </c>
       <c r="G20" s="3">
         <v>-27700</v>
       </c>
       <c r="H20" s="3">
-        <v>-24900</v>
+        <v>-27200</v>
       </c>
       <c r="I20" s="3">
-        <v>-52100</v>
+        <v>-24400</v>
       </c>
       <c r="J20" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-27100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-33600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-50500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-22100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-16900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-13100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-15000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-34800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>14500</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>17100</v>
+        <v>14300</v>
       </c>
       <c r="F21" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="G21" s="3">
-        <v>-20900</v>
+        <v>16700</v>
       </c>
       <c r="H21" s="3">
-        <v>-5500</v>
+        <v>-20600</v>
       </c>
       <c r="I21" s="3">
-        <v>17700</v>
+        <v>-5400</v>
       </c>
       <c r="J21" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K21" s="3">
         <v>13900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-19200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1676,8 +1716,8 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="O23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P23" s="3">
         <v>3000</v>
       </c>
-      <c r="E23" s="3">
-        <v>6500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-31800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>4300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>10500</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="F24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>800</v>
+      </c>
+      <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="V24" s="3">
         <v>-1900</v>
       </c>
-      <c r="I24" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-7600</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="F26" s="3">
-        <v>8600</v>
-      </c>
       <c r="G26" s="3">
-        <v>-34600</v>
+        <v>8500</v>
       </c>
       <c r="H26" s="3">
-        <v>-13500</v>
+        <v>-34000</v>
       </c>
       <c r="I26" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>600</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="O26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
-        <v>600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>3300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="O27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>500</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="W27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-34700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="V27" s="3">
-        <v>2300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2152,17 +2213,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2170,12 +2231,12 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>1600</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>32400</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>28400</v>
+        <v>31800</v>
       </c>
       <c r="F32" s="3">
-        <v>28100</v>
+        <v>27900</v>
       </c>
       <c r="G32" s="3">
         <v>27700</v>
       </c>
       <c r="H32" s="3">
-        <v>24900</v>
+        <v>27200</v>
       </c>
       <c r="I32" s="3">
-        <v>52100</v>
+        <v>24400</v>
       </c>
       <c r="J32" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K32" s="3">
         <v>27100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>33600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>50500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>22100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>16900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>13100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>15000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>34800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>8600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="W33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-34700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>2000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="V33" s="3">
-        <v>2300</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K35" s="3">
+        <v>500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="W35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-34700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>2000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="V35" s="3">
-        <v>2300</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>106300</v>
+        <v>8200</v>
       </c>
       <c r="E41" s="3">
-        <v>118000</v>
+        <v>104500</v>
       </c>
       <c r="F41" s="3">
-        <v>83500</v>
+        <v>116000</v>
       </c>
       <c r="G41" s="3">
-        <v>137700</v>
+        <v>82100</v>
       </c>
       <c r="H41" s="3">
-        <v>110500</v>
+        <v>135400</v>
       </c>
       <c r="I41" s="3">
-        <v>97100</v>
+        <v>108700</v>
       </c>
       <c r="J41" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K41" s="3">
         <v>98800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>128000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>82200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>86900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>157500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>142600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>235100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>101700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>101900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>117200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>109500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>223100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>72700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>63600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>81300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2848,120 +2938,126 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>68600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13500</v>
-      </c>
-      <c r="N42" s="3">
-        <v>100</v>
       </c>
       <c r="O42" s="3">
         <v>100</v>
       </c>
       <c r="P42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>43100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>41300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>60200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>15900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>30800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>57100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>34800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>68000</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>70400</v>
+        <v>66800</v>
       </c>
       <c r="F43" s="3">
-        <v>65900</v>
+        <v>69200</v>
       </c>
       <c r="G43" s="3">
-        <v>60600</v>
+        <v>64700</v>
       </c>
       <c r="H43" s="3">
-        <v>56200</v>
+        <v>59600</v>
       </c>
       <c r="I43" s="3">
-        <v>54900</v>
+        <v>55300</v>
       </c>
       <c r="J43" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K43" s="3">
         <v>63700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>58200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>52800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>56900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>33600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>37900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>31200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>27500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>18800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>16600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,155 +3127,164 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>128600</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>195700</v>
+        <v>126400</v>
       </c>
       <c r="F45" s="3">
-        <v>202600</v>
+        <v>192400</v>
       </c>
       <c r="G45" s="3">
-        <v>128600</v>
+        <v>199200</v>
       </c>
       <c r="H45" s="3">
-        <v>81500</v>
+        <v>126400</v>
       </c>
       <c r="I45" s="3">
-        <v>93800</v>
+        <v>80200</v>
       </c>
       <c r="J45" s="3">
+        <v>92200</v>
+      </c>
+      <c r="K45" s="3">
         <v>82100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>84900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>50800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>313800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>108400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>96900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>74900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>47900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>49400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>68000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>36000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>50500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>56000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>20800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>302900</v>
+        <v>45500</v>
       </c>
       <c r="E46" s="3">
-        <v>384100</v>
+        <v>297800</v>
       </c>
       <c r="F46" s="3">
-        <v>352000</v>
+        <v>377600</v>
       </c>
       <c r="G46" s="3">
-        <v>326900</v>
+        <v>346100</v>
       </c>
       <c r="H46" s="3">
-        <v>248300</v>
+        <v>321400</v>
       </c>
       <c r="I46" s="3">
-        <v>245800</v>
+        <v>244100</v>
       </c>
       <c r="J46" s="3">
+        <v>241600</v>
+      </c>
+      <c r="K46" s="3">
         <v>244600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>271100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>254300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>468900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>322900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>235400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>365500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>249800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>229000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>217300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>265300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>172800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>193200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>146200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>137100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>100</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
@@ -3202,8 +3307,8 @@
       <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>100</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -3211,11 +3316,11 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>100</v>
@@ -3236,116 +3341,122 @@
         <v>100</v>
       </c>
       <c r="W47" s="3">
+        <v>100</v>
+      </c>
+      <c r="X47" s="3">
         <v>1900</v>
-      </c>
-      <c r="X47" s="3">
-        <v>100</v>
       </c>
       <c r="Y47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1689700</v>
+        <v>9100</v>
       </c>
       <c r="E48" s="3">
-        <v>1547900</v>
+        <v>1661100</v>
       </c>
       <c r="F48" s="3">
-        <v>1476300</v>
+        <v>1521700</v>
       </c>
       <c r="G48" s="3">
-        <v>1402000</v>
+        <v>1451300</v>
       </c>
       <c r="H48" s="3">
-        <v>1410100</v>
+        <v>1378200</v>
       </c>
       <c r="I48" s="3">
-        <v>1337100</v>
+        <v>1386200</v>
       </c>
       <c r="J48" s="3">
+        <v>1314500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1277200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1312600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1329700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1318700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1239500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1129000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>948400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>885000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>775300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>794400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>770800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>707700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>666100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>564200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>513200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>391300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
         <v>200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>300</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
       </c>
       <c r="I49" s="3">
+        <v>400</v>
+      </c>
+      <c r="J49" s="3">
         <v>500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>700</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
       </c>
       <c r="L49" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M49" s="3">
         <v>900</v>
@@ -3357,7 +3468,7 @@
         <v>900</v>
       </c>
       <c r="P49" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="Q49" s="3">
         <v>600</v>
@@ -3369,25 +3480,28 @@
         <v>600</v>
       </c>
       <c r="T49" s="3">
+        <v>600</v>
+      </c>
+      <c r="U49" s="3">
         <v>400</v>
-      </c>
-      <c r="U49" s="3">
-        <v>300</v>
       </c>
       <c r="V49" s="3">
         <v>300</v>
       </c>
       <c r="W49" s="3">
+        <v>300</v>
+      </c>
+      <c r="X49" s="3">
         <v>1800</v>
-      </c>
-      <c r="X49" s="3">
-        <v>200</v>
       </c>
       <c r="Y49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>66800</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>56100</v>
+        <v>65700</v>
       </c>
       <c r="F52" s="3">
-        <v>130200</v>
+        <v>55200</v>
       </c>
       <c r="G52" s="3">
-        <v>111600</v>
+        <v>128000</v>
       </c>
       <c r="H52" s="3">
-        <v>126400</v>
+        <v>109700</v>
       </c>
       <c r="I52" s="3">
-        <v>123600</v>
+        <v>124300</v>
       </c>
       <c r="J52" s="3">
+        <v>121500</v>
+      </c>
+      <c r="K52" s="3">
         <v>145600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>146000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>116100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>114900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>104600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>107600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>86700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>93100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>59700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>34300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>34600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>31200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>30700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2059700</v>
+        <v>490400</v>
       </c>
       <c r="E54" s="3">
-        <v>1988400</v>
+        <v>2024800</v>
       </c>
       <c r="F54" s="3">
-        <v>1958900</v>
+        <v>1954700</v>
       </c>
       <c r="G54" s="3">
-        <v>1841000</v>
+        <v>1925700</v>
       </c>
       <c r="H54" s="3">
-        <v>1785300</v>
+        <v>1809800</v>
       </c>
       <c r="I54" s="3">
-        <v>1707100</v>
+        <v>1755100</v>
       </c>
       <c r="J54" s="3">
+        <v>1678100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1668200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1730500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1700900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1903500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1667900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1472900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1401300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1228500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1064600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1038700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1057400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1042600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>873800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>792300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>690400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>557500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>87100</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>69200</v>
+        <v>85600</v>
       </c>
       <c r="F57" s="3">
-        <v>51200</v>
+        <v>68000</v>
       </c>
       <c r="G57" s="3">
-        <v>53200</v>
+        <v>50300</v>
       </c>
       <c r="H57" s="3">
-        <v>24500</v>
+        <v>52300</v>
       </c>
       <c r="I57" s="3">
-        <v>21900</v>
+        <v>24100</v>
       </c>
       <c r="J57" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K57" s="3">
         <v>30700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>47000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>30800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>80600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>22100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>21400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>30900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>43900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>58100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>49900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>41700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>341900</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>351900</v>
+        <v>336100</v>
       </c>
       <c r="F58" s="3">
-        <v>299500</v>
+        <v>346000</v>
       </c>
       <c r="G58" s="3">
-        <v>168700</v>
+        <v>294400</v>
       </c>
       <c r="H58" s="3">
-        <v>126500</v>
+        <v>165800</v>
       </c>
       <c r="I58" s="3">
-        <v>72800</v>
+        <v>124300</v>
       </c>
       <c r="J58" s="3">
+        <v>71600</v>
+      </c>
+      <c r="K58" s="3">
         <v>26800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>42800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>53000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>284500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>206400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>136800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>85300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>67200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>19300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>27400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>60700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>55300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>66300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>66800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>55400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>75200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>76000</v>
+      </c>
+      <c r="J59" s="3">
         <v>67400</v>
       </c>
-      <c r="E59" s="3">
-        <v>68000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>56300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>76500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>77400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>68600</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>46200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>26900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>496400</v>
+        <v>24500</v>
       </c>
       <c r="E60" s="3">
-        <v>489100</v>
+        <v>488000</v>
       </c>
       <c r="F60" s="3">
-        <v>407000</v>
+        <v>480800</v>
       </c>
       <c r="G60" s="3">
-        <v>298400</v>
+        <v>400100</v>
       </c>
       <c r="H60" s="3">
-        <v>228300</v>
+        <v>293300</v>
       </c>
       <c r="I60" s="3">
-        <v>163300</v>
+        <v>224400</v>
       </c>
       <c r="J60" s="3">
+        <v>160600</v>
+      </c>
+      <c r="K60" s="3">
         <v>102900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>120600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>114400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>349100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>272900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>230100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>136800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>172400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>60100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>72300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>72800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>88300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>132000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>118800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>79300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1142300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1077900</v>
+        <v>1123000</v>
       </c>
       <c r="F61" s="3">
-        <v>1120400</v>
+        <v>1059700</v>
       </c>
       <c r="G61" s="3">
-        <v>1115000</v>
+        <v>1101400</v>
       </c>
       <c r="H61" s="3">
-        <v>1087500</v>
+        <v>1096100</v>
       </c>
       <c r="I61" s="3">
-        <v>1078400</v>
+        <v>1069100</v>
       </c>
       <c r="J61" s="3">
+        <v>1060100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1109700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1131700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1087200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1106000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>934300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>834200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>861400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>849200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>784500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>733400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>748900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>721300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>482400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>429100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>371000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>303100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>126200</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
-        <v>119800</v>
+        <v>124100</v>
       </c>
       <c r="F62" s="3">
-        <v>122400</v>
+        <v>117800</v>
       </c>
       <c r="G62" s="3">
-        <v>124300</v>
+        <v>120400</v>
       </c>
       <c r="H62" s="3">
-        <v>132200</v>
+        <v>122200</v>
       </c>
       <c r="I62" s="3">
-        <v>120700</v>
+        <v>129900</v>
       </c>
       <c r="J62" s="3">
+        <v>118700</v>
+      </c>
+      <c r="K62" s="3">
         <v>112600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>122500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>113900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>110700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>105500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>65000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>48300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>43800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>38800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>35000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1767400</v>
+        <v>434000</v>
       </c>
       <c r="E66" s="3">
-        <v>1689600</v>
+        <v>1737500</v>
       </c>
       <c r="F66" s="3">
-        <v>1652400</v>
+        <v>1661000</v>
       </c>
       <c r="G66" s="3">
-        <v>1540300</v>
+        <v>1624400</v>
       </c>
       <c r="H66" s="3">
-        <v>1450400</v>
+        <v>1514200</v>
       </c>
       <c r="I66" s="3">
-        <v>1365000</v>
+        <v>1425900</v>
       </c>
       <c r="J66" s="3">
+        <v>1341900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1327700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1377400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1318500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1569100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1316300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1132900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1062100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1083800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>903000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>868600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>882200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>869000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>681400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>610100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>503400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>507900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,10 +4911,13 @@
         <v>0</v>
       </c>
       <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
         <v>159800</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-161200</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>-153900</v>
+        <v>-158500</v>
       </c>
       <c r="F72" s="3">
-        <v>-150000</v>
+        <v>-151300</v>
       </c>
       <c r="G72" s="3">
-        <v>-158500</v>
+        <v>-147400</v>
       </c>
       <c r="H72" s="3">
-        <v>-123900</v>
+        <v>-155900</v>
       </c>
       <c r="I72" s="3">
-        <v>-110400</v>
+        <v>-121800</v>
       </c>
       <c r="J72" s="3">
+        <v>-108600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-105900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-112100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-109500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-92400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-85400</v>
       </c>
       <c r="O72" s="3">
         <v>-85400</v>
       </c>
       <c r="P72" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-89700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-84200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-92600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-97400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-95800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-81800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-78900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-74400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-67500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>292300</v>
+      <c r="D76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E76" s="3">
-        <v>298800</v>
+        <v>287300</v>
       </c>
       <c r="F76" s="3">
-        <v>306500</v>
+        <v>293800</v>
       </c>
       <c r="G76" s="3">
-        <v>300700</v>
+        <v>301300</v>
       </c>
       <c r="H76" s="3">
-        <v>334900</v>
+        <v>295600</v>
       </c>
       <c r="I76" s="3">
-        <v>342100</v>
+        <v>329200</v>
       </c>
       <c r="J76" s="3">
+        <v>336300</v>
+      </c>
+      <c r="K76" s="3">
         <v>340500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>353100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>382400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>334400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>351600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>340000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>339200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>144700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>161600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>170100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>175200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>173600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>192500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>182200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>186900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-110200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K81" s="3">
+        <v>500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="O81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="W81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-34700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>2000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="V81" s="3">
-        <v>2300</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,49 +5614,50 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>11600</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H83" s="3">
         <v>10700</v>
       </c>
-      <c r="F83" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>9900</v>
-      </c>
       <c r="I83" s="3">
-        <v>18900</v>
+        <v>9700</v>
       </c>
       <c r="J83" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K83" s="3">
         <v>9400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>19000</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
-        <v>11600</v>
+        <v>18700</v>
       </c>
       <c r="F89" s="3">
         <v>11400</v>
       </c>
       <c r="G89" s="3">
-        <v>26200</v>
+        <v>11200</v>
       </c>
       <c r="H89" s="3">
-        <v>5400</v>
+        <v>25700</v>
       </c>
       <c r="I89" s="3">
-        <v>30100</v>
+        <v>5300</v>
       </c>
       <c r="J89" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>23800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>20100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,49 +6160,50 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-135400</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-55600</v>
+        <v>-133100</v>
       </c>
       <c r="F91" s="3">
-        <v>-94300</v>
+        <v>-54700</v>
       </c>
       <c r="G91" s="3">
-        <v>-75100</v>
+        <v>-92700</v>
       </c>
       <c r="H91" s="3">
-        <v>-70500</v>
+        <v>-73800</v>
       </c>
       <c r="I91" s="3">
-        <v>-88900</v>
+        <v>-69300</v>
       </c>
       <c r="J91" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-193000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-134600</v>
+        <v>-19100</v>
       </c>
       <c r="E94" s="3">
-        <v>-55600</v>
+        <v>-132300</v>
       </c>
       <c r="F94" s="3">
-        <v>-92700</v>
+        <v>-54700</v>
       </c>
       <c r="G94" s="3">
-        <v>-75100</v>
+        <v>-91100</v>
       </c>
       <c r="H94" s="3">
-        <v>-70500</v>
+        <v>-73800</v>
       </c>
       <c r="I94" s="3">
-        <v>-89000</v>
+        <v>-69300</v>
       </c>
       <c r="J94" s="3">
+        <v>-87500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>48100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-87900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-206400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-77900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-174800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-55500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-194500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-101200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-125500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-60400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>46600</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
-        <v>54800</v>
+        <v>45800</v>
       </c>
       <c r="F100" s="3">
-        <v>110500</v>
+        <v>53900</v>
       </c>
       <c r="G100" s="3">
-        <v>83800</v>
+        <v>108700</v>
       </c>
       <c r="H100" s="3">
-        <v>61700</v>
+        <v>82400</v>
       </c>
       <c r="I100" s="3">
-        <v>41600</v>
+        <v>60600</v>
       </c>
       <c r="J100" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K100" s="3">
         <v>3300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-184700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>147600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>24000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>224400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>56600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>56200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>55900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>168700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>17700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>98500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>122000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6615,40 +6864,40 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>12200</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-12100</v>
+        <v>12000</v>
       </c>
       <c r="G101" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6677,49 +6926,52 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-69000</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>23000</v>
+        <v>-67800</v>
       </c>
       <c r="F102" s="3">
-        <v>17100</v>
+        <v>22600</v>
       </c>
       <c r="G102" s="3">
-        <v>35300</v>
+        <v>16800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2700</v>
+        <v>34700</v>
       </c>
       <c r="I102" s="3">
-        <v>-18200</v>
+        <v>-2600</v>
       </c>
       <c r="J102" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-26900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>76400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-263100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>207500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
